--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="N162" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>原张煜18621696960</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1153,6 +1175,105 @@
   </si>
   <si>
     <t>春树拉面(广州店)</t>
+  </si>
+  <si>
+    <t>武夷山</t>
+  </si>
+  <si>
+    <t>悸动(南平武夷学院店)</t>
+  </si>
+  <si>
+    <t>鲍昭松</t>
+  </si>
+  <si>
+    <t>悸动(南京紫霞街店)</t>
+  </si>
+  <si>
+    <t>陈杰佑</t>
+  </si>
+  <si>
+    <t>悸动(青浦新凤北路店)</t>
+  </si>
+  <si>
+    <t>王勇</t>
+  </si>
+  <si>
+    <t>悸动(盐城人民北路店)</t>
+  </si>
+  <si>
+    <t>杨平</t>
+  </si>
+  <si>
+    <t>悸动(南京汇景路店)</t>
+  </si>
+  <si>
+    <t>王浩东</t>
+  </si>
+  <si>
+    <t>悸动(常州微风时代广场店)</t>
+  </si>
+  <si>
+    <t>李娟</t>
+  </si>
+  <si>
+    <t>莫祎</t>
+  </si>
+  <si>
+    <t>悸动(嘉兴友谊街店)</t>
+  </si>
+  <si>
+    <t>陈晓珍</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>悸动(鄂州恒大影城店)</t>
+  </si>
+  <si>
+    <t>陈爱梅</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>悸动(桂林文化宫店)</t>
+  </si>
+  <si>
+    <t>龙靖华</t>
+  </si>
+  <si>
+    <t>悸动(嘉兴王江泾店)</t>
+  </si>
+  <si>
+    <t>徐清</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>悸动(长沙五一广场店)</t>
+  </si>
+  <si>
+    <t>唐君华</t>
+  </si>
+  <si>
+    <t>悸动(常州邹区北大街店)</t>
+  </si>
+  <si>
+    <t>戚黛云</t>
+  </si>
+  <si>
+    <t>悸动(常熟西庄街店)</t>
+  </si>
+  <si>
+    <t>周妹华</t>
+  </si>
+  <si>
+    <t>悸动(南京振兴路店)</t>
+  </si>
+  <si>
+    <t>王丽莉</t>
   </si>
   <si>
     <t>姓名</t>
@@ -2222,7 +2343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2330,6 +2451,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2835,440 +2977,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="41"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51">
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79" t="e">
+      <c r="J3" s="85"/>
+      <c r="K3" s="86" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="87">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="81">
+      <c r="M3" s="88">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="82" t="e">
+      <c r="N3" s="89" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57">
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="58">
+      <c r="G4" s="65"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="79" t="e">
+      <c r="J4" s="90"/>
+      <c r="K4" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="80">
+      <c r="L4" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="81">
+      <c r="M4" s="88">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="82" t="e">
+      <c r="N4" s="89" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57">
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="58">
+      <c r="G5" s="65"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="79" t="e">
+      <c r="J5" s="90"/>
+      <c r="K5" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="80">
+      <c r="L5" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="81">
+      <c r="M5" s="88">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="82" t="e">
+      <c r="N5" s="89" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57">
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="58">
+      <c r="G6" s="65"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="79" t="e">
+      <c r="J6" s="90"/>
+      <c r="K6" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="80">
+      <c r="L6" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="88">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="82" t="e">
+      <c r="N6" s="89" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="58">
+      <c r="G7" s="65"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="79" t="e">
+      <c r="J7" s="90"/>
+      <c r="K7" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="80">
+      <c r="L7" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7" s="88">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="82" t="e">
+      <c r="N7" s="89" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57">
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="58">
+      <c r="G8" s="65"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="79" t="e">
+      <c r="J8" s="90"/>
+      <c r="K8" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="80">
+      <c r="L8" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="81">
+      <c r="M8" s="88">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="82" t="e">
+      <c r="N8" s="89" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57">
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="58">
+      <c r="G9" s="65"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="79" t="e">
+      <c r="J9" s="90"/>
+      <c r="K9" s="86" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="80">
+      <c r="L9" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="81">
+      <c r="M9" s="88">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="82" t="e">
+      <c r="N9" s="89" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="59" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62">
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="63">
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85" t="e">
+      <c r="J10" s="91"/>
+      <c r="K10" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="86">
+      <c r="L10" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="87">
+      <c r="M10" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="88" t="e">
+      <c r="N10" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="75">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="75">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="75">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="75">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="75">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="89" t="e">
+      <c r="K11" s="96" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="76">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="76">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="90" t="e">
+      <c r="N11" s="97" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3286,10 +3428,10 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
+      <selection pane="bottomLeft" activeCell="Q159" sqref="Q159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7287,7 +7429,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="91" t="s">
+      <c r="N95" s="98" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -9524,83 +9666,723 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="18"/>
-      <c r="N147" s="26"/>
-      <c r="O147" s="6"/>
+      <c r="B147" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F147" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="G147" s="39">
+        <v>76102697</v>
+      </c>
+      <c r="H147" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="I147" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L147" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="M147" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N147" s="39">
+        <v>13799931512</v>
+      </c>
+      <c r="O147" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="18"/>
-      <c r="N148" s="26"/>
-      <c r="O148" s="6"/>
+      <c r="B148" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F148" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G148" s="39">
+        <v>76102507</v>
+      </c>
+      <c r="H148" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="I148" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J148" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K148" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L148" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="M148" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N148" s="39">
+        <v>18951800825</v>
+      </c>
+      <c r="O148" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="18"/>
-      <c r="N149" s="26"/>
-      <c r="O149" s="6"/>
+      <c r="B149" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F149" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" s="39">
+        <v>76081788</v>
+      </c>
+      <c r="H149" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="I149" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J149" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L149" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="M149" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N149" s="39">
+        <v>13917912922</v>
+      </c>
+      <c r="O149" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="18"/>
-      <c r="N150" s="26"/>
-      <c r="O150" s="6"/>
+      <c r="B150" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F150" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G150" s="39">
+        <v>76102668</v>
+      </c>
+      <c r="H150" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="I150" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J150" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K150" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L150" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="M150" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N150" s="39">
+        <v>18101847158</v>
+      </c>
+      <c r="O150" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="18"/>
-      <c r="N151" s="26"/>
-      <c r="O151" s="6"/>
+      <c r="B151" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F151" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G151" s="39">
+        <v>76081960</v>
+      </c>
+      <c r="H151" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="I151" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J151" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K151" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L151" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="M151" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N151" s="39">
+        <v>15358110011</v>
+      </c>
+      <c r="O151" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="18"/>
-      <c r="N152" s="26"/>
-      <c r="O152" s="6"/>
+      <c r="B152" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F152" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G152" s="39">
+        <v>76101938</v>
+      </c>
+      <c r="H152" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="I152" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J152" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K152" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L152" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="M152" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N152" s="39">
+        <v>13063991050</v>
+      </c>
+      <c r="O152" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="18"/>
-      <c r="N153" s="26"/>
-      <c r="O153" s="6"/>
+      <c r="B153" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F153" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G153" s="39">
+        <v>76100735</v>
+      </c>
+      <c r="H153" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="I153" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J153" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K153" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L153" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="M153" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N153" s="39">
+        <v>13706123603</v>
+      </c>
+      <c r="O153" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="18"/>
-      <c r="N154" s="26"/>
-      <c r="O154" s="6"/>
+      <c r="B154" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F154" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G154" s="39">
+        <v>76102760</v>
+      </c>
+      <c r="H154" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="I154" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J154" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K154" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L154" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="M154" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N154" s="39">
+        <v>15268309799</v>
+      </c>
+      <c r="O154" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="18"/>
-      <c r="N155" s="26"/>
-      <c r="O155" s="6"/>
+      <c r="B155" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F155" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="G155" s="39">
+        <v>76081893</v>
+      </c>
+      <c r="H155" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="I155" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J155" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K155" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L155" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="M155" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N155" s="39">
+        <v>13886104199</v>
+      </c>
+      <c r="O155" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="18"/>
-      <c r="N156" s="26"/>
-      <c r="O156" s="6"/>
+      <c r="B156" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F156" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G156" s="39">
+        <v>76091015</v>
+      </c>
+      <c r="H156" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="I156" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J156" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K156" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L156" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="M156" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N156" s="39">
+        <v>13905596277</v>
+      </c>
+      <c r="O156" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="18"/>
-      <c r="N157" s="26"/>
-      <c r="O157" s="6"/>
+      <c r="B157" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F157" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="G157" s="39">
+        <v>76103095</v>
+      </c>
+      <c r="H157" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="I157" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J157" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K157" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L157" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="M157" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N157" s="39">
+        <v>15807452907</v>
+      </c>
+      <c r="O157" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="18"/>
-      <c r="N158" s="26"/>
-      <c r="O158" s="6"/>
+      <c r="B158" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F158" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G158" s="39">
+        <v>76103131</v>
+      </c>
+      <c r="H158" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="I158" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J158" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K158" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L158" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="M158" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N158" s="39">
+        <v>13586329343</v>
+      </c>
+      <c r="O158" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="18"/>
-      <c r="N159" s="26"/>
-      <c r="O159" s="6"/>
+      <c r="B159" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F159" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="G159" s="39">
+        <v>76105256</v>
+      </c>
+      <c r="H159" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="I159" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J159" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K159" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L159" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="M159" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N159" s="44">
+        <v>18692273777</v>
+      </c>
+      <c r="O159" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="18"/>
-      <c r="N160" s="26"/>
-      <c r="O160" s="6"/>
+      <c r="B160" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F160" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G160" s="39">
+        <v>76105217</v>
+      </c>
+      <c r="H160" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="I160" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J160" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K160" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L160" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="M160" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N160" s="45">
+        <v>15051932097</v>
+      </c>
+      <c r="O160" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="18"/>
-      <c r="N161" s="26"/>
-      <c r="O161" s="6"/>
+      <c r="B161" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F161" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G161" s="39">
+        <v>76105282</v>
+      </c>
+      <c r="H161" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="I161" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J161" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K161" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L161" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="M161" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N161" s="44">
+        <v>13906231845</v>
+      </c>
+      <c r="O161" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="18"/>
-      <c r="N162" s="26"/>
-      <c r="O162" s="6"/>
+      <c r="B162" s="32">
+        <v>43038</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F162" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G162" s="40">
+        <v>76081790</v>
+      </c>
+      <c r="H162" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="I162" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J162" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K162" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L162" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="M162" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N162" s="45">
+        <v>13636602651</v>
+      </c>
+      <c r="O162" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="18"/>
@@ -11258,16 +12040,17 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B163:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C146:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C163:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11289,13 +12072,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11306,7 +12089,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11317,7 +12100,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11328,7 +12111,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1274,6 +1274,117 @@
   </si>
   <si>
     <t>王丽莉</t>
+  </si>
+  <si>
+    <t>上海墨印餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>一芳水果茶</t>
+  </si>
+  <si>
+    <t>一芳(上海奉贤人民南路店)</t>
+  </si>
+  <si>
+    <t>焦知维</t>
+  </si>
+  <si>
+    <t>泉州</t>
+  </si>
+  <si>
+    <t>一芳(泉州泰禾广场店)</t>
+  </si>
+  <si>
+    <t>丁银妮</t>
+  </si>
+  <si>
+    <t>一芳(上海龙漕店)</t>
+  </si>
+  <si>
+    <t>桑小姐</t>
+  </si>
+  <si>
+    <t>一芳(上海闻喜路店)</t>
+  </si>
+  <si>
+    <t>房汇彦</t>
+  </si>
+  <si>
+    <t>一芳(南京江浦店)</t>
+  </si>
+  <si>
+    <t>刘婷婷</t>
+  </si>
+  <si>
+    <t>一芳(上海黄兴路店)</t>
+  </si>
+  <si>
+    <t>蒋桦</t>
+  </si>
+  <si>
+    <t>一芳(南京世纪太阳城店)</t>
+  </si>
+  <si>
+    <t>张露露</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>一芳(扬州昌建路店)</t>
+  </si>
+  <si>
+    <t>周磊 / 吕超</t>
+  </si>
+  <si>
+    <t>15751685828 / 13101854568</t>
+  </si>
+  <si>
+    <t>一芳(广西宜州店)</t>
+  </si>
+  <si>
+    <t>罗钧馀</t>
+  </si>
+  <si>
+    <t>17707784005 / 13667783253</t>
+  </si>
+  <si>
+    <t>一芳(南通崇川人民店)</t>
+  </si>
+  <si>
+    <t>陈妍妍</t>
+  </si>
+  <si>
+    <t>一芳(南京江宁万达店)</t>
+  </si>
+  <si>
+    <t>张康</t>
+  </si>
+  <si>
+    <t>一芳(杨浦森活天地店)</t>
+  </si>
+  <si>
+    <t>张萍</t>
+  </si>
+  <si>
+    <t>一芳(武汉K11店)</t>
+  </si>
+  <si>
+    <t>李志达</t>
+  </si>
+  <si>
+    <t>贵阳</t>
+  </si>
+  <si>
+    <t>一芳(贵州亨特店)</t>
+  </si>
+  <si>
+    <t>张永念</t>
+  </si>
+  <si>
+    <t>一芳(武汉大润发店)</t>
+  </si>
+  <si>
+    <t>高媛媛</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1300,12 +1411,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,15 +1477,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1395,9 +1511,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,14 +1526,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -1426,16 +1533,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,9 +1549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,6 +1579,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1487,15 +1602,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1509,7 +1618,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1584,19 +1701,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,6 +1732,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,121 +1845,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2086,17 +2203,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2111,16 +2222,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2142,6 +2253,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2150,49 +2300,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2201,149 +2318,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2458,23 +2575,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2977,440 +3091,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="48"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58">
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59">
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86" t="e">
+      <c r="J3" s="84"/>
+      <c r="K3" s="85" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="87">
+      <c r="L3" s="86">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="88">
+      <c r="M3" s="87">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="89" t="e">
+      <c r="N3" s="88" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64">
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="65">
+      <c r="G4" s="64"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="86" t="e">
+      <c r="J4" s="89"/>
+      <c r="K4" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="87">
+      <c r="L4" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="88">
+      <c r="M4" s="87">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="89" t="e">
+      <c r="N4" s="88" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64">
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="65">
+      <c r="G5" s="64"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="86" t="e">
+      <c r="J5" s="89"/>
+      <c r="K5" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="87">
+      <c r="L5" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="88">
+      <c r="M5" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="89" t="e">
+      <c r="N5" s="88" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64">
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="65">
+      <c r="G6" s="64"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="86" t="e">
+      <c r="J6" s="89"/>
+      <c r="K6" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="87">
+      <c r="L6" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="88">
+      <c r="M6" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="89" t="e">
+      <c r="N6" s="88" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="65">
+      <c r="G7" s="64"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="86" t="e">
+      <c r="J7" s="89"/>
+      <c r="K7" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="87">
+      <c r="L7" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="88">
+      <c r="M7" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="89" t="e">
+      <c r="N7" s="88" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64">
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="65">
+      <c r="G8" s="64"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="86" t="e">
+      <c r="J8" s="89"/>
+      <c r="K8" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="87">
+      <c r="L8" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="89" t="e">
+      <c r="N8" s="88" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64">
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="65">
+      <c r="G9" s="64"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="86" t="e">
+      <c r="J9" s="89"/>
+      <c r="K9" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="87">
+      <c r="L9" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="88">
+      <c r="M9" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="89" t="e">
+      <c r="N9" s="88" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="66" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69">
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="70">
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92" t="e">
+      <c r="J10" s="90"/>
+      <c r="K10" s="91" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="93">
+      <c r="L10" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="94">
+      <c r="M10" s="93">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="95" t="e">
+      <c r="N10" s="94" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="74">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="74">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="74">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="74">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="75">
+      <c r="J11" s="74">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="96" t="e">
+      <c r="K11" s="95" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="75">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="75">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="97" t="e">
+      <c r="N11" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3428,10 +3542,10 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q159" sqref="Q159"/>
+      <selection pane="bottomLeft" activeCell="N164" sqref="N164:N178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7429,7 +7543,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="98" t="s">
+      <c r="N95" s="97" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -9678,34 +9792,34 @@
       <c r="E147" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F147" s="39" t="s">
+      <c r="F147" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="G147" s="39">
+      <c r="G147" s="13">
         <v>76102697</v>
       </c>
-      <c r="H147" s="39" t="s">
+      <c r="H147" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="I147" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J147" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K147" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L147" s="39" t="s">
+      <c r="I147" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L147" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="M147" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N147" s="39">
+      <c r="M147" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N147" s="13">
         <v>13799931512</v>
       </c>
-      <c r="O147" s="41" t="s">
+      <c r="O147" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9723,34 +9837,34 @@
       <c r="E148" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F148" s="39" t="s">
+      <c r="F148" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G148" s="39">
+      <c r="G148" s="13">
         <v>76102507</v>
       </c>
-      <c r="H148" s="39" t="s">
+      <c r="H148" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="I148" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J148" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K148" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L148" s="39" t="s">
+      <c r="I148" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J148" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K148" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L148" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="M148" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N148" s="39">
+      <c r="M148" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N148" s="13">
         <v>18951800825</v>
       </c>
-      <c r="O148" s="41" t="s">
+      <c r="O148" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9768,34 +9882,34 @@
       <c r="E149" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F149" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G149" s="39">
+      <c r="F149" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" s="13">
         <v>76081788</v>
       </c>
-      <c r="H149" s="39" t="s">
+      <c r="H149" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="I149" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J149" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K149" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L149" s="39" t="s">
+      <c r="I149" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J149" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L149" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="M149" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N149" s="39">
+      <c r="M149" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N149" s="13">
         <v>13917912922</v>
       </c>
-      <c r="O149" s="41" t="s">
+      <c r="O149" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9813,34 +9927,34 @@
       <c r="E150" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F150" s="39" t="s">
+      <c r="F150" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G150" s="39">
+      <c r="G150" s="13">
         <v>76102668</v>
       </c>
-      <c r="H150" s="39" t="s">
+      <c r="H150" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="I150" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J150" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K150" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L150" s="39" t="s">
+      <c r="I150" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K150" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L150" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="M150" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N150" s="39">
+      <c r="M150" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N150" s="13">
         <v>18101847158</v>
       </c>
-      <c r="O150" s="41" t="s">
+      <c r="O150" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9858,34 +9972,34 @@
       <c r="E151" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F151" s="39" t="s">
+      <c r="F151" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G151" s="39">
+      <c r="G151" s="13">
         <v>76081960</v>
       </c>
-      <c r="H151" s="39" t="s">
+      <c r="H151" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="I151" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J151" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K151" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L151" s="39" t="s">
+      <c r="I151" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J151" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K151" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L151" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="M151" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N151" s="39">
+      <c r="M151" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N151" s="13">
         <v>15358110011</v>
       </c>
-      <c r="O151" s="41" t="s">
+      <c r="O151" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9903,34 +10017,34 @@
       <c r="E152" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F152" s="39" t="s">
+      <c r="F152" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G152" s="39">
+      <c r="G152" s="13">
         <v>76101938</v>
       </c>
-      <c r="H152" s="39" t="s">
+      <c r="H152" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="I152" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J152" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K152" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L152" s="39" t="s">
+      <c r="I152" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J152" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K152" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L152" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="M152" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N152" s="39">
+      <c r="M152" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N152" s="13">
         <v>13063991050</v>
       </c>
-      <c r="O152" s="41" t="s">
+      <c r="O152" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9948,34 +10062,34 @@
       <c r="E153" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F153" s="39" t="s">
+      <c r="F153" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G153" s="39">
+      <c r="G153" s="13">
         <v>76100735</v>
       </c>
-      <c r="H153" s="39" t="s">
+      <c r="H153" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="I153" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J153" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K153" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L153" s="39" t="s">
+      <c r="I153" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J153" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K153" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L153" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="M153" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N153" s="39">
+      <c r="M153" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N153" s="13">
         <v>13706123603</v>
       </c>
-      <c r="O153" s="41" t="s">
+      <c r="O153" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9993,34 +10107,34 @@
       <c r="E154" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F154" s="39" t="s">
+      <c r="F154" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G154" s="39">
+      <c r="G154" s="13">
         <v>76102760</v>
       </c>
-      <c r="H154" s="39" t="s">
+      <c r="H154" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="I154" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J154" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K154" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L154" s="39" t="s">
+      <c r="I154" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J154" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K154" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L154" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="M154" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N154" s="39">
+      <c r="M154" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N154" s="13">
         <v>15268309799</v>
       </c>
-      <c r="O154" s="41" t="s">
+      <c r="O154" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10038,34 +10152,34 @@
       <c r="E155" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F155" s="39" t="s">
+      <c r="F155" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="G155" s="39">
+      <c r="G155" s="13">
         <v>76081893</v>
       </c>
-      <c r="H155" s="39" t="s">
+      <c r="H155" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="I155" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J155" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K155" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L155" s="39" t="s">
+      <c r="I155" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J155" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K155" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L155" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="M155" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N155" s="39">
+      <c r="M155" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N155" s="13">
         <v>13886104199</v>
       </c>
-      <c r="O155" s="41" t="s">
+      <c r="O155" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10083,34 +10197,34 @@
       <c r="E156" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F156" s="39" t="s">
+      <c r="F156" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G156" s="39">
+      <c r="G156" s="13">
         <v>76091015</v>
       </c>
-      <c r="H156" s="39" t="s">
+      <c r="H156" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="I156" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J156" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K156" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L156" s="39" t="s">
+      <c r="I156" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J156" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K156" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L156" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="M156" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N156" s="39">
+      <c r="M156" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N156" s="13">
         <v>13905596277</v>
       </c>
-      <c r="O156" s="41" t="s">
+      <c r="O156" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10128,34 +10242,34 @@
       <c r="E157" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F157" s="39" t="s">
+      <c r="F157" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="G157" s="39">
+      <c r="G157" s="13">
         <v>76103095</v>
       </c>
-      <c r="H157" s="39" t="s">
+      <c r="H157" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="I157" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J157" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K157" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L157" s="39" t="s">
+      <c r="I157" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J157" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K157" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L157" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="M157" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N157" s="39">
+      <c r="M157" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N157" s="13">
         <v>15807452907</v>
       </c>
-      <c r="O157" s="41" t="s">
+      <c r="O157" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10173,34 +10287,34 @@
       <c r="E158" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F158" s="39" t="s">
+      <c r="F158" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G158" s="39">
+      <c r="G158" s="13">
         <v>76103131</v>
       </c>
-      <c r="H158" s="39" t="s">
+      <c r="H158" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="I158" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J158" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K158" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L158" s="39" t="s">
+      <c r="I158" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J158" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K158" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L158" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="M158" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N158" s="39">
+      <c r="M158" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N158" s="13">
         <v>13586329343</v>
       </c>
-      <c r="O158" s="41" t="s">
+      <c r="O158" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10218,34 +10332,34 @@
       <c r="E159" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F159" s="39" t="s">
+      <c r="F159" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="G159" s="39">
+      <c r="G159" s="13">
         <v>76105256</v>
       </c>
-      <c r="H159" s="39" t="s">
+      <c r="H159" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="I159" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J159" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K159" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L159" s="43" t="s">
+      <c r="I159" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J159" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K159" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L159" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="M159" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N159" s="44">
+      <c r="M159" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N159" s="43">
         <v>18692273777</v>
       </c>
-      <c r="O159" s="41" t="s">
+      <c r="O159" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10263,34 +10377,34 @@
       <c r="E160" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F160" s="39" t="s">
+      <c r="F160" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G160" s="39">
+      <c r="G160" s="13">
         <v>76105217</v>
       </c>
-      <c r="H160" s="39" t="s">
+      <c r="H160" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="I160" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J160" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K160" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L160" s="45" t="s">
+      <c r="I160" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J160" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K160" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L160" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="M160" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N160" s="45">
+      <c r="M160" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N160" s="38">
         <v>15051932097</v>
       </c>
-      <c r="O160" s="41" t="s">
+      <c r="O160" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10308,34 +10422,34 @@
       <c r="E161" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F161" s="39" t="s">
+      <c r="F161" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G161" s="39">
+      <c r="G161" s="13">
         <v>76105282</v>
       </c>
-      <c r="H161" s="39" t="s">
+      <c r="H161" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="I161" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J161" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K161" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L161" s="44" t="s">
+      <c r="I161" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J161" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K161" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L161" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="M161" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N161" s="44">
+      <c r="M161" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N161" s="43">
         <v>13906231845</v>
       </c>
-      <c r="O161" s="41" t="s">
+      <c r="O161" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10353,34 +10467,34 @@
       <c r="E162" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F162" s="40" t="s">
+      <c r="F162" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G162" s="40">
+      <c r="G162" s="13">
         <v>76081790</v>
       </c>
-      <c r="H162" s="40" t="s">
+      <c r="H162" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="I162" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J162" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K162" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L162" s="45" t="s">
+      <c r="I162" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J162" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K162" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L162" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="M162" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N162" s="45">
+      <c r="M162" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N162" s="38">
         <v>13636602651</v>
       </c>
-      <c r="O162" s="41" t="s">
+      <c r="O162" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10391,78 +10505,678 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="18"/>
-      <c r="N164" s="26"/>
-      <c r="O164" s="6"/>
+      <c r="B164" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F164" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G164" s="39">
+        <v>76098069</v>
+      </c>
+      <c r="H164" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J164" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K164" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L164" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="M164" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N164" s="39">
+        <v>13564618113</v>
+      </c>
+      <c r="O164" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="18"/>
-      <c r="N165" s="26"/>
-      <c r="O165" s="6"/>
+      <c r="B165" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F165" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="G165" s="39">
+        <v>76099167</v>
+      </c>
+      <c r="H165" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J165" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K165" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L165" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="M165" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N165" s="39">
+        <v>15805025678</v>
+      </c>
+      <c r="O165" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="18"/>
-      <c r="N166" s="26"/>
-      <c r="O166" s="6"/>
+      <c r="B166" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F166" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G166" s="39">
+        <v>76099230</v>
+      </c>
+      <c r="H166" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J166" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K166" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L166" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="M166" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N166" s="39">
+        <v>13564586841</v>
+      </c>
+      <c r="O166" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="18"/>
-      <c r="N167" s="26"/>
-      <c r="O167" s="6"/>
+      <c r="B167" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F167" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G167" s="39">
+        <v>76099369</v>
+      </c>
+      <c r="H167" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J167" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K167" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L167" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="M167" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N167" s="44">
+        <v>13916936635</v>
+      </c>
+      <c r="O167" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="18"/>
-      <c r="N168" s="26"/>
-      <c r="O168" s="6"/>
+      <c r="B168" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F168" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G168" s="39">
+        <v>76099363</v>
+      </c>
+      <c r="H168" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J168" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K168" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L168" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="M168" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N168" s="39">
+        <v>17705190178</v>
+      </c>
+      <c r="O168" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="18"/>
-      <c r="N169" s="26"/>
-      <c r="O169" s="6"/>
+      <c r="B169" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F169" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G169" s="40">
+        <v>76102200</v>
+      </c>
+      <c r="H169" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J169" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K169" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L169" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="M169" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N169" s="40">
+        <v>13671997807</v>
+      </c>
+      <c r="O169" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="18"/>
-      <c r="N170" s="26"/>
-      <c r="O170" s="6"/>
+      <c r="B170" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F170" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G170" s="41">
+        <v>76099370</v>
+      </c>
+      <c r="H170" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J170" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K170" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L170" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="M170" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N170" s="40">
+        <v>15851859664</v>
+      </c>
+      <c r="O170" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="18"/>
-      <c r="N171" s="26"/>
-      <c r="O171" s="6"/>
+      <c r="B171" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F171" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G171" s="40">
+        <v>76102525</v>
+      </c>
+      <c r="H171" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J171" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K171" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L171" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="M171" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N171" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="O171" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="18"/>
-      <c r="N172" s="26"/>
-      <c r="O172" s="6"/>
+      <c r="B172" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F172" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="G172" s="41">
+        <v>76102527</v>
+      </c>
+      <c r="H172" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J172" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K172" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L172" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="M172" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N172" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="O172" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="18"/>
-      <c r="N173" s="26"/>
-      <c r="O173" s="6"/>
+      <c r="B173" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F173" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G173" s="41">
+        <v>76102587</v>
+      </c>
+      <c r="H173" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="I173" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J173" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K173" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L173" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="M173" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N173" s="40">
+        <v>13912415067</v>
+      </c>
+      <c r="O173" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="18"/>
-      <c r="N174" s="26"/>
-      <c r="O174" s="6"/>
+      <c r="B174" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F174" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G174" s="41">
+        <v>76099365</v>
+      </c>
+      <c r="H174" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="I174" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J174" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K174" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L174" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="M174" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N174" s="40">
+        <v>18915985809</v>
+      </c>
+      <c r="O174" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="18"/>
-      <c r="N175" s="26"/>
-      <c r="O175" s="6"/>
+      <c r="B175" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F175" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G175" s="41">
+        <v>76102725</v>
+      </c>
+      <c r="H175" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J175" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K175" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L175" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="M175" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N175" s="40">
+        <v>13918516818</v>
+      </c>
+      <c r="O175" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="18"/>
-      <c r="N176" s="26"/>
-      <c r="O176" s="6"/>
+      <c r="B176" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F176" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G176" s="41">
+        <v>76102827</v>
+      </c>
+      <c r="H176" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="I176" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J176" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K176" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L176" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="M176" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N176" s="40">
+        <v>15972910660</v>
+      </c>
+      <c r="O176" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="18"/>
-      <c r="N177" s="26"/>
-      <c r="O177" s="6"/>
+      <c r="B177" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F177" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="G177" s="41">
+        <v>76102819</v>
+      </c>
+      <c r="H177" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J177" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K177" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L177" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="M177" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N177" s="41">
+        <v>18685008922</v>
+      </c>
+      <c r="O177" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="18"/>
-      <c r="N178" s="26"/>
-      <c r="O178" s="6"/>
+      <c r="B178" s="32">
+        <v>43039</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F178" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G178" s="41">
+        <v>76105190</v>
+      </c>
+      <c r="H178" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="I178" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J178" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K178" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L178" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="M178" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N178" s="41">
+        <v>18627166046</v>
+      </c>
+      <c r="O178" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="18"/>
@@ -12040,10 +12754,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B163:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B179:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C163:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C179:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12072,13 +12786,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12089,7 +12803,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12100,7 +12814,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12111,7 +12825,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -1411,10 +1411,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1482,15 +1482,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1511,8 +1517,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1526,6 +1533,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -1533,9 +1548,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1550,7 +1572,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,22 +1615,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1604,43 +1624,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1701,13 +1701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1725,7 +1731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,25 +1743,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,19 +1773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,7 +1803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,49 +1815,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2203,11 +2203,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2222,16 +2228,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2253,6 +2259,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2261,42 +2278,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2306,10 +2306,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2318,149 +2318,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2572,13 +2572,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3091,440 +3085,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="47"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57">
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85" t="e">
+      <c r="J3" s="82"/>
+      <c r="K3" s="83" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="86">
+      <c r="L3" s="84">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="87">
+      <c r="M3" s="85">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="88" t="e">
+      <c r="N3" s="86" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63">
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="64">
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="85" t="e">
+      <c r="J4" s="87"/>
+      <c r="K4" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="86">
+      <c r="L4" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="87">
+      <c r="M4" s="85">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="88" t="e">
+      <c r="N4" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63">
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="64">
+      <c r="G5" s="62"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="85" t="e">
+      <c r="J5" s="87"/>
+      <c r="K5" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="86">
+      <c r="L5" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="87">
+      <c r="M5" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="88" t="e">
+      <c r="N5" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63">
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="64">
+      <c r="G6" s="62"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="85" t="e">
+      <c r="J6" s="87"/>
+      <c r="K6" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="87">
+      <c r="M6" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="88" t="e">
+      <c r="N6" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="64">
+      <c r="G7" s="62"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="85" t="e">
+      <c r="J7" s="87"/>
+      <c r="K7" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="86">
+      <c r="L7" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="87">
+      <c r="M7" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="88" t="e">
+      <c r="N7" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63">
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="64">
+      <c r="G8" s="62"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="85" t="e">
+      <c r="J8" s="87"/>
+      <c r="K8" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L8" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="87">
+      <c r="M8" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="88" t="e">
+      <c r="N8" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63">
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="64">
+      <c r="G9" s="62"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="85" t="e">
+      <c r="J9" s="87"/>
+      <c r="K9" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="86">
+      <c r="L9" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="87">
+      <c r="M9" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="88" t="e">
+      <c r="N9" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="65" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68">
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="69">
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91" t="e">
+      <c r="J10" s="88"/>
+      <c r="K10" s="89" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="92">
+      <c r="L10" s="90">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="93">
+      <c r="M10" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="94" t="e">
+      <c r="N10" s="92" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="72">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="74">
+      <c r="J11" s="72">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="95" t="e">
+      <c r="K11" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="75">
+      <c r="M11" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="96" t="e">
+      <c r="N11" s="94" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3542,10 +3536,10 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N164" sqref="N164:N178"/>
+      <selection pane="bottomLeft" activeCell="N144" sqref="N144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7543,7 +7537,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="97" t="s">
+      <c r="N95" s="95" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -10350,13 +10344,13 @@
       <c r="K159" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L159" s="42" t="s">
+      <c r="L159" s="40" t="s">
         <v>404</v>
       </c>
       <c r="M159" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N159" s="43">
+      <c r="N159" s="41">
         <v>18692273777</v>
       </c>
       <c r="O159" s="12" t="s">
@@ -10440,13 +10434,13 @@
       <c r="K161" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L161" s="43" t="s">
+      <c r="L161" s="41" t="s">
         <v>408</v>
       </c>
       <c r="M161" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N161" s="43">
+      <c r="N161" s="41">
         <v>13906231845</v>
       </c>
       <c r="O161" s="12" t="s">
@@ -10517,13 +10511,13 @@
       <c r="E164" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F164" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G164" s="39">
+      <c r="F164" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G164" s="13">
         <v>76098069</v>
       </c>
-      <c r="H164" s="39" t="s">
+      <c r="H164" s="13" t="s">
         <v>413</v>
       </c>
       <c r="I164" s="12" t="s">
@@ -10535,13 +10529,13 @@
       <c r="K164" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L164" s="39" t="s">
+      <c r="L164" s="13" t="s">
         <v>414</v>
       </c>
       <c r="M164" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N164" s="39">
+      <c r="N164" s="13">
         <v>13564618113</v>
       </c>
       <c r="O164" s="6" t="s">
@@ -10562,13 +10556,13 @@
       <c r="E165" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F165" s="39" t="s">
+      <c r="F165" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="G165" s="39">
+      <c r="G165" s="13">
         <v>76099167</v>
       </c>
-      <c r="H165" s="39" t="s">
+      <c r="H165" s="13" t="s">
         <v>416</v>
       </c>
       <c r="I165" s="12" t="s">
@@ -10580,13 +10574,13 @@
       <c r="K165" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L165" s="39" t="s">
+      <c r="L165" s="13" t="s">
         <v>417</v>
       </c>
       <c r="M165" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N165" s="39">
+      <c r="N165" s="13">
         <v>15805025678</v>
       </c>
       <c r="O165" s="6" t="s">
@@ -10607,13 +10601,13 @@
       <c r="E166" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F166" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G166" s="39">
+      <c r="F166" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G166" s="13">
         <v>76099230</v>
       </c>
-      <c r="H166" s="39" t="s">
+      <c r="H166" s="13" t="s">
         <v>418</v>
       </c>
       <c r="I166" s="12" t="s">
@@ -10625,13 +10619,13 @@
       <c r="K166" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L166" s="39" t="s">
+      <c r="L166" s="13" t="s">
         <v>419</v>
       </c>
       <c r="M166" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N166" s="39">
+      <c r="N166" s="13">
         <v>13564586841</v>
       </c>
       <c r="O166" s="6" t="s">
@@ -10652,13 +10646,13 @@
       <c r="E167" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F167" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G167" s="39">
+      <c r="F167" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G167" s="13">
         <v>76099369</v>
       </c>
-      <c r="H167" s="39" t="s">
+      <c r="H167" s="13" t="s">
         <v>420</v>
       </c>
       <c r="I167" s="12" t="s">
@@ -10670,13 +10664,13 @@
       <c r="K167" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L167" s="44" t="s">
+      <c r="L167" s="42" t="s">
         <v>421</v>
       </c>
       <c r="M167" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N167" s="44">
+      <c r="N167" s="42">
         <v>13916936635</v>
       </c>
       <c r="O167" s="6" t="s">
@@ -10697,13 +10691,13 @@
       <c r="E168" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F168" s="39" t="s">
+      <c r="F168" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G168" s="39">
+      <c r="G168" s="13">
         <v>76099363</v>
       </c>
-      <c r="H168" s="39" t="s">
+      <c r="H168" s="13" t="s">
         <v>422</v>
       </c>
       <c r="I168" s="12" t="s">
@@ -10715,13 +10709,13 @@
       <c r="K168" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L168" s="39" t="s">
+      <c r="L168" s="13" t="s">
         <v>423</v>
       </c>
       <c r="M168" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N168" s="39">
+      <c r="N168" s="13">
         <v>17705190178</v>
       </c>
       <c r="O168" s="6" t="s">
@@ -10742,13 +10736,13 @@
       <c r="E169" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F169" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G169" s="40">
+      <c r="F169" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G169" s="39">
         <v>76102200</v>
       </c>
-      <c r="H169" s="40" t="s">
+      <c r="H169" s="39" t="s">
         <v>424</v>
       </c>
       <c r="I169" s="12" t="s">
@@ -10760,13 +10754,13 @@
       <c r="K169" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L169" s="40" t="s">
+      <c r="L169" s="39" t="s">
         <v>425</v>
       </c>
       <c r="M169" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N169" s="40">
+      <c r="N169" s="39">
         <v>13671997807</v>
       </c>
       <c r="O169" s="6" t="s">
@@ -10787,13 +10781,13 @@
       <c r="E170" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F170" s="40" t="s">
+      <c r="F170" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G170" s="41">
+      <c r="G170" s="13">
         <v>76099370</v>
       </c>
-      <c r="H170" s="40" t="s">
+      <c r="H170" s="39" t="s">
         <v>426</v>
       </c>
       <c r="I170" s="12" t="s">
@@ -10805,13 +10799,13 @@
       <c r="K170" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L170" s="40" t="s">
+      <c r="L170" s="39" t="s">
         <v>427</v>
       </c>
       <c r="M170" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N170" s="40">
+      <c r="N170" s="39">
         <v>15851859664</v>
       </c>
       <c r="O170" s="6" t="s">
@@ -10832,13 +10826,13 @@
       <c r="E171" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F171" s="40" t="s">
+      <c r="F171" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="G171" s="40">
+      <c r="G171" s="39">
         <v>76102525</v>
       </c>
-      <c r="H171" s="40" t="s">
+      <c r="H171" s="39" t="s">
         <v>429</v>
       </c>
       <c r="I171" s="12" t="s">
@@ -10850,13 +10844,13 @@
       <c r="K171" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L171" s="40" t="s">
+      <c r="L171" s="39" t="s">
         <v>430</v>
       </c>
       <c r="M171" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N171" s="40" t="s">
+      <c r="N171" s="39" t="s">
         <v>431</v>
       </c>
       <c r="O171" s="6" t="s">
@@ -10877,13 +10871,13 @@
       <c r="E172" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F172" s="40" t="s">
+      <c r="F172" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="G172" s="41">
+      <c r="G172" s="13">
         <v>76102527</v>
       </c>
-      <c r="H172" s="40" t="s">
+      <c r="H172" s="39" t="s">
         <v>432</v>
       </c>
       <c r="I172" s="12" t="s">
@@ -10895,13 +10889,13 @@
       <c r="K172" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L172" s="40" t="s">
+      <c r="L172" s="39" t="s">
         <v>433</v>
       </c>
       <c r="M172" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N172" s="40" t="s">
+      <c r="N172" s="39" t="s">
         <v>434</v>
       </c>
       <c r="O172" s="6" t="s">
@@ -10922,13 +10916,13 @@
       <c r="E173" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F173" s="40" t="s">
+      <c r="F173" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="G173" s="41">
+      <c r="G173" s="13">
         <v>76102587</v>
       </c>
-      <c r="H173" s="40" t="s">
+      <c r="H173" s="39" t="s">
         <v>435</v>
       </c>
       <c r="I173" s="12" t="s">
@@ -10940,13 +10934,13 @@
       <c r="K173" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L173" s="40" t="s">
+      <c r="L173" s="39" t="s">
         <v>436</v>
       </c>
       <c r="M173" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N173" s="40">
+      <c r="N173" s="39">
         <v>13912415067</v>
       </c>
       <c r="O173" s="6" t="s">
@@ -10967,13 +10961,13 @@
       <c r="E174" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F174" s="40" t="s">
+      <c r="F174" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G174" s="41">
+      <c r="G174" s="13">
         <v>76099365</v>
       </c>
-      <c r="H174" s="40" t="s">
+      <c r="H174" s="39" t="s">
         <v>437</v>
       </c>
       <c r="I174" s="12" t="s">
@@ -10985,13 +10979,13 @@
       <c r="K174" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L174" s="40" t="s">
+      <c r="L174" s="39" t="s">
         <v>438</v>
       </c>
       <c r="M174" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N174" s="40">
+      <c r="N174" s="39">
         <v>18915985809</v>
       </c>
       <c r="O174" s="6" t="s">
@@ -11012,13 +11006,13 @@
       <c r="E175" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F175" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G175" s="41">
+      <c r="F175" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G175" s="13">
         <v>76102725</v>
       </c>
-      <c r="H175" s="40" t="s">
+      <c r="H175" s="39" t="s">
         <v>439</v>
       </c>
       <c r="I175" s="12" t="s">
@@ -11030,13 +11024,13 @@
       <c r="K175" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L175" s="40" t="s">
+      <c r="L175" s="39" t="s">
         <v>440</v>
       </c>
       <c r="M175" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N175" s="40">
+      <c r="N175" s="39">
         <v>13918516818</v>
       </c>
       <c r="O175" s="6" t="s">
@@ -11057,13 +11051,13 @@
       <c r="E176" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F176" s="40" t="s">
+      <c r="F176" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G176" s="41">
+      <c r="G176" s="13">
         <v>76102827</v>
       </c>
-      <c r="H176" s="40" t="s">
+      <c r="H176" s="39" t="s">
         <v>441</v>
       </c>
       <c r="I176" s="12" t="s">
@@ -11075,13 +11069,13 @@
       <c r="K176" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L176" s="40" t="s">
+      <c r="L176" s="39" t="s">
         <v>442</v>
       </c>
       <c r="M176" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N176" s="40">
+      <c r="N176" s="39">
         <v>15972910660</v>
       </c>
       <c r="O176" s="6" t="s">
@@ -11102,13 +11096,13 @@
       <c r="E177" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F177" s="41" t="s">
+      <c r="F177" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="G177" s="41">
+      <c r="G177" s="13">
         <v>76102819</v>
       </c>
-      <c r="H177" s="39" t="s">
+      <c r="H177" s="13" t="s">
         <v>444</v>
       </c>
       <c r="I177" s="12" t="s">
@@ -11120,13 +11114,13 @@
       <c r="K177" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L177" s="41" t="s">
+      <c r="L177" s="13" t="s">
         <v>445</v>
       </c>
       <c r="M177" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N177" s="41">
+      <c r="N177" s="13">
         <v>18685008922</v>
       </c>
       <c r="O177" s="6" t="s">
@@ -11147,13 +11141,13 @@
       <c r="E178" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F178" s="41" t="s">
+      <c r="F178" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G178" s="41">
+      <c r="G178" s="13">
         <v>76105190</v>
       </c>
-      <c r="H178" s="39" t="s">
+      <c r="H178" s="13" t="s">
         <v>446</v>
       </c>
       <c r="I178" s="12" t="s">
@@ -11165,13 +11159,13 @@
       <c r="K178" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L178" s="41" t="s">
+      <c r="L178" s="13" t="s">
         <v>447</v>
       </c>
       <c r="M178" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N178" s="41">
+      <c r="N178" s="13">
         <v>18627166046</v>
       </c>
       <c r="O178" s="6" t="s">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1385,6 +1385,117 @@
   </si>
   <si>
     <t>高媛媛</t>
+  </si>
+  <si>
+    <t>悸动(南京浦口信息工程大学店)</t>
+  </si>
+  <si>
+    <t>卞元海</t>
+  </si>
+  <si>
+    <t>悸动(闵行罗秀路店)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">苏久云 </t>
+  </si>
+  <si>
+    <t>悸动(东阳振兴街店)</t>
+  </si>
+  <si>
+    <t>沈益泉</t>
+  </si>
+  <si>
+    <t>悸动(南京应天大街店)</t>
+  </si>
+  <si>
+    <t>沈光超</t>
+  </si>
+  <si>
+    <t>悸动(上海清溪路店)</t>
+  </si>
+  <si>
+    <t>熊幸伟</t>
+  </si>
+  <si>
+    <t>悸动(常州奥园路店)</t>
+  </si>
+  <si>
+    <t>刘明</t>
+  </si>
+  <si>
+    <t>悸动(南京汉中路店)</t>
+  </si>
+  <si>
+    <t>梁文竹</t>
+  </si>
+  <si>
+    <t>滨州</t>
+  </si>
+  <si>
+    <t>悸动(滨州盐百超市店)</t>
+  </si>
+  <si>
+    <t>丁树芝</t>
+  </si>
+  <si>
+    <t>悸动(武汉青宜居店)</t>
+  </si>
+  <si>
+    <t>潘雯</t>
+  </si>
+  <si>
+    <t>悸动(奉贤肖塘店)</t>
+  </si>
+  <si>
+    <t>蒋婷婷</t>
+  </si>
+  <si>
+    <t>悸动(常州金水路店)</t>
+  </si>
+  <si>
+    <t>邹莎莎</t>
+  </si>
+  <si>
+    <t>悸动(上海银春路店)</t>
+  </si>
+  <si>
+    <t>王安亚</t>
+  </si>
+  <si>
+    <t>悸动(南京滨江绿地店)</t>
+  </si>
+  <si>
+    <t>荀剑</t>
+  </si>
+  <si>
+    <t>悸动(武汉销品茂店)</t>
+  </si>
+  <si>
+    <t>张瑾</t>
+  </si>
+  <si>
+    <t>悸动(静安延长路店)</t>
+  </si>
+  <si>
+    <t>凌芳</t>
+  </si>
+  <si>
+    <t>悸动(闵行莘西南路店)</t>
+  </si>
+  <si>
+    <t>朱敏</t>
+  </si>
+  <si>
+    <t>悸动(常州华丰路店)</t>
+  </si>
+  <si>
+    <t>徐明明</t>
+  </si>
+  <si>
+    <t>义乌</t>
+  </si>
+  <si>
+    <t>杜煜天</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1410,13 +1521,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,6 +1591,11 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1622,9 +1738,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,8 +1752,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1707,13 +1823,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1725,13 +1847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,13 +1865,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,13 +1895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,7 +1919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1815,13 +1931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,7 +1955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,13 +1973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2306,10 +2422,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2318,149 +2434,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2575,6 +2691,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2583,6 +2711,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3085,440 +3228,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="45"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55">
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56">
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83" t="e">
+      <c r="J3" s="91"/>
+      <c r="K3" s="92" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="93">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="85">
+      <c r="M3" s="94">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="86" t="e">
+      <c r="N3" s="95" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61">
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="62">
+      <c r="G4" s="71"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="83" t="e">
+      <c r="J4" s="96"/>
+      <c r="K4" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="84">
+      <c r="L4" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="94">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="86" t="e">
+      <c r="N4" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61">
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="62">
+      <c r="G5" s="71"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="83" t="e">
+      <c r="J5" s="96"/>
+      <c r="K5" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="84">
+      <c r="L5" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="85">
+      <c r="M5" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="86" t="e">
+      <c r="N5" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61">
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="62">
+      <c r="G6" s="71"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="83" t="e">
+      <c r="J6" s="96"/>
+      <c r="K6" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="84">
+      <c r="L6" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="85">
+      <c r="M6" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="86" t="e">
+      <c r="N6" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="62">
+      <c r="G7" s="71"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="83" t="e">
+      <c r="J7" s="96"/>
+      <c r="K7" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="84">
+      <c r="L7" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="86" t="e">
+      <c r="N7" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61">
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="62">
+      <c r="G8" s="71"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="83" t="e">
+      <c r="J8" s="96"/>
+      <c r="K8" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="84">
+      <c r="L8" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="86" t="e">
+      <c r="N8" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61">
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="62">
+      <c r="G9" s="71"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="83" t="e">
+      <c r="J9" s="96"/>
+      <c r="K9" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="94">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="86" t="e">
+      <c r="N9" s="95" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="63" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66">
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="67">
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89" t="e">
+      <c r="J10" s="97"/>
+      <c r="K10" s="98" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L10" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="91">
+      <c r="M10" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="92" t="e">
+      <c r="N10" s="101" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="81">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="81">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="93" t="e">
+      <c r="K11" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="82">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="94" t="e">
+      <c r="N11" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3537,9 +3680,9 @@
   <dimension ref="A1:O602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N144" sqref="N144"/>
+      <selection pane="bottomLeft" activeCell="O197" sqref="B180:O197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7537,7 +7680,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="95" t="s">
+      <c r="N95" s="104" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -10344,13 +10487,13 @@
       <c r="K159" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L159" s="40" t="s">
+      <c r="L159" s="44" t="s">
         <v>404</v>
       </c>
       <c r="M159" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N159" s="41">
+      <c r="N159" s="45">
         <v>18692273777</v>
       </c>
       <c r="O159" s="12" t="s">
@@ -10434,13 +10577,13 @@
       <c r="K161" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L161" s="41" t="s">
+      <c r="L161" s="45" t="s">
         <v>408</v>
       </c>
       <c r="M161" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N161" s="41">
+      <c r="N161" s="45">
         <v>13906231845</v>
       </c>
       <c r="O161" s="12" t="s">
@@ -10664,13 +10807,13 @@
       <c r="K167" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L167" s="42" t="s">
+      <c r="L167" s="46" t="s">
         <v>421</v>
       </c>
       <c r="M167" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N167" s="42">
+      <c r="N167" s="46">
         <v>13916936635</v>
       </c>
       <c r="O167" s="6" t="s">
@@ -11179,93 +11322,813 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="18"/>
-      <c r="N180" s="26"/>
-      <c r="O180" s="6"/>
+      <c r="B180" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C180" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E180" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F180" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G180" s="42">
+        <v>76106276</v>
+      </c>
+      <c r="H180" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="I180" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J180" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K180" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L180" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="M180" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N180" s="42">
+        <v>15851899046</v>
+      </c>
+      <c r="O180" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="18"/>
-      <c r="N181" s="26"/>
-      <c r="O181" s="6"/>
+      <c r="B181" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C181" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D181" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E181" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F181" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G181" s="42">
+        <v>76103683</v>
+      </c>
+      <c r="H181" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="I181" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J181" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K181" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L181" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="M181" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N181" s="42">
+        <v>18917398507</v>
+      </c>
+      <c r="O181" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="18"/>
-      <c r="N182" s="26"/>
-      <c r="O182" s="6"/>
+      <c r="B182" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C182" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E182" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F182" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G182" s="42">
+        <v>76106268</v>
+      </c>
+      <c r="H182" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="I182" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J182" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K182" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L182" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="M182" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N182" s="42">
+        <v>15057999044</v>
+      </c>
+      <c r="O182" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="18"/>
-      <c r="N183" s="26"/>
-      <c r="O183" s="6"/>
+      <c r="B183" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C183" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E183" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F183" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G183" s="42">
+        <v>76106175</v>
+      </c>
+      <c r="H183" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="I183" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J183" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K183" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L183" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="M183" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N183" s="42">
+        <v>13814547010</v>
+      </c>
+      <c r="O183" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="18"/>
-      <c r="N184" s="26"/>
-      <c r="O184" s="6"/>
+      <c r="B184" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C184" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E184" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F184" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G184" s="42">
+        <v>76078788</v>
+      </c>
+      <c r="H184" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="I184" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J184" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K184" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L184" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="M184" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N184" s="42">
+        <v>15618523690</v>
+      </c>
+      <c r="O184" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="18"/>
-      <c r="N185" s="26"/>
-      <c r="O185" s="6"/>
+      <c r="B185" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C185" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E185" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F185" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G185" s="42">
+        <v>76105953</v>
+      </c>
+      <c r="H185" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="I185" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J185" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K185" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L185" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="M185" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N185" s="42">
+        <v>15189740111</v>
+      </c>
+      <c r="O185" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="18"/>
-      <c r="N186" s="26"/>
-      <c r="O186" s="6"/>
+      <c r="B186" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C186" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E186" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F186" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G186" s="42">
+        <v>76087615</v>
+      </c>
+      <c r="H186" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="I186" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J186" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K186" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L186" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="M186" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N186" s="42">
+        <v>15298339996</v>
+      </c>
+      <c r="O186" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="18"/>
-      <c r="N187" s="26"/>
-      <c r="O187" s="6"/>
+      <c r="B187" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C187" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E187" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F187" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="G187" s="42">
+        <v>76105508</v>
+      </c>
+      <c r="H187" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="I187" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J187" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K187" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L187" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="M187" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N187" s="42">
+        <v>15726283872</v>
+      </c>
+      <c r="O187" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="18"/>
-      <c r="N188" s="26"/>
-      <c r="O188" s="6"/>
+      <c r="B188" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C188" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E188" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F188" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G188" s="42">
+        <v>76105323</v>
+      </c>
+      <c r="H188" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="I188" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J188" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K188" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L188" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="M188" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N188" s="42">
+        <v>18701775826</v>
+      </c>
+      <c r="O188" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="18"/>
-      <c r="N189" s="26"/>
-      <c r="O189" s="6"/>
+      <c r="B189" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C189" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E189" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F189" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G189" s="42">
+        <v>76105578</v>
+      </c>
+      <c r="H189" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="I189" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J189" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K189" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L189" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="M189" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N189" s="42">
+        <v>13661533442</v>
+      </c>
+      <c r="O189" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="18"/>
-      <c r="N190" s="26"/>
-      <c r="O190" s="6"/>
+      <c r="B190" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C190" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D190" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E190" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F190" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G190" s="42">
+        <v>76106131</v>
+      </c>
+      <c r="H190" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="I190" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J190" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K190" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L190" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="M190" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N190" s="42">
+        <v>13813557044</v>
+      </c>
+      <c r="O190" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="18"/>
-      <c r="N191" s="26"/>
-      <c r="O191" s="6"/>
+      <c r="B191" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C191" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D191" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E191" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F191" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G191" s="42">
+        <v>76099661</v>
+      </c>
+      <c r="H191" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="I191" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J191" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K191" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L191" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="M191" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N191" s="42">
+        <v>13671677897</v>
+      </c>
+      <c r="O191" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="18"/>
-      <c r="N192" s="26"/>
-      <c r="O192" s="6"/>
+      <c r="B192" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C192" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D192" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E192" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F192" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G192" s="42">
+        <v>76101937</v>
+      </c>
+      <c r="H192" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="I192" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J192" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K192" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L192" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="M192" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N192" s="42">
+        <v>18115600561</v>
+      </c>
+      <c r="O192" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="18"/>
-      <c r="N193" s="26"/>
-      <c r="O193" s="6"/>
+      <c r="B193" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C193" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D193" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E193" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F193" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G193" s="42">
+        <v>76108189</v>
+      </c>
+      <c r="H193" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="I193" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J193" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K193" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L193" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="M193" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N193" s="42">
+        <v>13986052837</v>
+      </c>
+      <c r="O193" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="18"/>
-      <c r="N194" s="26"/>
-      <c r="O194" s="6"/>
+      <c r="B194" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C194" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D194" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E194" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F194" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G194" s="42">
+        <v>76108187</v>
+      </c>
+      <c r="H194" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="I194" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J194" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K194" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L194" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="M194" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N194" s="42">
+        <v>13761097276</v>
+      </c>
+      <c r="O194" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="18"/>
-      <c r="N195" s="26"/>
-      <c r="O195" s="6"/>
+      <c r="B195" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C195" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D195" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E195" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F195" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G195" s="42">
+        <v>76108196</v>
+      </c>
+      <c r="H195" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="I195" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J195" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K195" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L195" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="M195" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N195" s="42">
+        <v>13501863833</v>
+      </c>
+      <c r="O195" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="18"/>
-      <c r="N196" s="26"/>
-      <c r="O196" s="6"/>
+      <c r="B196" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C196" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D196" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E196" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F196" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G196" s="42">
+        <v>76108636</v>
+      </c>
+      <c r="H196" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="I196" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J196" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K196" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L196" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="M196" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N196" s="42">
+        <v>18706118030</v>
+      </c>
+      <c r="O196" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="18"/>
-      <c r="N197" s="26"/>
-      <c r="O197" s="6"/>
+      <c r="B197" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C197" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D197" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E197" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F197" s="42" t="s">
+        <v>483</v>
+      </c>
+      <c r="G197" s="42">
+        <v>76093718</v>
+      </c>
+      <c r="H197" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="I197" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J197" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K197" s="48">
+        <v>17721436606</v>
+      </c>
+      <c r="L197" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="M197" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N197" s="42">
+        <v>18457988858</v>
+      </c>
+      <c r="O197" s="41" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="18"/>
@@ -12748,10 +13611,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B179:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B198:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C179:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C198:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12780,13 +13643,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12797,7 +13660,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12808,7 +13671,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12819,7 +13682,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1496,6 +1496,15 @@
   </si>
   <si>
     <t>杜煜天</t>
+  </si>
+  <si>
+    <t>客倌来串</t>
+  </si>
+  <si>
+    <t>客倌来串（紫荆广场店）</t>
+  </si>
+  <si>
+    <t>叶晓飞</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1598,21 +1607,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,9 +1629,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1649,14 +1651,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -1664,16 +1658,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1687,22 +1674,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1732,6 +1710,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1739,14 +1740,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1754,7 +1755,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1817,7 +1826,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,31 +1880,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1883,79 +1952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,13 +1970,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2319,17 +2328,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2344,16 +2347,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2375,6 +2378,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2383,49 +2425,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2434,149 +2443,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2698,9 +2707,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2712,19 +2718,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3228,440 +3222,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="89" t="s">
+      <c r="N2" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="54"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64">
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65">
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92" t="e">
+      <c r="J3" s="86"/>
+      <c r="K3" s="87" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="93">
+      <c r="L3" s="88">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="94">
+      <c r="M3" s="89">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="95" t="e">
+      <c r="N3" s="90" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70">
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="71">
+      <c r="G4" s="66"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="92" t="e">
+      <c r="J4" s="91"/>
+      <c r="K4" s="87" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="93">
+      <c r="L4" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="94">
+      <c r="M4" s="89">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="95" t="e">
+      <c r="N4" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70">
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="71">
+      <c r="G5" s="66"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="96"/>
-      <c r="K5" s="92" t="e">
+      <c r="J5" s="91"/>
+      <c r="K5" s="87" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="93">
+      <c r="L5" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="94">
+      <c r="M5" s="89">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="95" t="e">
+      <c r="N5" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70">
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="71">
+      <c r="G6" s="66"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="92" t="e">
+      <c r="J6" s="91"/>
+      <c r="K6" s="87" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="93">
+      <c r="L6" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="94">
+      <c r="M6" s="89">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="95" t="e">
+      <c r="N6" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="71">
+      <c r="G7" s="66"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="92" t="e">
+      <c r="J7" s="91"/>
+      <c r="K7" s="87" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="93">
+      <c r="L7" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="94">
+      <c r="M7" s="89">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="95" t="e">
+      <c r="N7" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70">
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="71">
+      <c r="G8" s="66"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="96"/>
-      <c r="K8" s="92" t="e">
+      <c r="J8" s="91"/>
+      <c r="K8" s="87" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="93">
+      <c r="L8" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="94">
+      <c r="M8" s="89">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="95" t="e">
+      <c r="N8" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70">
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="71">
+      <c r="G9" s="66"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="96"/>
-      <c r="K9" s="92" t="e">
+      <c r="J9" s="91"/>
+      <c r="K9" s="87" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="93">
+      <c r="L9" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="94">
+      <c r="M9" s="89">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="95" t="e">
+      <c r="N9" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="72" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75">
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="76">
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="97"/>
-      <c r="K10" s="98" t="e">
+      <c r="J10" s="92"/>
+      <c r="K10" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="99">
+      <c r="L10" s="94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="100">
+      <c r="M10" s="95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="101" t="e">
+      <c r="N10" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="76">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="76">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="76">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="76">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I11" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="81">
+      <c r="J11" s="76">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="102" t="e">
+      <c r="K11" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="82">
+      <c r="L11" s="77">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="77">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="103" t="e">
+      <c r="N11" s="98" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3679,10 +3673,10 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O197" sqref="B180:O197"/>
+      <selection pane="bottomLeft" activeCell="N198" sqref="N198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7680,7 +7674,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="104" t="s">
+      <c r="N95" s="99" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -10487,13 +10481,13 @@
       <c r="K159" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L159" s="44" t="s">
+      <c r="L159" s="43" t="s">
         <v>404</v>
       </c>
       <c r="M159" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N159" s="45">
+      <c r="N159" s="44">
         <v>18692273777</v>
       </c>
       <c r="O159" s="12" t="s">
@@ -10577,13 +10571,13 @@
       <c r="K161" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L161" s="45" t="s">
+      <c r="L161" s="44" t="s">
         <v>408</v>
       </c>
       <c r="M161" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N161" s="45">
+      <c r="N161" s="44">
         <v>13906231845</v>
       </c>
       <c r="O161" s="12" t="s">
@@ -10807,13 +10801,13 @@
       <c r="K167" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L167" s="46" t="s">
+      <c r="L167" s="45" t="s">
         <v>421</v>
       </c>
       <c r="M167" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N167" s="46">
+      <c r="N167" s="45">
         <v>13916936635</v>
       </c>
       <c r="O167" s="6" t="s">
@@ -11334,31 +11328,31 @@
       <c r="E180" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F180" s="42" t="s">
+      <c r="F180" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G180" s="42">
+      <c r="G180" s="39">
         <v>76106276</v>
       </c>
-      <c r="H180" s="42" t="s">
+      <c r="H180" s="39" t="s">
         <v>448</v>
       </c>
       <c r="I180" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J180" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K180" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L180" s="42" t="s">
+      <c r="J180" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K180" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L180" s="39" t="s">
         <v>449</v>
       </c>
       <c r="M180" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N180" s="42">
+      <c r="N180" s="39">
         <v>15851899046</v>
       </c>
       <c r="O180" s="41" t="s">
@@ -11379,31 +11373,31 @@
       <c r="E181" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F181" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G181" s="42">
+      <c r="F181" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G181" s="39">
         <v>76103683</v>
       </c>
-      <c r="H181" s="43" t="s">
+      <c r="H181" s="42" t="s">
         <v>450</v>
       </c>
       <c r="I181" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J181" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K181" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L181" s="49" t="s">
+      <c r="J181" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K181" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L181" s="46" t="s">
         <v>451</v>
       </c>
       <c r="M181" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N181" s="42">
+      <c r="N181" s="39">
         <v>18917398507</v>
       </c>
       <c r="O181" s="41" t="s">
@@ -11424,31 +11418,31 @@
       <c r="E182" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F182" s="42" t="s">
+      <c r="F182" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G182" s="42">
+      <c r="G182" s="39">
         <v>76106268</v>
       </c>
-      <c r="H182" s="42" t="s">
+      <c r="H182" s="39" t="s">
         <v>452</v>
       </c>
       <c r="I182" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J182" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K182" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L182" s="50" t="s">
+      <c r="J182" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K182" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L182" s="43" t="s">
         <v>453</v>
       </c>
       <c r="M182" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N182" s="42">
+      <c r="N182" s="39">
         <v>15057999044</v>
       </c>
       <c r="O182" s="41" t="s">
@@ -11469,31 +11463,31 @@
       <c r="E183" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F183" s="42" t="s">
+      <c r="F183" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G183" s="42">
+      <c r="G183" s="39">
         <v>76106175</v>
       </c>
-      <c r="H183" s="42" t="s">
+      <c r="H183" s="39" t="s">
         <v>454</v>
       </c>
       <c r="I183" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J183" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K183" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L183" s="42" t="s">
+      <c r="J183" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K183" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L183" s="39" t="s">
         <v>455</v>
       </c>
       <c r="M183" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N183" s="42">
+      <c r="N183" s="39">
         <v>13814547010</v>
       </c>
       <c r="O183" s="41" t="s">
@@ -11514,31 +11508,31 @@
       <c r="E184" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F184" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G184" s="42">
+      <c r="F184" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G184" s="39">
         <v>76078788</v>
       </c>
-      <c r="H184" s="43" t="s">
+      <c r="H184" s="42" t="s">
         <v>456</v>
       </c>
       <c r="I184" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J184" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K184" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L184" s="50" t="s">
+      <c r="J184" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K184" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L184" s="43" t="s">
         <v>457</v>
       </c>
       <c r="M184" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N184" s="42">
+      <c r="N184" s="39">
         <v>15618523690</v>
       </c>
       <c r="O184" s="41" t="s">
@@ -11559,31 +11553,31 @@
       <c r="E185" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F185" s="42" t="s">
+      <c r="F185" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G185" s="42">
+      <c r="G185" s="39">
         <v>76105953</v>
       </c>
-      <c r="H185" s="42" t="s">
+      <c r="H185" s="39" t="s">
         <v>458</v>
       </c>
       <c r="I185" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J185" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K185" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L185" s="51" t="s">
+      <c r="J185" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K185" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L185" s="38" t="s">
         <v>459</v>
       </c>
       <c r="M185" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N185" s="42">
+      <c r="N185" s="39">
         <v>15189740111</v>
       </c>
       <c r="O185" s="41" t="s">
@@ -11604,31 +11598,31 @@
       <c r="E186" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F186" s="42" t="s">
+      <c r="F186" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G186" s="42">
+      <c r="G186" s="39">
         <v>76087615</v>
       </c>
-      <c r="H186" s="42" t="s">
+      <c r="H186" s="39" t="s">
         <v>460</v>
       </c>
       <c r="I186" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J186" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K186" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L186" s="50" t="s">
+      <c r="J186" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K186" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L186" s="43" t="s">
         <v>461</v>
       </c>
       <c r="M186" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N186" s="42">
+      <c r="N186" s="39">
         <v>15298339996</v>
       </c>
       <c r="O186" s="41" t="s">
@@ -11649,31 +11643,31 @@
       <c r="E187" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F187" s="42" t="s">
+      <c r="F187" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="G187" s="42">
+      <c r="G187" s="39">
         <v>76105508</v>
       </c>
-      <c r="H187" s="42" t="s">
+      <c r="H187" s="39" t="s">
         <v>463</v>
       </c>
       <c r="I187" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J187" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K187" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L187" s="49" t="s">
+      <c r="J187" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K187" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L187" s="46" t="s">
         <v>464</v>
       </c>
       <c r="M187" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N187" s="42">
+      <c r="N187" s="39">
         <v>15726283872</v>
       </c>
       <c r="O187" s="41" t="s">
@@ -11694,31 +11688,31 @@
       <c r="E188" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F188" s="42" t="s">
+      <c r="F188" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G188" s="42">
+      <c r="G188" s="39">
         <v>76105323</v>
       </c>
-      <c r="H188" s="42" t="s">
+      <c r="H188" s="39" t="s">
         <v>465</v>
       </c>
       <c r="I188" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J188" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K188" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L188" s="42" t="s">
+      <c r="J188" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K188" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L188" s="39" t="s">
         <v>466</v>
       </c>
       <c r="M188" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N188" s="42">
+      <c r="N188" s="39">
         <v>18701775826</v>
       </c>
       <c r="O188" s="41" t="s">
@@ -11739,31 +11733,31 @@
       <c r="E189" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F189" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G189" s="42">
+      <c r="F189" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G189" s="39">
         <v>76105578</v>
       </c>
-      <c r="H189" s="42" t="s">
+      <c r="H189" s="39" t="s">
         <v>467</v>
       </c>
       <c r="I189" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J189" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K189" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L189" s="51" t="s">
+      <c r="J189" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K189" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L189" s="38" t="s">
         <v>468</v>
       </c>
       <c r="M189" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N189" s="42">
+      <c r="N189" s="39">
         <v>13661533442</v>
       </c>
       <c r="O189" s="41" t="s">
@@ -11784,31 +11778,31 @@
       <c r="E190" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F190" s="42" t="s">
+      <c r="F190" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G190" s="42">
+      <c r="G190" s="39">
         <v>76106131</v>
       </c>
-      <c r="H190" s="42" t="s">
+      <c r="H190" s="39" t="s">
         <v>469</v>
       </c>
       <c r="I190" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J190" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K190" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L190" s="42" t="s">
+      <c r="J190" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K190" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L190" s="39" t="s">
         <v>470</v>
       </c>
       <c r="M190" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N190" s="42">
+      <c r="N190" s="39">
         <v>13813557044</v>
       </c>
       <c r="O190" s="41" t="s">
@@ -11829,31 +11823,31 @@
       <c r="E191" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F191" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G191" s="42">
+      <c r="F191" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G191" s="39">
         <v>76099661</v>
       </c>
-      <c r="H191" s="42" t="s">
+      <c r="H191" s="39" t="s">
         <v>471</v>
       </c>
       <c r="I191" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J191" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K191" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L191" s="42" t="s">
+      <c r="J191" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K191" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L191" s="39" t="s">
         <v>472</v>
       </c>
       <c r="M191" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N191" s="42">
+      <c r="N191" s="39">
         <v>13671677897</v>
       </c>
       <c r="O191" s="41" t="s">
@@ -11874,31 +11868,31 @@
       <c r="E192" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F192" s="42" t="s">
+      <c r="F192" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G192" s="42">
+      <c r="G192" s="39">
         <v>76101937</v>
       </c>
-      <c r="H192" s="43" t="s">
+      <c r="H192" s="42" t="s">
         <v>473</v>
       </c>
       <c r="I192" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J192" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K192" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L192" s="50" t="s">
+      <c r="J192" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K192" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L192" s="43" t="s">
         <v>474</v>
       </c>
       <c r="M192" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N192" s="42">
+      <c r="N192" s="39">
         <v>18115600561</v>
       </c>
       <c r="O192" s="41" t="s">
@@ -11919,31 +11913,31 @@
       <c r="E193" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F193" s="42" t="s">
+      <c r="F193" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G193" s="42">
+      <c r="G193" s="39">
         <v>76108189</v>
       </c>
-      <c r="H193" s="42" t="s">
+      <c r="H193" s="39" t="s">
         <v>475</v>
       </c>
       <c r="I193" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J193" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K193" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L193" s="42" t="s">
+      <c r="J193" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K193" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L193" s="39" t="s">
         <v>476</v>
       </c>
       <c r="M193" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N193" s="42">
+      <c r="N193" s="39">
         <v>13986052837</v>
       </c>
       <c r="O193" s="41" t="s">
@@ -11964,31 +11958,31 @@
       <c r="E194" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F194" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G194" s="42">
+      <c r="F194" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G194" s="39">
         <v>76108187</v>
       </c>
-      <c r="H194" s="43" t="s">
+      <c r="H194" s="42" t="s">
         <v>477</v>
       </c>
       <c r="I194" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J194" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K194" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L194" s="42" t="s">
+      <c r="J194" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K194" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L194" s="39" t="s">
         <v>478</v>
       </c>
       <c r="M194" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N194" s="42">
+      <c r="N194" s="39">
         <v>13761097276</v>
       </c>
       <c r="O194" s="41" t="s">
@@ -12009,31 +12003,31 @@
       <c r="E195" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F195" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G195" s="42">
+      <c r="F195" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G195" s="39">
         <v>76108196</v>
       </c>
-      <c r="H195" s="43" t="s">
+      <c r="H195" s="42" t="s">
         <v>479</v>
       </c>
       <c r="I195" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J195" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K195" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L195" s="42" t="s">
+      <c r="J195" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K195" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L195" s="39" t="s">
         <v>480</v>
       </c>
       <c r="M195" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N195" s="42">
+      <c r="N195" s="39">
         <v>13501863833</v>
       </c>
       <c r="O195" s="41" t="s">
@@ -12054,31 +12048,31 @@
       <c r="E196" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F196" s="42" t="s">
+      <c r="F196" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G196" s="42">
+      <c r="G196" s="39">
         <v>76108636</v>
       </c>
-      <c r="H196" s="43" t="s">
+      <c r="H196" s="42" t="s">
         <v>481</v>
       </c>
       <c r="I196" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J196" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K196" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L196" s="42" t="s">
+      <c r="J196" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K196" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L196" s="39" t="s">
         <v>482</v>
       </c>
       <c r="M196" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N196" s="42">
+      <c r="N196" s="39">
         <v>18706118030</v>
       </c>
       <c r="O196" s="41" t="s">
@@ -12099,31 +12093,31 @@
       <c r="E197" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F197" s="42" t="s">
+      <c r="F197" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="G197" s="42">
+      <c r="G197" s="39">
         <v>76093718</v>
       </c>
-      <c r="H197" s="43" t="s">
+      <c r="H197" s="42" t="s">
         <v>228</v>
       </c>
       <c r="I197" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J197" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K197" s="48">
-        <v>17721436606</v>
-      </c>
-      <c r="L197" s="42" t="s">
+      <c r="J197" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K197" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L197" s="39" t="s">
         <v>484</v>
       </c>
       <c r="M197" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N197" s="42">
+      <c r="N197" s="39">
         <v>18457988858</v>
       </c>
       <c r="O197" s="41" t="s">
@@ -12132,8 +12126,48 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="18"/>
-      <c r="N198" s="26"/>
-      <c r="O198" s="6"/>
+      <c r="B198" s="40">
+        <v>43053</v>
+      </c>
+      <c r="C198" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G198" s="6">
+        <v>76108207</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="I198" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J198" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K198" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L198" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="M198" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="N198" s="26">
+        <v>18016233560</v>
+      </c>
+      <c r="O198" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="18"/>
@@ -13611,10 +13645,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B198:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B199:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C198:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C199:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13643,13 +13677,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13660,7 +13694,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13671,7 +13705,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13682,7 +13716,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1505,6 +1505,12 @@
   </si>
   <si>
     <t>叶晓飞</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(苏州中心店)</t>
+  </si>
+  <si>
+    <t>0512-69881998</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1532,9 +1538,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1608,7 +1614,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1623,44 +1637,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,15 +1664,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1703,14 +1716,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1733,21 +1761,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1755,15 +1769,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1826,13 +1832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,19 +1850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,7 +1868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,7 +1892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1904,7 +1928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,31 +1940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,7 +1958,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1970,25 +1988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2328,11 +2334,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2342,21 +2354,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2376,26 +2373,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2417,6 +2405,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2425,16 +2422,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2443,144 +2449,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2595,13 +2601,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3673,27 +3679,27 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N198" sqref="N198"/>
+      <selection pane="bottomLeft" activeCell="L201" sqref="L201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.8333333333333" style="5" customWidth="1"/>
-    <col min="2" max="3" width="10.6666666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.8333333333333" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.16666666666667" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.8333333333333" style="6" customWidth="1"/>
-    <col min="11" max="11" width="16.6666666666667" style="6" customWidth="1"/>
-    <col min="12" max="14" width="13.8333333333333" style="6" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="11.8333333333333" style="6" customWidth="1"/>
+    <col min="2" max="3" width="10.6666666666667" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.8333333333333" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.16666666666667" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.8333333333333" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16.6666666666667" style="7" customWidth="1"/>
+    <col min="12" max="14" width="13.8333333333333" style="7" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:15">
@@ -3784,7 +3790,7 @@
       <c r="N2" s="25">
         <v>18551134341</v>
       </c>
-      <c r="O2" s="6"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="15"/>
@@ -3794,16 +3800,16 @@
       <c r="C3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>76082011</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -3818,16 +3824,16 @@
       <c r="K3" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N3" s="26">
         <v>15501579266</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="18"/>
@@ -3870,7 +3876,7 @@
       <c r="N4" s="25">
         <v>13966018938</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="18"/>
@@ -3913,7 +3919,7 @@
       <c r="N5" s="25">
         <v>18810500061</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="18"/>
@@ -3956,7 +3962,7 @@
       <c r="N6" s="25">
         <v>13971889144</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="18"/>
@@ -3999,7 +4005,7 @@
       <c r="N7" s="25">
         <v>13858681663</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="18"/>
@@ -4042,7 +4048,7 @@
       <c r="N8" s="25">
         <v>18530246118</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="18"/>
@@ -4085,7 +4091,7 @@
       <c r="N9" s="25">
         <v>13736400282</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="18"/>
@@ -4128,7 +4134,7 @@
       <c r="N10" s="25">
         <v>13767994963</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="18"/>
@@ -4171,7 +4177,7 @@
       <c r="N11" s="25">
         <v>13554403984</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="18"/>
@@ -4214,7 +4220,7 @@
       <c r="N12" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="18"/>
@@ -4257,7 +4263,7 @@
       <c r="N13" s="25">
         <v>13661304161</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="18"/>
@@ -4300,7 +4306,7 @@
       <c r="N14" s="25">
         <v>18972265261</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="18"/>
@@ -4343,7 +4349,7 @@
       <c r="N15" s="25">
         <v>13777451664</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="18"/>
@@ -4386,7 +4392,7 @@
       <c r="N16" s="25">
         <v>18621796129</v>
       </c>
-      <c r="O16" s="6"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="18"/>
@@ -4429,7 +4435,7 @@
       <c r="N17" s="25">
         <v>18858902608</v>
       </c>
-      <c r="O17" s="6"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="18"/>
@@ -4472,7 +4478,7 @@
       <c r="N18" s="25">
         <v>13942601041</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="18"/>
@@ -4515,7 +4521,7 @@
       <c r="N19" s="25">
         <v>18652015335</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="18"/>
@@ -4558,7 +4564,7 @@
       <c r="N20" s="25">
         <v>15221029852</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="18"/>
@@ -4601,7 +4607,7 @@
       <c r="N21" s="25">
         <v>13913784580</v>
       </c>
-      <c r="O21" s="6"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="18"/>
@@ -4644,7 +4650,7 @@
       <c r="N22" s="25">
         <v>13767994963</v>
       </c>
-      <c r="O22" s="6"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="18"/>
@@ -4687,7 +4693,7 @@
       <c r="N23" s="25">
         <v>15164187696</v>
       </c>
-      <c r="O23" s="6"/>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="18"/>
@@ -4730,7 +4736,7 @@
       <c r="N24" s="25">
         <v>13040682012</v>
       </c>
-      <c r="O24" s="6"/>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="18"/>
@@ -4773,7 +4779,7 @@
       <c r="N25" s="25">
         <v>18682095416</v>
       </c>
-      <c r="O25" s="6"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="18"/>
@@ -4816,7 +4822,7 @@
       <c r="N26" s="25">
         <v>13585762050</v>
       </c>
-      <c r="O26" s="6"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="18"/>
@@ -4859,7 +4865,7 @@
       <c r="N27" s="25">
         <v>15105550535</v>
       </c>
-      <c r="O27" s="6"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="18"/>
@@ -4902,7 +4908,7 @@
       <c r="N28" s="25">
         <v>13764716637</v>
       </c>
-      <c r="O28" s="6"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="18"/>
@@ -4945,7 +4951,7 @@
       <c r="N29" s="25">
         <v>15397295727</v>
       </c>
-      <c r="O29" s="6"/>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="18"/>
@@ -4988,7 +4994,7 @@
       <c r="N30" s="25">
         <v>13355896773</v>
       </c>
-      <c r="O30" s="6"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="18"/>
@@ -5031,7 +5037,7 @@
       <c r="N31" s="25">
         <v>13870691831</v>
       </c>
-      <c r="O31" s="6"/>
+      <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="18"/>
@@ -5074,7 +5080,7 @@
       <c r="N32" s="25">
         <v>18374366080</v>
       </c>
-      <c r="O32" s="6"/>
+      <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="18"/>
@@ -5117,7 +5123,7 @@
       <c r="N33" s="27">
         <v>18132864111</v>
       </c>
-      <c r="O33" s="6"/>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="18"/>
@@ -5160,7 +5166,7 @@
       <c r="N34" s="25">
         <v>15250271949</v>
       </c>
-      <c r="O34" s="6"/>
+      <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="18"/>
@@ -5176,16 +5182,16 @@
       <c r="E35" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="F35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="7">
         <v>76088930</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="13" t="s">
@@ -5194,16 +5200,16 @@
       <c r="K35" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="7" t="s">
         <v>139</v>
       </c>
       <c r="N35" s="26">
         <v>18016233560</v>
       </c>
-      <c r="O35" s="6"/>
+      <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="18"/>
@@ -5219,16 +5225,16 @@
       <c r="E36" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="7">
         <v>76088929</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J36" s="13" t="s">
@@ -5237,16 +5243,16 @@
       <c r="K36" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="7" t="s">
         <v>139</v>
       </c>
       <c r="N36" s="26">
         <v>18016233560</v>
       </c>
-      <c r="O36" s="6"/>
+      <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="18"/>
@@ -5289,7 +5295,7 @@
       <c r="N37" s="25">
         <v>13656836874</v>
       </c>
-      <c r="O37" s="6"/>
+      <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="18"/>
@@ -5332,7 +5338,7 @@
       <c r="N38" s="25">
         <v>13761625222</v>
       </c>
-      <c r="O38" s="6"/>
+      <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="18"/>
@@ -5375,7 +5381,7 @@
       <c r="N39" s="29">
         <v>13554403984</v>
       </c>
-      <c r="O39" s="6"/>
+      <c r="O39" s="7"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="18"/>
@@ -5418,7 +5424,7 @@
       <c r="N40" s="25">
         <v>13816987174</v>
       </c>
-      <c r="O40" s="6"/>
+      <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="18"/>
@@ -5461,7 +5467,7 @@
       <c r="N41" s="25">
         <v>13918510662</v>
       </c>
-      <c r="O41" s="6"/>
+      <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="18"/>
@@ -5504,7 +5510,7 @@
       <c r="N42" s="25">
         <v>13222385871</v>
       </c>
-      <c r="O42" s="6"/>
+      <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="18"/>
@@ -5547,7 +5553,7 @@
       <c r="N43" s="25">
         <v>18621632110</v>
       </c>
-      <c r="O43" s="6"/>
+      <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="18"/>
@@ -5590,7 +5596,7 @@
       <c r="N44" s="25">
         <v>13764375995</v>
       </c>
-      <c r="O44" s="6"/>
+      <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="18"/>
@@ -5633,7 +5639,7 @@
       <c r="N45" s="25">
         <v>13601584963</v>
       </c>
-      <c r="O45" s="6"/>
+      <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="18"/>
@@ -5676,7 +5682,7 @@
       <c r="N46" s="25">
         <v>18136910107</v>
       </c>
-      <c r="O46" s="6"/>
+      <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="18"/>
@@ -5686,22 +5692,22 @@
       <c r="C47" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="6">
+      <c r="F47" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="7">
         <v>76026718</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J47" s="13" t="s">
@@ -5710,21 +5716,21 @@
       <c r="K47" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="M47" s="6" t="s">
+      <c r="M47" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N47" s="26">
         <v>13003216175</v>
       </c>
-      <c r="O47" s="6"/>
+      <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="18"/>
       <c r="N48" s="26"/>
-      <c r="O48" s="6"/>
+      <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="18"/>
@@ -6224,7 +6230,7 @@
     <row r="60" spans="1:15">
       <c r="A60" s="18"/>
       <c r="N60" s="26"/>
-      <c r="O60" s="6"/>
+      <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="18"/>
@@ -6679,7 +6685,7 @@
     <row r="71" spans="1:15">
       <c r="A71" s="18"/>
       <c r="N71" s="26"/>
-      <c r="O71" s="6"/>
+      <c r="O71" s="7"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="18"/>
@@ -7184,19 +7190,19 @@
       <c r="C83" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F83" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G83" s="6">
+      <c r="F83" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G83" s="7">
         <v>76093960</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H83" s="7" t="s">
         <v>245</v>
       </c>
       <c r="I83" s="12" t="s">
@@ -7208,23 +7214,23 @@
       <c r="K83" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L83" s="6" t="s">
+      <c r="L83" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="M83" s="6" t="s">
+      <c r="M83" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N83" s="26">
         <v>15921050781</v>
       </c>
-      <c r="O83" s="6" t="s">
+      <c r="O83" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="18"/>
       <c r="N84" s="26"/>
-      <c r="O84" s="6"/>
+      <c r="O84" s="7"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="18"/>
@@ -7234,19 +7240,19 @@
       <c r="C85" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="7">
         <v>76096622</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H85" s="7" t="s">
         <v>247</v>
       </c>
       <c r="I85" s="12" t="s">
@@ -7258,10 +7264,10 @@
       <c r="K85" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L85" s="6" t="s">
+      <c r="L85" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="M85" s="6" t="s">
+      <c r="M85" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N85" s="26">
@@ -7274,7 +7280,7 @@
     <row r="86" spans="1:15">
       <c r="A86" s="18"/>
       <c r="N86" s="26"/>
-      <c r="O86" s="6"/>
+      <c r="O86" s="7"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="18"/>
@@ -9596,19 +9602,19 @@
       <c r="C139" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="F139" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G139" s="6">
+      <c r="G139" s="7">
         <v>76101237</v>
       </c>
-      <c r="H139" s="6" t="s">
+      <c r="H139" s="7" t="s">
         <v>365</v>
       </c>
       <c r="I139" s="12" t="s">
@@ -9620,10 +9626,10 @@
       <c r="K139" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L139" s="6" t="s">
+      <c r="L139" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="M139" s="6" t="s">
+      <c r="M139" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N139" s="26" t="s">
@@ -9641,19 +9647,19 @@
       <c r="C140" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E140" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="F140" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G140" s="6">
+      <c r="G140" s="7">
         <v>76098583</v>
       </c>
-      <c r="H140" s="6" t="s">
+      <c r="H140" s="7" t="s">
         <v>368</v>
       </c>
       <c r="I140" s="12" t="s">
@@ -9665,16 +9671,16 @@
       <c r="K140" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L140" s="6" t="s">
+      <c r="L140" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M140" s="6" t="s">
+      <c r="M140" s="7" t="s">
         <v>371</v>
       </c>
       <c r="N140" s="26">
         <v>13859010255</v>
       </c>
-      <c r="O140" s="6" t="s">
+      <c r="O140" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9686,19 +9692,19 @@
       <c r="C141" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="F141" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G141" s="6">
+      <c r="G141" s="7">
         <v>76098585</v>
       </c>
-      <c r="H141" s="6" t="s">
+      <c r="H141" s="7" t="s">
         <v>372</v>
       </c>
       <c r="I141" s="12" t="s">
@@ -9710,16 +9716,16 @@
       <c r="K141" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L141" s="6" t="s">
+      <c r="L141" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M141" s="6" t="s">
+      <c r="M141" s="7" t="s">
         <v>371</v>
       </c>
       <c r="N141" s="26">
         <v>13859010255</v>
       </c>
-      <c r="O141" s="6" t="s">
+      <c r="O141" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9731,19 +9737,19 @@
       <c r="C142" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="F142" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G142" s="6">
+      <c r="G142" s="7">
         <v>76098586</v>
       </c>
-      <c r="H142" s="6" t="s">
+      <c r="H142" s="7" t="s">
         <v>373</v>
       </c>
       <c r="I142" s="12" t="s">
@@ -9755,16 +9761,16 @@
       <c r="K142" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L142" s="6" t="s">
+      <c r="L142" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M142" s="6" t="s">
+      <c r="M142" s="7" t="s">
         <v>371</v>
       </c>
       <c r="N142" s="26">
         <v>13859010255</v>
       </c>
-      <c r="O142" s="6" t="s">
+      <c r="O142" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9776,19 +9782,19 @@
       <c r="C143" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="F143" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G143" s="6">
+      <c r="G143" s="7">
         <v>76098588</v>
       </c>
-      <c r="H143" s="6" t="s">
+      <c r="H143" s="7" t="s">
         <v>374</v>
       </c>
       <c r="I143" s="12" t="s">
@@ -9800,16 +9806,16 @@
       <c r="K143" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L143" s="6" t="s">
+      <c r="L143" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="M143" s="6" t="s">
+      <c r="M143" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N143" s="26">
         <v>13160801863</v>
       </c>
-      <c r="O143" s="6" t="s">
+      <c r="O143" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9821,19 +9827,19 @@
       <c r="C144" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="F144" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G144" s="6">
+      <c r="G144" s="7">
         <v>76098589</v>
       </c>
-      <c r="H144" s="6" t="s">
+      <c r="H144" s="7" t="s">
         <v>376</v>
       </c>
       <c r="I144" s="12" t="s">
@@ -9845,16 +9851,16 @@
       <c r="K144" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L144" s="6" t="s">
+      <c r="L144" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="M144" s="6" t="s">
+      <c r="M144" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="26">
         <v>13160801863</v>
       </c>
-      <c r="O144" s="6" t="s">
+      <c r="O144" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9866,19 +9872,19 @@
       <c r="C145" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="F145" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G145" s="6">
+      <c r="G145" s="7">
         <v>76098590</v>
       </c>
-      <c r="H145" s="6" t="s">
+      <c r="H145" s="7" t="s">
         <v>377</v>
       </c>
       <c r="I145" s="12" t="s">
@@ -9890,16 +9896,16 @@
       <c r="K145" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L145" s="6" t="s">
+      <c r="L145" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="M145" s="6" t="s">
+      <c r="M145" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N145" s="26">
         <v>13160801863</v>
       </c>
-      <c r="O145" s="6" t="s">
+      <c r="O145" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9907,7 +9913,7 @@
       <c r="A146" s="18"/>
       <c r="B146" s="32"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="6"/>
+      <c r="O146" s="7"/>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="18"/>
@@ -10632,7 +10638,7 @@
     <row r="163" spans="1:15">
       <c r="A163" s="18"/>
       <c r="N163" s="26"/>
-      <c r="O163" s="6"/>
+      <c r="O163" s="7"/>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="18"/>
@@ -10675,7 +10681,7 @@
       <c r="N164" s="13">
         <v>13564618113</v>
       </c>
-      <c r="O164" s="6" t="s">
+      <c r="O164" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10720,7 +10726,7 @@
       <c r="N165" s="13">
         <v>15805025678</v>
       </c>
-      <c r="O165" s="6" t="s">
+      <c r="O165" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10765,7 +10771,7 @@
       <c r="N166" s="13">
         <v>13564586841</v>
       </c>
-      <c r="O166" s="6" t="s">
+      <c r="O166" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10810,7 +10816,7 @@
       <c r="N167" s="45">
         <v>13916936635</v>
       </c>
-      <c r="O167" s="6" t="s">
+      <c r="O167" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10855,7 +10861,7 @@
       <c r="N168" s="13">
         <v>17705190178</v>
       </c>
-      <c r="O168" s="6" t="s">
+      <c r="O168" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10900,7 +10906,7 @@
       <c r="N169" s="39">
         <v>13671997807</v>
       </c>
-      <c r="O169" s="6" t="s">
+      <c r="O169" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10945,7 +10951,7 @@
       <c r="N170" s="39">
         <v>15851859664</v>
       </c>
-      <c r="O170" s="6" t="s">
+      <c r="O170" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10990,7 +10996,7 @@
       <c r="N171" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="O171" s="6" t="s">
+      <c r="O171" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -11035,7 +11041,7 @@
       <c r="N172" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="O172" s="6" t="s">
+      <c r="O172" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -11080,7 +11086,7 @@
       <c r="N173" s="39">
         <v>13912415067</v>
       </c>
-      <c r="O173" s="6" t="s">
+      <c r="O173" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -11125,7 +11131,7 @@
       <c r="N174" s="39">
         <v>18915985809</v>
       </c>
-      <c r="O174" s="6" t="s">
+      <c r="O174" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -11170,7 +11176,7 @@
       <c r="N175" s="39">
         <v>13918516818</v>
       </c>
-      <c r="O175" s="6" t="s">
+      <c r="O175" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -11215,7 +11221,7 @@
       <c r="N176" s="39">
         <v>15972910660</v>
       </c>
-      <c r="O176" s="6" t="s">
+      <c r="O176" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -11260,7 +11266,7 @@
       <c r="N177" s="13">
         <v>18685008922</v>
       </c>
-      <c r="O177" s="6" t="s">
+      <c r="O177" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -11305,14 +11311,14 @@
       <c r="N178" s="13">
         <v>18627166046</v>
       </c>
-      <c r="O178" s="6" t="s">
+      <c r="O178" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="18"/>
       <c r="N179" s="26"/>
-      <c r="O179" s="6"/>
+      <c r="O179" s="7"/>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="18"/>
@@ -12132,19 +12138,19 @@
       <c r="C198" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D198" s="6" t="s">
+      <c r="D198" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="E198" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F198" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G198" s="6">
+      <c r="F198" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G198" s="7">
         <v>76108207</v>
       </c>
-      <c r="H198" s="6" t="s">
+      <c r="H198" s="7" t="s">
         <v>486</v>
       </c>
       <c r="I198" s="41" t="s">
@@ -12156,673 +12162,713 @@
       <c r="K198" s="41">
         <v>17721436606</v>
       </c>
-      <c r="L198" s="6" t="s">
+      <c r="L198" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="M198" s="6" t="s">
+      <c r="M198" s="7" t="s">
         <v>371</v>
       </c>
       <c r="N198" s="26">
         <v>18016233560</v>
       </c>
-      <c r="O198" s="6" t="s">
+      <c r="O198" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" s="5" customFormat="1" spans="1:15">
       <c r="A199" s="18"/>
-      <c r="N199" s="26"/>
-      <c r="O199" s="6"/>
+      <c r="B199" s="32">
+        <v>43054</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G199" s="7">
+        <v>76102029</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="I199" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J199" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K199" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L199" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M199" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N199" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="O199" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="18"/>
       <c r="N200" s="26"/>
-      <c r="O200" s="6"/>
+      <c r="O200" s="7"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="18"/>
       <c r="N201" s="26"/>
-      <c r="O201" s="6"/>
+      <c r="O201" s="7"/>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="18"/>
       <c r="N202" s="26"/>
-      <c r="O202" s="6"/>
+      <c r="O202" s="7"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="18"/>
       <c r="N203" s="26"/>
-      <c r="O203" s="6"/>
+      <c r="O203" s="7"/>
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="18"/>
       <c r="N204" s="26"/>
-      <c r="O204" s="6"/>
+      <c r="O204" s="7"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="18"/>
       <c r="N205" s="26"/>
-      <c r="O205" s="6"/>
+      <c r="O205" s="7"/>
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="18"/>
       <c r="N206" s="26"/>
-      <c r="O206" s="6"/>
+      <c r="O206" s="7"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="18"/>
       <c r="N207" s="26"/>
-      <c r="O207" s="6"/>
+      <c r="O207" s="7"/>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="18"/>
       <c r="N208" s="26"/>
-      <c r="O208" s="6"/>
+      <c r="O208" s="7"/>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="18"/>
       <c r="N209" s="26"/>
-      <c r="O209" s="6"/>
+      <c r="O209" s="7"/>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="18"/>
       <c r="N210" s="26"/>
-      <c r="O210" s="6"/>
+      <c r="O210" s="7"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="18"/>
       <c r="N211" s="26"/>
-      <c r="O211" s="6"/>
+      <c r="O211" s="7"/>
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="18"/>
       <c r="N212" s="26"/>
-      <c r="O212" s="6"/>
+      <c r="O212" s="7"/>
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="18"/>
       <c r="N213" s="26"/>
-      <c r="O213" s="6"/>
+      <c r="O213" s="7"/>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="18"/>
       <c r="N214" s="26"/>
-      <c r="O214" s="6"/>
+      <c r="O214" s="7"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="18"/>
       <c r="N215" s="26"/>
-      <c r="O215" s="6"/>
+      <c r="O215" s="7"/>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="18"/>
       <c r="N216" s="26"/>
-      <c r="O216" s="6"/>
+      <c r="O216" s="7"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="18"/>
       <c r="N217" s="26"/>
-      <c r="O217" s="6"/>
+      <c r="O217" s="7"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="18"/>
       <c r="N218" s="26"/>
-      <c r="O218" s="6"/>
+      <c r="O218" s="7"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="18"/>
       <c r="N219" s="26"/>
-      <c r="O219" s="6"/>
+      <c r="O219" s="7"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="18"/>
       <c r="N220" s="26"/>
-      <c r="O220" s="6"/>
+      <c r="O220" s="7"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="18"/>
       <c r="N221" s="26"/>
-      <c r="O221" s="6"/>
+      <c r="O221" s="7"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="18"/>
       <c r="N222" s="26"/>
-      <c r="O222" s="6"/>
+      <c r="O222" s="7"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="18"/>
       <c r="N223" s="26"/>
-      <c r="O223" s="6"/>
+      <c r="O223" s="7"/>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="18"/>
       <c r="N224" s="26"/>
-      <c r="O224" s="6"/>
+      <c r="O224" s="7"/>
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="18"/>
       <c r="N225" s="26"/>
-      <c r="O225" s="6"/>
+      <c r="O225" s="7"/>
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="18"/>
       <c r="N226" s="26"/>
-      <c r="O226" s="6"/>
+      <c r="O226" s="7"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="18"/>
       <c r="N227" s="26"/>
-      <c r="O227" s="6"/>
+      <c r="O227" s="7"/>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="18"/>
       <c r="N228" s="26"/>
-      <c r="O228" s="6"/>
+      <c r="O228" s="7"/>
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="18"/>
       <c r="N229" s="26"/>
-      <c r="O229" s="6"/>
+      <c r="O229" s="7"/>
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="18"/>
       <c r="N230" s="26"/>
-      <c r="O230" s="6"/>
+      <c r="O230" s="7"/>
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="18"/>
       <c r="N231" s="26"/>
-      <c r="O231" s="6"/>
+      <c r="O231" s="7"/>
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="18"/>
       <c r="N232" s="26"/>
-      <c r="O232" s="6"/>
+      <c r="O232" s="7"/>
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="18"/>
       <c r="N233" s="26"/>
-      <c r="O233" s="6"/>
+      <c r="O233" s="7"/>
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="18"/>
       <c r="N234" s="26"/>
-      <c r="O234" s="6"/>
+      <c r="O234" s="7"/>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="18"/>
       <c r="N235" s="26"/>
-      <c r="O235" s="6"/>
+      <c r="O235" s="7"/>
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="18"/>
       <c r="N236" s="26"/>
-      <c r="O236" s="6"/>
+      <c r="O236" s="7"/>
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="18"/>
       <c r="N237" s="26"/>
-      <c r="O237" s="6"/>
+      <c r="O237" s="7"/>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="18"/>
       <c r="N238" s="26"/>
-      <c r="O238" s="6"/>
+      <c r="O238" s="7"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="18"/>
       <c r="N239" s="26"/>
-      <c r="O239" s="6"/>
+      <c r="O239" s="7"/>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="18"/>
       <c r="N240" s="26"/>
-      <c r="O240" s="6"/>
+      <c r="O240" s="7"/>
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="18"/>
       <c r="N241" s="26"/>
-      <c r="O241" s="6"/>
+      <c r="O241" s="7"/>
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="18"/>
       <c r="N242" s="26"/>
-      <c r="O242" s="6"/>
+      <c r="O242" s="7"/>
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="18"/>
       <c r="N243" s="26"/>
-      <c r="O243" s="6"/>
+      <c r="O243" s="7"/>
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="18"/>
       <c r="N244" s="26"/>
-      <c r="O244" s="6"/>
+      <c r="O244" s="7"/>
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="18"/>
       <c r="N245" s="26"/>
-      <c r="O245" s="6"/>
+      <c r="O245" s="7"/>
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="18"/>
       <c r="N246" s="26"/>
-      <c r="O246" s="6"/>
+      <c r="O246" s="7"/>
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="18"/>
       <c r="N247" s="26"/>
-      <c r="O247" s="6"/>
+      <c r="O247" s="7"/>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="18"/>
       <c r="N248" s="26"/>
-      <c r="O248" s="6"/>
+      <c r="O248" s="7"/>
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="18"/>
       <c r="N249" s="26"/>
-      <c r="O249" s="6"/>
+      <c r="O249" s="7"/>
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="18"/>
       <c r="N250" s="26"/>
-      <c r="O250" s="6"/>
+      <c r="O250" s="7"/>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="18"/>
       <c r="N251" s="26"/>
-      <c r="O251" s="6"/>
+      <c r="O251" s="7"/>
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="18"/>
       <c r="N252" s="26"/>
-      <c r="O252" s="6"/>
+      <c r="O252" s="7"/>
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="18"/>
       <c r="N253" s="26"/>
-      <c r="O253" s="6"/>
+      <c r="O253" s="7"/>
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="18"/>
       <c r="N254" s="26"/>
-      <c r="O254" s="6"/>
+      <c r="O254" s="7"/>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="18"/>
       <c r="N255" s="26"/>
-      <c r="O255" s="6"/>
+      <c r="O255" s="7"/>
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="18"/>
       <c r="N256" s="26"/>
-      <c r="O256" s="6"/>
+      <c r="O256" s="7"/>
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="18"/>
       <c r="N257" s="26"/>
-      <c r="O257" s="6"/>
+      <c r="O257" s="7"/>
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="18"/>
       <c r="N258" s="26"/>
-      <c r="O258" s="6"/>
+      <c r="O258" s="7"/>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="18"/>
       <c r="N259" s="26"/>
-      <c r="O259" s="6"/>
+      <c r="O259" s="7"/>
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="18"/>
       <c r="N260" s="26"/>
-      <c r="O260" s="6"/>
+      <c r="O260" s="7"/>
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="18"/>
       <c r="N261" s="26"/>
-      <c r="O261" s="6"/>
+      <c r="O261" s="7"/>
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="18"/>
       <c r="N262" s="26"/>
-      <c r="O262" s="6"/>
+      <c r="O262" s="7"/>
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="18"/>
       <c r="N263" s="26"/>
-      <c r="O263" s="6"/>
+      <c r="O263" s="7"/>
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="18"/>
       <c r="N264" s="26"/>
-      <c r="O264" s="6"/>
+      <c r="O264" s="7"/>
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="18"/>
       <c r="N265" s="26"/>
-      <c r="O265" s="6"/>
+      <c r="O265" s="7"/>
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="18"/>
       <c r="N266" s="26"/>
-      <c r="O266" s="6"/>
+      <c r="O266" s="7"/>
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="18"/>
       <c r="N267" s="26"/>
-      <c r="O267" s="6"/>
+      <c r="O267" s="7"/>
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="18"/>
       <c r="N268" s="26"/>
-      <c r="O268" s="6"/>
+      <c r="O268" s="7"/>
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="18"/>
       <c r="N269" s="26"/>
-      <c r="O269" s="6"/>
+      <c r="O269" s="7"/>
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="18"/>
       <c r="N270" s="26"/>
-      <c r="O270" s="6"/>
+      <c r="O270" s="7"/>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="18"/>
       <c r="N271" s="26"/>
-      <c r="O271" s="6"/>
+      <c r="O271" s="7"/>
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="18"/>
       <c r="N272" s="26"/>
-      <c r="O272" s="6"/>
+      <c r="O272" s="7"/>
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="18"/>
       <c r="N273" s="26"/>
-      <c r="O273" s="6"/>
+      <c r="O273" s="7"/>
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="18"/>
       <c r="N274" s="26"/>
-      <c r="O274" s="6"/>
+      <c r="O274" s="7"/>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="18"/>
       <c r="N275" s="26"/>
-      <c r="O275" s="6"/>
+      <c r="O275" s="7"/>
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="18"/>
       <c r="N276" s="26"/>
-      <c r="O276" s="6"/>
+      <c r="O276" s="7"/>
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="18"/>
       <c r="N277" s="26"/>
-      <c r="O277" s="6"/>
+      <c r="O277" s="7"/>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="18"/>
       <c r="N278" s="26"/>
-      <c r="O278" s="6"/>
+      <c r="O278" s="7"/>
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="18"/>
       <c r="N279" s="26"/>
-      <c r="O279" s="6"/>
+      <c r="O279" s="7"/>
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="18"/>
       <c r="N280" s="26"/>
-      <c r="O280" s="6"/>
+      <c r="O280" s="7"/>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="18"/>
       <c r="N281" s="26"/>
-      <c r="O281" s="6"/>
+      <c r="O281" s="7"/>
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="18"/>
       <c r="N282" s="26"/>
-      <c r="O282" s="6"/>
+      <c r="O282" s="7"/>
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="18"/>
       <c r="N283" s="26"/>
-      <c r="O283" s="6"/>
+      <c r="O283" s="7"/>
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="18"/>
       <c r="N284" s="26"/>
-      <c r="O284" s="6"/>
+      <c r="O284" s="7"/>
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="18"/>
       <c r="N285" s="26"/>
-      <c r="O285" s="6"/>
+      <c r="O285" s="7"/>
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="18"/>
       <c r="N286" s="26"/>
-      <c r="O286" s="6"/>
+      <c r="O286" s="7"/>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="18"/>
       <c r="N287" s="26"/>
-      <c r="O287" s="6"/>
+      <c r="O287" s="7"/>
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="18"/>
       <c r="N288" s="26"/>
-      <c r="O288" s="6"/>
+      <c r="O288" s="7"/>
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="18"/>
       <c r="N289" s="26"/>
-      <c r="O289" s="6"/>
+      <c r="O289" s="7"/>
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="18"/>
       <c r="N290" s="26"/>
-      <c r="O290" s="6"/>
+      <c r="O290" s="7"/>
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="18"/>
       <c r="N291" s="26"/>
-      <c r="O291" s="6"/>
+      <c r="O291" s="7"/>
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="18"/>
       <c r="N292" s="26"/>
-      <c r="O292" s="6"/>
+      <c r="O292" s="7"/>
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="18"/>
       <c r="N293" s="26"/>
-      <c r="O293" s="6"/>
+      <c r="O293" s="7"/>
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="18"/>
       <c r="N294" s="26"/>
-      <c r="O294" s="6"/>
+      <c r="O294" s="7"/>
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="18"/>
       <c r="N295" s="26"/>
-      <c r="O295" s="6"/>
+      <c r="O295" s="7"/>
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="18"/>
       <c r="N296" s="26"/>
-      <c r="O296" s="6"/>
+      <c r="O296" s="7"/>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="18"/>
       <c r="N297" s="26"/>
-      <c r="O297" s="6"/>
+      <c r="O297" s="7"/>
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="18"/>
       <c r="N298" s="26"/>
-      <c r="O298" s="6"/>
+      <c r="O298" s="7"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="18"/>
       <c r="N299" s="26"/>
-      <c r="O299" s="6"/>
+      <c r="O299" s="7"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="18"/>
       <c r="N300" s="26"/>
-      <c r="O300" s="6"/>
+      <c r="O300" s="7"/>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="18"/>
       <c r="N301" s="26"/>
-      <c r="O301" s="6"/>
+      <c r="O301" s="7"/>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="18"/>
       <c r="N302" s="26"/>
-      <c r="O302" s="6"/>
+      <c r="O302" s="7"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="18"/>
       <c r="N303" s="26"/>
-      <c r="O303" s="6"/>
+      <c r="O303" s="7"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="18"/>
       <c r="N304" s="26"/>
-      <c r="O304" s="6"/>
+      <c r="O304" s="7"/>
     </row>
     <row r="305" spans="1:15">
       <c r="A305" s="18"/>
       <c r="N305" s="26"/>
-      <c r="O305" s="6"/>
+      <c r="O305" s="7"/>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="18"/>
       <c r="N306" s="26"/>
-      <c r="O306" s="6"/>
+      <c r="O306" s="7"/>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="18"/>
       <c r="N307" s="26"/>
-      <c r="O307" s="6"/>
+      <c r="O307" s="7"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="18"/>
       <c r="N308" s="26"/>
-      <c r="O308" s="6"/>
+      <c r="O308" s="7"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="18"/>
       <c r="N309" s="26"/>
-      <c r="O309" s="6"/>
+      <c r="O309" s="7"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="18"/>
       <c r="N310" s="26"/>
-      <c r="O310" s="6"/>
+      <c r="O310" s="7"/>
     </row>
     <row r="311" spans="1:15">
       <c r="A311" s="18"/>
       <c r="N311" s="26"/>
-      <c r="O311" s="6"/>
+      <c r="O311" s="7"/>
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="18"/>
       <c r="N312" s="26"/>
-      <c r="O312" s="6"/>
+      <c r="O312" s="7"/>
     </row>
     <row r="313" spans="1:15">
       <c r="A313" s="18"/>
       <c r="N313" s="26"/>
-      <c r="O313" s="6"/>
+      <c r="O313" s="7"/>
     </row>
     <row r="314" spans="1:15">
       <c r="A314" s="18"/>
       <c r="N314" s="26"/>
-      <c r="O314" s="6"/>
+      <c r="O314" s="7"/>
     </row>
     <row r="315" spans="1:15">
       <c r="A315" s="18"/>
       <c r="N315" s="26"/>
-      <c r="O315" s="6"/>
+      <c r="O315" s="7"/>
     </row>
     <row r="316" spans="1:15">
       <c r="A316" s="18"/>
       <c r="N316" s="26"/>
-      <c r="O316" s="6"/>
+      <c r="O316" s="7"/>
     </row>
     <row r="317" spans="1:15">
       <c r="A317" s="18"/>
       <c r="N317" s="26"/>
-      <c r="O317" s="6"/>
+      <c r="O317" s="7"/>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="18"/>
       <c r="N318" s="26"/>
-      <c r="O318" s="6"/>
+      <c r="O318" s="7"/>
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="18"/>
       <c r="N319" s="26"/>
-      <c r="O319" s="6"/>
+      <c r="O319" s="7"/>
     </row>
     <row r="320" spans="1:15">
       <c r="A320" s="18"/>
       <c r="N320" s="26"/>
-      <c r="O320" s="6"/>
+      <c r="O320" s="7"/>
     </row>
     <row r="321" spans="1:15">
       <c r="A321" s="18"/>
       <c r="N321" s="26"/>
-      <c r="O321" s="6"/>
+      <c r="O321" s="7"/>
     </row>
     <row r="322" spans="1:15">
       <c r="A322" s="18"/>
       <c r="N322" s="26"/>
-      <c r="O322" s="6"/>
+      <c r="O322" s="7"/>
     </row>
     <row r="323" spans="1:15">
       <c r="A323" s="18"/>
       <c r="N323" s="26"/>
-      <c r="O323" s="6"/>
+      <c r="O323" s="7"/>
     </row>
     <row r="324" spans="1:15">
       <c r="A324" s="18"/>
       <c r="N324" s="26"/>
-      <c r="O324" s="6"/>
+      <c r="O324" s="7"/>
     </row>
     <row r="325" spans="1:15">
       <c r="A325" s="18"/>
       <c r="N325" s="26"/>
-      <c r="O325" s="6"/>
+      <c r="O325" s="7"/>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" s="18"/>
       <c r="N326" s="26"/>
-      <c r="O326" s="6"/>
+      <c r="O326" s="7"/>
     </row>
     <row r="327" spans="1:15">
       <c r="A327" s="18"/>
       <c r="N327" s="26"/>
-      <c r="O327" s="6"/>
+      <c r="O327" s="7"/>
     </row>
     <row r="328" spans="1:15">
       <c r="A328" s="18"/>
       <c r="N328" s="26"/>
-      <c r="O328" s="6"/>
+      <c r="O328" s="7"/>
     </row>
     <row r="329" spans="1:15">
       <c r="A329" s="18"/>
       <c r="N329" s="26"/>
-      <c r="O329" s="6"/>
+      <c r="O329" s="7"/>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="18"/>
@@ -13645,10 +13691,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B199:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B200:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C199:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C200:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13677,13 +13723,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13694,7 +13740,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13705,7 +13751,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13716,7 +13762,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1393,6 +1393,9 @@
     <t>卞元海</t>
   </si>
   <si>
+    <t>老品牌</t>
+  </si>
+  <si>
     <t>悸动(闵行罗秀路店)</t>
   </si>
   <si>
@@ -1511,6 +1514,105 @@
   </si>
   <si>
     <t>0512-69881998</t>
+  </si>
+  <si>
+    <t>47周</t>
+  </si>
+  <si>
+    <t>悸动(长宁天山西路店)</t>
+  </si>
+  <si>
+    <t>蔡林燕</t>
+  </si>
+  <si>
+    <t>孝感</t>
+  </si>
+  <si>
+    <t>悸动(孝感文化路店)</t>
+  </si>
+  <si>
+    <t>李怡</t>
+  </si>
+  <si>
+    <t>悸动(奉贤大昌南路店)</t>
+  </si>
+  <si>
+    <t>陈丽英</t>
+  </si>
+  <si>
+    <t>悸动(晋江宝龙城市广场店)</t>
+  </si>
+  <si>
+    <t>张新春</t>
+  </si>
+  <si>
+    <t>悸动(嘉兴泾水路店)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 杨扬</t>
+  </si>
+  <si>
+    <t>悸动(青浦盈港路店)</t>
+  </si>
+  <si>
+    <t>李德秀</t>
+  </si>
+  <si>
+    <t>悸动(宝山龙湖北城天街店)</t>
+  </si>
+  <si>
+    <t>刘晓伟</t>
+  </si>
+  <si>
+    <t>悸动(杭州金海城店)</t>
+  </si>
+  <si>
+    <t>王思鹏</t>
+  </si>
+  <si>
+    <t>悸动(常州阳澄湖路店)</t>
+  </si>
+  <si>
+    <t>陈曙光</t>
+  </si>
+  <si>
+    <t>悸动(浦东云山路店)</t>
+  </si>
+  <si>
+    <t>钟晴</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>悸动(天津永旺购物中心店)</t>
+  </si>
+  <si>
+    <t>翟翎然</t>
+  </si>
+  <si>
+    <t>悸动(吉安庐陵商业街)</t>
+  </si>
+  <si>
+    <t>张兴</t>
+  </si>
+  <si>
+    <t>悸动(湖州练市商业城店)</t>
+  </si>
+  <si>
+    <t>赵兰</t>
+  </si>
+  <si>
+    <t>悸动(贤达外国语学院店)</t>
+  </si>
+  <si>
+    <t>沈洁</t>
+  </si>
+  <si>
+    <t>悸动(南京东虹屏路店)</t>
+  </si>
+  <si>
+    <t>魏贤萍</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1536,13 +1638,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1613,6 +1715,79 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -1629,7 +1804,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1642,60 +1817,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1716,45 +1842,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1772,6 +1874,13 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1832,54 +1941,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1904,6 +1965,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1922,49 +2073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,6 +2185,30 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -2177,19 +2310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2234,17 +2354,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2334,6 +2443,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2345,15 +2478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2373,32 +2497,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2412,13 +2517,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2437,10 +2546,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2449,149 +2558,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2727,55 +2836,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2787,22 +2914,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2814,10 +2941,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2826,34 +2953,34 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,16 +2998,16 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3228,440 +3355,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="M2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="49"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59">
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="87" t="e">
+      <c r="J3" s="92"/>
+      <c r="K3" s="93" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="88">
+      <c r="L3" s="94">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="89">
+      <c r="M3" s="95">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="90" t="e">
+      <c r="N3" s="96" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65">
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="66">
+      <c r="G4" s="72"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="87" t="e">
+      <c r="J4" s="97"/>
+      <c r="K4" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="88">
+      <c r="L4" s="94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="89">
+      <c r="M4" s="95">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="90" t="e">
+      <c r="N4" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65">
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="66">
+      <c r="G5" s="72"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="87" t="e">
+      <c r="J5" s="97"/>
+      <c r="K5" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="88">
+      <c r="L5" s="94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="89">
+      <c r="M5" s="95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="90" t="e">
+      <c r="N5" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65">
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="66">
+      <c r="G6" s="72"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="87" t="e">
+      <c r="J6" s="97"/>
+      <c r="K6" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="88">
+      <c r="L6" s="94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="89">
+      <c r="M6" s="95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="90" t="e">
+      <c r="N6" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65">
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="66">
+      <c r="G7" s="72"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="87" t="e">
+      <c r="J7" s="97"/>
+      <c r="K7" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="88">
+      <c r="L7" s="94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="89">
+      <c r="M7" s="95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="90" t="e">
+      <c r="N7" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65">
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="66">
+      <c r="G8" s="72"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="87" t="e">
+      <c r="J8" s="97"/>
+      <c r="K8" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="88">
+      <c r="L8" s="94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="89">
+      <c r="M8" s="95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="90" t="e">
+      <c r="N8" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65">
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="66">
+      <c r="G9" s="72"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="87" t="e">
+      <c r="J9" s="97"/>
+      <c r="K9" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="89">
+      <c r="M9" s="95">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="90" t="e">
+      <c r="N9" s="96" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="67" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70">
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="71">
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93" t="e">
+      <c r="J10" s="98"/>
+      <c r="K10" s="99" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="94">
+      <c r="L10" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="95">
+      <c r="M10" s="101">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="96" t="e">
+      <c r="N10" s="102" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="82">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="82">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="97" t="e">
+      <c r="K11" s="103" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="83">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="98" t="e">
+      <c r="N11" s="104" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3679,10 +3806,10 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L201" sqref="L201"/>
+      <selection pane="bottomLeft" activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7680,7 +7807,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="99" t="s">
+      <c r="N95" s="105" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -11362,7 +11489,7 @@
         <v>15851899046</v>
       </c>
       <c r="O180" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181" spans="1:15">
@@ -11386,7 +11513,7 @@
         <v>76103683</v>
       </c>
       <c r="H181" s="42" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I181" s="41" t="s">
         <v>43</v>
@@ -11398,7 +11525,7 @@
         <v>17721436606</v>
       </c>
       <c r="L181" s="46" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M181" s="41" t="s">
         <v>45</v>
@@ -11407,7 +11534,7 @@
         <v>18917398507</v>
       </c>
       <c r="O181" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -11431,7 +11558,7 @@
         <v>76106268</v>
       </c>
       <c r="H182" s="39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I182" s="41" t="s">
         <v>43</v>
@@ -11443,7 +11570,7 @@
         <v>17721436606</v>
       </c>
       <c r="L182" s="43" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M182" s="41" t="s">
         <v>45</v>
@@ -11452,7 +11579,7 @@
         <v>15057999044</v>
       </c>
       <c r="O182" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="183" spans="1:15">
@@ -11476,7 +11603,7 @@
         <v>76106175</v>
       </c>
       <c r="H183" s="39" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I183" s="41" t="s">
         <v>43</v>
@@ -11488,7 +11615,7 @@
         <v>17721436606</v>
       </c>
       <c r="L183" s="39" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M183" s="41" t="s">
         <v>45</v>
@@ -11497,7 +11624,7 @@
         <v>13814547010</v>
       </c>
       <c r="O183" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184" spans="1:15">
@@ -11521,7 +11648,7 @@
         <v>76078788</v>
       </c>
       <c r="H184" s="42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I184" s="41" t="s">
         <v>43</v>
@@ -11533,7 +11660,7 @@
         <v>17721436606</v>
       </c>
       <c r="L184" s="43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M184" s="41" t="s">
         <v>45</v>
@@ -11542,7 +11669,7 @@
         <v>15618523690</v>
       </c>
       <c r="O184" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="1:15">
@@ -11566,7 +11693,7 @@
         <v>76105953</v>
       </c>
       <c r="H185" s="39" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I185" s="41" t="s">
         <v>43</v>
@@ -11578,7 +11705,7 @@
         <v>17721436606</v>
       </c>
       <c r="L185" s="38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M185" s="41" t="s">
         <v>45</v>
@@ -11587,7 +11714,7 @@
         <v>15189740111</v>
       </c>
       <c r="O185" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="186" spans="1:15">
@@ -11611,7 +11738,7 @@
         <v>76087615</v>
       </c>
       <c r="H186" s="39" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I186" s="41" t="s">
         <v>43</v>
@@ -11623,7 +11750,7 @@
         <v>17721436606</v>
       </c>
       <c r="L186" s="43" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M186" s="41" t="s">
         <v>45</v>
@@ -11632,7 +11759,7 @@
         <v>15298339996</v>
       </c>
       <c r="O186" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="187" spans="1:15">
@@ -11650,13 +11777,13 @@
         <v>52</v>
       </c>
       <c r="F187" s="39" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G187" s="39">
         <v>76105508</v>
       </c>
       <c r="H187" s="39" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I187" s="41" t="s">
         <v>43</v>
@@ -11668,7 +11795,7 @@
         <v>17721436606</v>
       </c>
       <c r="L187" s="46" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M187" s="41" t="s">
         <v>45</v>
@@ -11677,7 +11804,7 @@
         <v>15726283872</v>
       </c>
       <c r="O187" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="188" spans="1:15">
@@ -11701,7 +11828,7 @@
         <v>76105323</v>
       </c>
       <c r="H188" s="39" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I188" s="41" t="s">
         <v>43</v>
@@ -11713,7 +11840,7 @@
         <v>17721436606</v>
       </c>
       <c r="L188" s="39" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M188" s="41" t="s">
         <v>45</v>
@@ -11722,7 +11849,7 @@
         <v>18701775826</v>
       </c>
       <c r="O188" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="189" spans="1:15">
@@ -11746,7 +11873,7 @@
         <v>76105578</v>
       </c>
       <c r="H189" s="39" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I189" s="41" t="s">
         <v>43</v>
@@ -11758,7 +11885,7 @@
         <v>17721436606</v>
       </c>
       <c r="L189" s="38" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M189" s="41" t="s">
         <v>45</v>
@@ -11767,7 +11894,7 @@
         <v>13661533442</v>
       </c>
       <c r="O189" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="190" spans="1:15">
@@ -11791,7 +11918,7 @@
         <v>76106131</v>
       </c>
       <c r="H190" s="39" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I190" s="41" t="s">
         <v>43</v>
@@ -11803,7 +11930,7 @@
         <v>17721436606</v>
       </c>
       <c r="L190" s="39" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M190" s="41" t="s">
         <v>45</v>
@@ -11812,7 +11939,7 @@
         <v>13813557044</v>
       </c>
       <c r="O190" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="191" spans="1:15">
@@ -11836,7 +11963,7 @@
         <v>76099661</v>
       </c>
       <c r="H191" s="39" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I191" s="41" t="s">
         <v>43</v>
@@ -11848,7 +11975,7 @@
         <v>17721436606</v>
       </c>
       <c r="L191" s="39" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M191" s="41" t="s">
         <v>45</v>
@@ -11857,7 +11984,7 @@
         <v>13671677897</v>
       </c>
       <c r="O191" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="192" spans="1:15">
@@ -11881,7 +12008,7 @@
         <v>76101937</v>
       </c>
       <c r="H192" s="42" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I192" s="41" t="s">
         <v>43</v>
@@ -11893,7 +12020,7 @@
         <v>17721436606</v>
       </c>
       <c r="L192" s="43" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M192" s="41" t="s">
         <v>45</v>
@@ -11902,7 +12029,7 @@
         <v>18115600561</v>
       </c>
       <c r="O192" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="193" spans="1:15">
@@ -11926,7 +12053,7 @@
         <v>76108189</v>
       </c>
       <c r="H193" s="39" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I193" s="41" t="s">
         <v>43</v>
@@ -11938,7 +12065,7 @@
         <v>17721436606</v>
       </c>
       <c r="L193" s="39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M193" s="41" t="s">
         <v>45</v>
@@ -11947,7 +12074,7 @@
         <v>13986052837</v>
       </c>
       <c r="O193" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194" spans="1:15">
@@ -11971,7 +12098,7 @@
         <v>76108187</v>
       </c>
       <c r="H194" s="42" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I194" s="41" t="s">
         <v>43</v>
@@ -11983,7 +12110,7 @@
         <v>17721436606</v>
       </c>
       <c r="L194" s="39" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M194" s="41" t="s">
         <v>45</v>
@@ -11992,7 +12119,7 @@
         <v>13761097276</v>
       </c>
       <c r="O194" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="195" spans="1:15">
@@ -12016,7 +12143,7 @@
         <v>76108196</v>
       </c>
       <c r="H195" s="42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I195" s="41" t="s">
         <v>43</v>
@@ -12028,7 +12155,7 @@
         <v>17721436606</v>
       </c>
       <c r="L195" s="39" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M195" s="41" t="s">
         <v>45</v>
@@ -12037,7 +12164,7 @@
         <v>13501863833</v>
       </c>
       <c r="O195" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="196" spans="1:15">
@@ -12061,7 +12188,7 @@
         <v>76108636</v>
       </c>
       <c r="H196" s="42" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I196" s="41" t="s">
         <v>43</v>
@@ -12073,7 +12200,7 @@
         <v>17721436606</v>
       </c>
       <c r="L196" s="39" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M196" s="41" t="s">
         <v>45</v>
@@ -12082,7 +12209,7 @@
         <v>18706118030</v>
       </c>
       <c r="O196" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="197" spans="1:15">
@@ -12100,7 +12227,7 @@
         <v>52</v>
       </c>
       <c r="F197" s="39" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G197" s="39">
         <v>76093718</v>
@@ -12118,7 +12245,7 @@
         <v>17721436606</v>
       </c>
       <c r="L197" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M197" s="41" t="s">
         <v>45</v>
@@ -12127,7 +12254,7 @@
         <v>18457988858</v>
       </c>
       <c r="O197" s="41" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
     </row>
     <row r="198" spans="1:15">
@@ -12142,7 +12269,7 @@
         <v>135</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>43</v>
@@ -12151,7 +12278,7 @@
         <v>76108207</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I198" s="41" t="s">
         <v>43</v>
@@ -12163,7 +12290,7 @@
         <v>17721436606</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M198" s="7" t="s">
         <v>371</v>
@@ -12171,8 +12298,8 @@
       <c r="N198" s="26">
         <v>18016233560</v>
       </c>
-      <c r="O198" s="7" t="s">
-        <v>173</v>
+      <c r="O198" s="41" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="199" s="5" customFormat="1" spans="1:15">
@@ -12196,7 +12323,7 @@
         <v>76102029</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I199" s="12" t="s">
         <v>43</v>
@@ -12214,121 +12341,751 @@
         <v>51</v>
       </c>
       <c r="N199" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="O199" s="12" t="s">
-        <v>173</v>
+        <v>490</v>
+      </c>
+      <c r="O199" s="41" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="18"/>
       <c r="N200" s="26"/>
-      <c r="O200" s="7"/>
+      <c r="O200" s="41"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="18"/>
-      <c r="N201" s="26"/>
-      <c r="O201" s="7"/>
+      <c r="A201" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="B201" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C201" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D201" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E201" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F201" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G201" s="48">
+        <v>76109355</v>
+      </c>
+      <c r="H201" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="I201" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J201" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K201" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L201" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="M201" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N201" s="48">
+        <v>18101920825</v>
+      </c>
+      <c r="O201" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="18"/>
-      <c r="N202" s="26"/>
-      <c r="O202" s="7"/>
+      <c r="A202" s="49"/>
+      <c r="B202" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C202" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D202" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E202" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F202" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="G202" s="48">
+        <v>76109282</v>
+      </c>
+      <c r="H202" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="I202" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J202" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K202" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L202" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="M202" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N202" s="48">
+        <v>13797135055</v>
+      </c>
+      <c r="O202" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="18"/>
-      <c r="N203" s="26"/>
-      <c r="O203" s="7"/>
+      <c r="A203" s="49"/>
+      <c r="B203" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C203" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D203" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E203" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F203" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G203" s="48">
+        <v>76109125</v>
+      </c>
+      <c r="H203" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="I203" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J203" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K203" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L203" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="M203" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N203" s="48">
+        <v>13817697556</v>
+      </c>
+      <c r="O203" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="18"/>
-      <c r="N204" s="26"/>
-      <c r="O204" s="7"/>
+      <c r="A204" s="49"/>
+      <c r="B204" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C204" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D204" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E204" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F204" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="G204" s="48">
+        <v>76108852</v>
+      </c>
+      <c r="H204" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="I204" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J204" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K204" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L204" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="M204" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N204" s="48">
+        <v>13813208418</v>
+      </c>
+      <c r="O204" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="18"/>
-      <c r="N205" s="26"/>
-      <c r="O205" s="7"/>
+      <c r="A205" s="49"/>
+      <c r="B205" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C205" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D205" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E205" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F205" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G205" s="48">
+        <v>76108722</v>
+      </c>
+      <c r="H205" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="I205" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J205" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K205" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L205" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="M205" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N205" s="48">
+        <v>13957375306</v>
+      </c>
+      <c r="O205" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="18"/>
-      <c r="N206" s="26"/>
-      <c r="O206" s="7"/>
+      <c r="A206" s="49"/>
+      <c r="B206" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C206" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D206" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E206" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F206" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G206" s="48">
+        <v>76108830</v>
+      </c>
+      <c r="H206" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="I206" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J206" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K206" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L206" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="M206" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N206" s="48">
+        <v>13564627898</v>
+      </c>
+      <c r="O206" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="18"/>
-      <c r="N207" s="26"/>
-      <c r="O207" s="7"/>
+      <c r="A207" s="49"/>
+      <c r="B207" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C207" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D207" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E207" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F207" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G207" s="48">
+        <v>76078016</v>
+      </c>
+      <c r="H207" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="I207" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J207" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K207" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L207" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="M207" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N207" s="48">
+        <v>13818847791</v>
+      </c>
+      <c r="O207" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="18"/>
-      <c r="N208" s="26"/>
-      <c r="O208" s="7"/>
+      <c r="A208" s="49"/>
+      <c r="B208" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C208" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D208" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E208" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F208" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G208" s="48">
+        <v>76107261</v>
+      </c>
+      <c r="H208" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="I208" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J208" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K208" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L208" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="M208" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N208" s="48">
+        <v>18969029778</v>
+      </c>
+      <c r="O208" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="18"/>
-      <c r="N209" s="26"/>
-      <c r="O209" s="7"/>
+      <c r="A209" s="49"/>
+      <c r="B209" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C209" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D209" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E209" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F209" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="G209" s="48">
+        <v>76106757</v>
+      </c>
+      <c r="H209" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="I209" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J209" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K209" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L209" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="M209" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N209" s="48">
+        <v>13401360033</v>
+      </c>
+      <c r="O209" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="18"/>
-      <c r="N210" s="26"/>
-      <c r="O210" s="7"/>
+      <c r="A210" s="49"/>
+      <c r="B210" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C210" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D210" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E210" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F210" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G210" s="48">
+        <v>76109690</v>
+      </c>
+      <c r="H210" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="I210" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J210" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K210" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L210" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="M210" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N210" s="48">
+        <v>17321160037</v>
+      </c>
+      <c r="O210" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="18"/>
-      <c r="N211" s="26"/>
-      <c r="O211" s="7"/>
+      <c r="A211" s="49"/>
+      <c r="B211" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C211" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D211" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E211" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F211" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="G211" s="48">
+        <v>76103156</v>
+      </c>
+      <c r="H211" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="I211" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J211" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K211" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L211" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="M211" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N211" s="48">
+        <v>18502221900</v>
+      </c>
+      <c r="O211" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="18"/>
-      <c r="N212" s="26"/>
-      <c r="O212" s="7"/>
+      <c r="A212" s="49"/>
+      <c r="B212" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C212" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D212" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E212" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F212" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G212" s="48">
+        <v>76091385</v>
+      </c>
+      <c r="H212" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="I212" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J212" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K212" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L212" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="M212" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N212" s="48">
+        <v>15180424364</v>
+      </c>
+      <c r="O212" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="18"/>
-      <c r="N213" s="26"/>
-      <c r="O213" s="7"/>
+      <c r="A213" s="49"/>
+      <c r="B213" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C213" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D213" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E213" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F213" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="G213" s="48">
+        <v>76108185</v>
+      </c>
+      <c r="H213" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="I213" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J213" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K213" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L213" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="M213" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N213" s="48">
+        <v>15906823676</v>
+      </c>
+      <c r="O213" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="18"/>
-      <c r="N214" s="26"/>
-      <c r="O214" s="7"/>
+      <c r="A214" s="49"/>
+      <c r="B214" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C214" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D214" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E214" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F214" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G214" s="48">
+        <v>76109725</v>
+      </c>
+      <c r="H214" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="I214" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J214" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K214" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L214" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="M214" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N214" s="48">
+        <v>18201889103</v>
+      </c>
+      <c r="O214" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="18"/>
-      <c r="N215" s="26"/>
-      <c r="O215" s="7"/>
+      <c r="A215" s="50"/>
+      <c r="B215" s="32">
+        <v>43059</v>
+      </c>
+      <c r="C215" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D215" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E215" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F215" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G215" s="48">
+        <v>76109788</v>
+      </c>
+      <c r="H215" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="I215" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J215" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K215" s="51">
+        <v>17721436606</v>
+      </c>
+      <c r="L215" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="M215" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N215" s="48">
+        <v>13621598071</v>
+      </c>
+      <c r="O215" s="51" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="18"/>
+      <c r="B216" s="32"/>
+      <c r="C216" s="41"/>
+      <c r="D216" s="41"/>
+      <c r="E216" s="41"/>
+      <c r="I216" s="41"/>
+      <c r="J216" s="39"/>
+      <c r="K216" s="41"/>
       <c r="N216" s="26"/>
-      <c r="O216" s="7"/>
+      <c r="O216" s="41"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="18"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="41"/>
+      <c r="D217" s="41"/>
+      <c r="E217" s="41"/>
+      <c r="I217" s="41"/>
+      <c r="J217" s="39"/>
+      <c r="K217" s="41"/>
       <c r="N217" s="26"/>
-      <c r="O217" s="7"/>
+      <c r="O217" s="41"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="18"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="41"/>
+      <c r="D218" s="41"/>
+      <c r="E218" s="41"/>
+      <c r="I218" s="41"/>
+      <c r="J218" s="39"/>
+      <c r="K218" s="41"/>
       <c r="N218" s="26"/>
-      <c r="O218" s="7"/>
+      <c r="O218" s="41"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="18"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="41"/>
+      <c r="D219" s="41"/>
+      <c r="E219" s="41"/>
+      <c r="I219" s="41"/>
+      <c r="J219" s="39"/>
+      <c r="K219" s="41"/>
       <c r="N219" s="26"/>
-      <c r="O219" s="7"/>
+      <c r="O219" s="41"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="18"/>
       <c r="N220" s="26"/>
-      <c r="O220" s="7"/>
+      <c r="O220" s="41"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="18"/>
       <c r="N221" s="26"/>
-      <c r="O221" s="7"/>
+      <c r="O221" s="41"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="18"/>
@@ -13690,11 +14447,14 @@
       <c r="A602" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A201:A215"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B200:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B219 B220:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C200:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C219 C220:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13723,13 +14483,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13740,7 +14500,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13751,7 +14511,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13762,7 +14522,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1631,6 +1631,9 @@
   </si>
   <si>
     <t>捞王锅物料理(杭州龙湖店)上线</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(苏州中心店)上线</t>
   </si>
 </sst>
 </file>
@@ -1638,11 +1641,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1722,36 +1725,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1817,6 +1792,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,27 +1873,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1874,13 +1884,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1941,30 +1944,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2019,12 +1998,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2068,6 +2041,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,16 +2446,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2468,21 +2471,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2493,6 +2481,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2517,21 +2535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2546,10 +2549,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2558,149 +2561,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2839,19 +2842,10 @@
     <xf numFmtId="176" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3355,440 +3349,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="55"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65">
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66">
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93" t="e">
+      <c r="J3" s="89"/>
+      <c r="K3" s="90" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="94">
+      <c r="L3" s="91">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="95">
+      <c r="M3" s="92">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="96" t="e">
+      <c r="N3" s="93" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71">
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="72">
+      <c r="G4" s="69"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="93" t="e">
+      <c r="J4" s="94"/>
+      <c r="K4" s="90" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="94">
+      <c r="L4" s="91">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="95">
+      <c r="M4" s="92">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="96" t="e">
+      <c r="N4" s="93" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71">
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="72">
+      <c r="G5" s="69"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="93" t="e">
+      <c r="J5" s="94"/>
+      <c r="K5" s="90" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="94">
+      <c r="L5" s="91">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="95">
+      <c r="M5" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="96" t="e">
+      <c r="N5" s="93" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71">
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="72">
+      <c r="G6" s="69"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="93" t="e">
+      <c r="J6" s="94"/>
+      <c r="K6" s="90" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="94">
+      <c r="L6" s="91">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="95">
+      <c r="M6" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="96" t="e">
+      <c r="N6" s="93" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="72">
+      <c r="G7" s="69"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="93" t="e">
+      <c r="J7" s="94"/>
+      <c r="K7" s="90" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="94">
+      <c r="L7" s="91">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="95">
+      <c r="M7" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="96" t="e">
+      <c r="N7" s="93" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71">
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="72">
+      <c r="G8" s="69"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="93" t="e">
+      <c r="J8" s="94"/>
+      <c r="K8" s="90" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="94">
+      <c r="L8" s="91">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="95">
+      <c r="M8" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="96" t="e">
+      <c r="N8" s="93" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71">
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="72">
+      <c r="G9" s="69"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="97"/>
-      <c r="K9" s="93" t="e">
+      <c r="J9" s="94"/>
+      <c r="K9" s="90" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="94">
+      <c r="L9" s="91">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="95">
+      <c r="M9" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="96" t="e">
+      <c r="N9" s="93" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="73" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76">
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="77">
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99" t="e">
+      <c r="J10" s="95"/>
+      <c r="K10" s="96" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="100">
+      <c r="L10" s="97">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="102" t="e">
+      <c r="N10" s="99" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="79">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="79">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="79">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="79">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="82">
+      <c r="J11" s="79">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="103" t="e">
+      <c r="K11" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="83">
+      <c r="L11" s="80">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="83">
+      <c r="M11" s="80">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="104" t="e">
+      <c r="N11" s="101" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3806,7 +3800,7 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D217" sqref="D217"/>
@@ -7807,7 +7801,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="105" t="s">
+      <c r="N95" s="102" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -12368,39 +12362,39 @@
       <c r="E201" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F201" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G201" s="48">
+      <c r="F201" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G201" s="13">
         <v>76109355</v>
       </c>
-      <c r="H201" s="48" t="s">
+      <c r="H201" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="I201" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J201" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K201" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L201" s="48" t="s">
+      <c r="I201" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J201" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K201" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L201" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="M201" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N201" s="48">
+      <c r="M201" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N201" s="13">
         <v>18101920825</v>
       </c>
-      <c r="O201" s="51" t="s">
+      <c r="O201" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="49"/>
+      <c r="A202" s="48"/>
       <c r="B202" s="32">
         <v>43059</v>
       </c>
@@ -12413,39 +12407,39 @@
       <c r="E202" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F202" s="48" t="s">
+      <c r="F202" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="G202" s="48">
+      <c r="G202" s="13">
         <v>76109282</v>
       </c>
-      <c r="H202" s="48" t="s">
+      <c r="H202" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="I202" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J202" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K202" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L202" s="48" t="s">
+      <c r="I202" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J202" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K202" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L202" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="M202" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N202" s="48">
+      <c r="M202" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N202" s="13">
         <v>13797135055</v>
       </c>
-      <c r="O202" s="51" t="s">
+      <c r="O202" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="49"/>
+      <c r="A203" s="48"/>
       <c r="B203" s="32">
         <v>43059</v>
       </c>
@@ -12458,39 +12452,39 @@
       <c r="E203" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F203" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G203" s="48">
+      <c r="F203" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G203" s="13">
         <v>76109125</v>
       </c>
-      <c r="H203" s="48" t="s">
+      <c r="H203" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="I203" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J203" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K203" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L203" s="48" t="s">
+      <c r="I203" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J203" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K203" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L203" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="M203" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N203" s="48">
+      <c r="M203" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N203" s="13">
         <v>13817697556</v>
       </c>
-      <c r="O203" s="51" t="s">
+      <c r="O203" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="49"/>
+      <c r="A204" s="48"/>
       <c r="B204" s="32">
         <v>43059</v>
       </c>
@@ -12503,39 +12497,39 @@
       <c r="E204" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F204" s="48" t="s">
+      <c r="F204" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="G204" s="48">
+      <c r="G204" s="13">
         <v>76108852</v>
       </c>
-      <c r="H204" s="48" t="s">
+      <c r="H204" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="I204" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J204" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K204" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L204" s="48" t="s">
+      <c r="I204" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J204" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K204" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L204" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="M204" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N204" s="48">
+      <c r="M204" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N204" s="13">
         <v>13813208418</v>
       </c>
-      <c r="O204" s="51" t="s">
+      <c r="O204" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="49"/>
+      <c r="A205" s="48"/>
       <c r="B205" s="32">
         <v>43059</v>
       </c>
@@ -12548,39 +12542,39 @@
       <c r="E205" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F205" s="48" t="s">
+      <c r="F205" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G205" s="48">
+      <c r="G205" s="13">
         <v>76108722</v>
       </c>
-      <c r="H205" s="48" t="s">
+      <c r="H205" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="I205" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J205" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K205" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L205" s="48" t="s">
+      <c r="I205" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J205" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K205" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L205" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="M205" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N205" s="48">
+      <c r="M205" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N205" s="13">
         <v>13957375306</v>
       </c>
-      <c r="O205" s="51" t="s">
+      <c r="O205" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="49"/>
+      <c r="A206" s="48"/>
       <c r="B206" s="32">
         <v>43059</v>
       </c>
@@ -12593,39 +12587,39 @@
       <c r="E206" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F206" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G206" s="48">
+      <c r="F206" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G206" s="13">
         <v>76108830</v>
       </c>
-      <c r="H206" s="48" t="s">
+      <c r="H206" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="I206" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J206" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K206" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L206" s="48" t="s">
+      <c r="I206" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J206" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K206" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L206" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="M206" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N206" s="48">
+      <c r="M206" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N206" s="13">
         <v>13564627898</v>
       </c>
-      <c r="O206" s="51" t="s">
+      <c r="O206" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="49"/>
+      <c r="A207" s="48"/>
       <c r="B207" s="32">
         <v>43059</v>
       </c>
@@ -12638,39 +12632,39 @@
       <c r="E207" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F207" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G207" s="48">
+      <c r="F207" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G207" s="13">
         <v>76078016</v>
       </c>
-      <c r="H207" s="48" t="s">
+      <c r="H207" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="I207" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J207" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K207" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L207" s="48" t="s">
+      <c r="I207" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J207" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K207" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L207" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="M207" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N207" s="48">
+      <c r="M207" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N207" s="13">
         <v>13818847791</v>
       </c>
-      <c r="O207" s="51" t="s">
+      <c r="O207" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="49"/>
+      <c r="A208" s="48"/>
       <c r="B208" s="32">
         <v>43059</v>
       </c>
@@ -12683,39 +12677,39 @@
       <c r="E208" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F208" s="48" t="s">
+      <c r="F208" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G208" s="48">
+      <c r="G208" s="13">
         <v>76107261</v>
       </c>
-      <c r="H208" s="48" t="s">
+      <c r="H208" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="I208" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J208" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K208" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L208" s="48" t="s">
+      <c r="I208" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J208" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K208" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L208" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="M208" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N208" s="48">
+      <c r="M208" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N208" s="13">
         <v>18969029778</v>
       </c>
-      <c r="O208" s="51" t="s">
+      <c r="O208" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="49"/>
+      <c r="A209" s="48"/>
       <c r="B209" s="32">
         <v>43059</v>
       </c>
@@ -12728,39 +12722,39 @@
       <c r="E209" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F209" s="48" t="s">
+      <c r="F209" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G209" s="48">
+      <c r="G209" s="13">
         <v>76106757</v>
       </c>
-      <c r="H209" s="48" t="s">
+      <c r="H209" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="I209" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J209" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K209" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L209" s="48" t="s">
+      <c r="I209" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J209" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K209" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L209" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="M209" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N209" s="48">
+      <c r="M209" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N209" s="13">
         <v>13401360033</v>
       </c>
-      <c r="O209" s="51" t="s">
+      <c r="O209" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="49"/>
+      <c r="A210" s="48"/>
       <c r="B210" s="32">
         <v>43059</v>
       </c>
@@ -12773,39 +12767,39 @@
       <c r="E210" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F210" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G210" s="48">
+      <c r="F210" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G210" s="13">
         <v>76109690</v>
       </c>
-      <c r="H210" s="48" t="s">
+      <c r="H210" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="I210" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J210" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K210" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L210" s="48" t="s">
+      <c r="I210" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J210" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K210" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L210" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="M210" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N210" s="48">
+      <c r="M210" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N210" s="13">
         <v>17321160037</v>
       </c>
-      <c r="O210" s="51" t="s">
+      <c r="O210" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="49"/>
+      <c r="A211" s="48"/>
       <c r="B211" s="32">
         <v>43059</v>
       </c>
@@ -12818,39 +12812,39 @@
       <c r="E211" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F211" s="48" t="s">
+      <c r="F211" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="G211" s="48">
+      <c r="G211" s="13">
         <v>76103156</v>
       </c>
-      <c r="H211" s="48" t="s">
+      <c r="H211" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="I211" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J211" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K211" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L211" s="48" t="s">
+      <c r="I211" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J211" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K211" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L211" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="M211" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N211" s="48">
+      <c r="M211" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N211" s="13">
         <v>18502221900</v>
       </c>
-      <c r="O211" s="51" t="s">
+      <c r="O211" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="49"/>
+      <c r="A212" s="48"/>
       <c r="B212" s="32">
         <v>43059</v>
       </c>
@@ -12863,39 +12857,39 @@
       <c r="E212" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F212" s="48" t="s">
+      <c r="F212" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G212" s="48">
+      <c r="G212" s="13">
         <v>76091385</v>
       </c>
-      <c r="H212" s="48" t="s">
+      <c r="H212" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="I212" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J212" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K212" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L212" s="48" t="s">
+      <c r="I212" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J212" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K212" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L212" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="M212" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N212" s="48">
+      <c r="M212" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N212" s="13">
         <v>15180424364</v>
       </c>
-      <c r="O212" s="51" t="s">
+      <c r="O212" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="49"/>
+      <c r="A213" s="48"/>
       <c r="B213" s="32">
         <v>43059</v>
       </c>
@@ -12908,39 +12902,39 @@
       <c r="E213" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F213" s="48" t="s">
+      <c r="F213" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="G213" s="48">
+      <c r="G213" s="13">
         <v>76108185</v>
       </c>
-      <c r="H213" s="48" t="s">
+      <c r="H213" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="I213" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J213" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K213" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L213" s="48" t="s">
+      <c r="I213" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J213" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K213" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L213" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="M213" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N213" s="48">
+      <c r="M213" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N213" s="13">
         <v>15906823676</v>
       </c>
-      <c r="O213" s="51" t="s">
+      <c r="O213" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="49"/>
+      <c r="A214" s="48"/>
       <c r="B214" s="32">
         <v>43059</v>
       </c>
@@ -12953,39 +12947,39 @@
       <c r="E214" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F214" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G214" s="48">
+      <c r="F214" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G214" s="13">
         <v>76109725</v>
       </c>
-      <c r="H214" s="48" t="s">
+      <c r="H214" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="I214" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J214" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K214" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L214" s="48" t="s">
+      <c r="I214" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J214" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K214" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L214" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="M214" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N214" s="48">
+      <c r="M214" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N214" s="13">
         <v>18201889103</v>
       </c>
-      <c r="O214" s="51" t="s">
+      <c r="O214" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="50"/>
+      <c r="A215" s="49"/>
       <c r="B215" s="32">
         <v>43059</v>
       </c>
@@ -12998,34 +12992,34 @@
       <c r="E215" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F215" s="48" t="s">
+      <c r="F215" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G215" s="48">
+      <c r="G215" s="13">
         <v>76109788</v>
       </c>
-      <c r="H215" s="48" t="s">
+      <c r="H215" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="I215" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J215" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K215" s="51">
-        <v>17721436606</v>
-      </c>
-      <c r="L215" s="48" t="s">
+      <c r="I215" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J215" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K215" s="41">
+        <v>17721436606</v>
+      </c>
+      <c r="L215" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="M215" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="N215" s="48">
+      <c r="M215" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N215" s="13">
         <v>13621598071</v>
       </c>
-      <c r="O215" s="51" t="s">
+      <c r="O215" s="41" t="s">
         <v>450</v>
       </c>
     </row>
@@ -14470,8 +14464,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -14531,14 +14525,26 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43050</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43064</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1613,6 +1613,81 @@
   </si>
   <si>
     <t>魏贤萍</t>
+  </si>
+  <si>
+    <t>48周</t>
+  </si>
+  <si>
+    <t>大连</t>
+  </si>
+  <si>
+    <t>一芳(大连友好街店)</t>
+  </si>
+  <si>
+    <t>韩旭</t>
+  </si>
+  <si>
+    <t>一芳(上海松江万达店)</t>
+  </si>
+  <si>
+    <t>申先生</t>
+  </si>
+  <si>
+    <t>一芳(上海宝山第一坊店)</t>
+  </si>
+  <si>
+    <t>闵吉</t>
+  </si>
+  <si>
+    <t>一芳(武汉永旺店)</t>
+  </si>
+  <si>
+    <t>吴敏</t>
+  </si>
+  <si>
+    <t>15927549363‬</t>
+  </si>
+  <si>
+    <t>一芳(上海灵石路店)</t>
+  </si>
+  <si>
+    <t>杨艳 / 陈博文</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>一芳(广东惠州状元坊店)</t>
+  </si>
+  <si>
+    <t>方子滔/李中政</t>
+  </si>
+  <si>
+    <t>一芳(合肥银泰店)</t>
+  </si>
+  <si>
+    <t>郑恩定</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>一芳(郑州丹尼斯店)</t>
+  </si>
+  <si>
+    <t>张健</t>
+  </si>
+  <si>
+    <t>一芳(上海临平路店)</t>
+  </si>
+  <si>
+    <t>郑晓凤</t>
+  </si>
+  <si>
+    <t>一芳(合肥天珑广场店)</t>
+  </si>
+  <si>
+    <t>苏海燕</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1642,12 +1717,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,15 +1801,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1756,26 +1896,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1786,21 +1918,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1818,72 +1961,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1944,7 +2025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,7 +2037,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1968,145 +2181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2447,6 +2528,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2470,32 +2581,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2517,6 +2607,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2525,34 +2624,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2561,149 +2642,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,6 +2927,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3349,440 +3451,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="52"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62">
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63">
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90" t="e">
+      <c r="J3" s="96"/>
+      <c r="K3" s="97" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="91">
+      <c r="L3" s="98">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="92">
+      <c r="M3" s="99">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="93" t="e">
+      <c r="N3" s="100" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68">
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="69">
+      <c r="G4" s="76"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="90" t="e">
+      <c r="J4" s="101"/>
+      <c r="K4" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="91">
+      <c r="L4" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="92">
+      <c r="M4" s="99">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="93" t="e">
+      <c r="N4" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68">
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="69">
+      <c r="G5" s="76"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="90" t="e">
+      <c r="J5" s="101"/>
+      <c r="K5" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="91">
+      <c r="L5" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="92">
+      <c r="M5" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="93" t="e">
+      <c r="N5" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68">
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="69">
+      <c r="G6" s="76"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="90" t="e">
+      <c r="J6" s="101"/>
+      <c r="K6" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="91">
+      <c r="L6" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="92">
+      <c r="M6" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="93" t="e">
+      <c r="N6" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68">
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="69">
+      <c r="G7" s="76"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="90" t="e">
+      <c r="J7" s="101"/>
+      <c r="K7" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="91">
+      <c r="L7" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="92">
+      <c r="M7" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="93" t="e">
+      <c r="N7" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68">
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="69">
+      <c r="G8" s="76"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="90" t="e">
+      <c r="J8" s="101"/>
+      <c r="K8" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="91">
+      <c r="L8" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="92">
+      <c r="M8" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="93" t="e">
+      <c r="N8" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68">
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="69">
+      <c r="G9" s="76"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="90" t="e">
+      <c r="J9" s="101"/>
+      <c r="K9" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="91">
+      <c r="L9" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="92">
+      <c r="M9" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="93" t="e">
+      <c r="N9" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="70" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73">
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="74">
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96" t="e">
+      <c r="J10" s="102"/>
+      <c r="K10" s="103" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="97">
+      <c r="L10" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="98">
+      <c r="M10" s="105">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="99" t="e">
+      <c r="N10" s="106" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="86">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="80">
+      <c r="I11" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="86">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="100" t="e">
+      <c r="K11" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="80">
+      <c r="L11" s="87">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="80">
+      <c r="M11" s="87">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="101" t="e">
+      <c r="N11" s="108" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3800,10 +3902,10 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D217" sqref="D217"/>
+      <selection pane="bottomLeft" activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7801,7 +7903,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="102" t="s">
+      <c r="N95" s="109" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -13036,75 +13138,456 @@
       <c r="O216" s="41"/>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="18"/>
-      <c r="B217" s="32"/>
-      <c r="C217" s="41"/>
-      <c r="D217" s="41"/>
-      <c r="E217" s="41"/>
-      <c r="I217" s="41"/>
-      <c r="J217" s="39"/>
-      <c r="K217" s="41"/>
-      <c r="N217" s="26"/>
-      <c r="O217" s="41"/>
+      <c r="A217" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="B217" s="32">
+        <v>43069</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F217" s="51" t="s">
+        <v>525</v>
+      </c>
+      <c r="G217" s="51">
+        <v>76105618</v>
+      </c>
+      <c r="H217" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="I217" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J217" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K217" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L217" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="M217" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N217" s="51">
+        <v>15804263007</v>
+      </c>
+      <c r="O217" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="218" spans="1:15">
-      <c r="A218" s="18"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="41"/>
-      <c r="D218" s="41"/>
-      <c r="E218" s="41"/>
-      <c r="I218" s="41"/>
-      <c r="J218" s="39"/>
-      <c r="K218" s="41"/>
-      <c r="N218" s="26"/>
-      <c r="O218" s="41"/>
+      <c r="A218" s="52"/>
+      <c r="B218" s="32">
+        <v>43069</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F218" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G218" s="51">
+        <v>76111099</v>
+      </c>
+      <c r="H218" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="I218" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J218" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K218" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L218" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="M218" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N218" s="53">
+        <v>17802152313</v>
+      </c>
+      <c r="O218" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="18"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="41"/>
-      <c r="D219" s="41"/>
-      <c r="E219" s="41"/>
-      <c r="I219" s="41"/>
-      <c r="J219" s="39"/>
-      <c r="K219" s="41"/>
-      <c r="N219" s="26"/>
-      <c r="O219" s="41"/>
+      <c r="A219" s="52"/>
+      <c r="B219" s="32">
+        <v>43069</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F219" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G219" s="51">
+        <v>76111102</v>
+      </c>
+      <c r="H219" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="I219" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J219" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K219" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L219" s="51" t="s">
+        <v>531</v>
+      </c>
+      <c r="M219" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N219" s="51">
+        <v>15800655562</v>
+      </c>
+      <c r="O219" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="220" spans="1:15">
-      <c r="A220" s="18"/>
-      <c r="N220" s="26"/>
-      <c r="O220" s="41"/>
+      <c r="A220" s="52"/>
+      <c r="B220" s="32">
+        <v>43069</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F220" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G220" s="51">
+        <v>76111103</v>
+      </c>
+      <c r="H220" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="I220" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J220" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K220" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L220" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="M220" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N220" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="O220" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="18"/>
-      <c r="N221" s="26"/>
-      <c r="O221" s="41"/>
+      <c r="A221" s="52"/>
+      <c r="B221" s="32">
+        <v>43069</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F221" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G221" s="51">
+        <v>76111881</v>
+      </c>
+      <c r="H221" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="I221" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J221" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K221" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L221" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="M221" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N221" s="51">
+        <v>13120837062</v>
+      </c>
+      <c r="O221" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="18"/>
-      <c r="N222" s="26"/>
-      <c r="O222" s="7"/>
+      <c r="A222" s="52"/>
+      <c r="B222" s="32">
+        <v>43069</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F222" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="G222" s="53">
+        <v>76111880</v>
+      </c>
+      <c r="H222" s="53" t="s">
+        <v>538</v>
+      </c>
+      <c r="I222" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J222" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K222" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L222" s="51" t="s">
+        <v>539</v>
+      </c>
+      <c r="M222" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N222" s="51">
+        <v>18802620166</v>
+      </c>
+      <c r="O222" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="18"/>
-      <c r="N223" s="26"/>
-      <c r="O223" s="7"/>
+      <c r="A223" s="52"/>
+      <c r="B223" s="32">
+        <v>43069</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F223" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G223" s="53">
+        <v>76107522</v>
+      </c>
+      <c r="H223" s="53" t="s">
+        <v>540</v>
+      </c>
+      <c r="I223" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J223" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K223" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L223" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="M223" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N223" s="51">
+        <v>13739261309</v>
+      </c>
+      <c r="O223" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="224" spans="1:15">
-      <c r="A224" s="18"/>
-      <c r="N224" s="26"/>
-      <c r="O224" s="7"/>
+      <c r="A224" s="52"/>
+      <c r="B224" s="32">
+        <v>43069</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F224" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="G224" s="53">
+        <v>76106008</v>
+      </c>
+      <c r="H224" s="53" t="s">
+        <v>543</v>
+      </c>
+      <c r="I224" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J224" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K224" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L224" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="M224" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N224" s="51">
+        <v>13683717055</v>
+      </c>
+      <c r="O224" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="18"/>
-      <c r="N225" s="26"/>
-      <c r="O225" s="7"/>
+      <c r="A225" s="52"/>
+      <c r="B225" s="32">
+        <v>43069</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E225" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F225" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G225" s="53">
+        <v>76105998</v>
+      </c>
+      <c r="H225" s="53" t="s">
+        <v>545</v>
+      </c>
+      <c r="I225" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J225" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K225" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L225" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="M225" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N225" s="51">
+        <v>13817952940</v>
+      </c>
+      <c r="O225" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="18"/>
-      <c r="N226" s="26"/>
-      <c r="O226" s="7"/>
+      <c r="A226" s="54"/>
+      <c r="B226" s="32">
+        <v>43069</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E226" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F226" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G226" s="53">
+        <v>76105997</v>
+      </c>
+      <c r="H226" s="53" t="s">
+        <v>547</v>
+      </c>
+      <c r="I226" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J226" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K226" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L226" s="51" t="s">
+        <v>548</v>
+      </c>
+      <c r="M226" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N226" s="51">
+        <v>15215518800</v>
+      </c>
+      <c r="O226" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="18"/>
@@ -14441,14 +14924,15 @@
       <c r="A602" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A201:A215"/>
+    <mergeCell ref="A217:A226"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B219 B220:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B227:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C219 C220:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C227:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14464,7 +14948,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -14477,13 +14961,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14494,7 +14978,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14505,7 +14989,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14516,7 +15000,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14532,7 +15016,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14543,7 +15027,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1385,6 +1385,9 @@
   </si>
   <si>
     <t>高媛媛</t>
+  </si>
+  <si>
+    <t>46周</t>
   </si>
   <si>
     <t>悸动(南京浦口信息工程大学店)</t>
@@ -1716,10 +1719,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -1788,14 +1791,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -1807,6 +1810,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1814,8 +1824,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1829,23 +1869,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1858,47 +1906,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1911,18 +1921,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1944,13 +1954,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2025,13 +2028,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,19 +2070,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,7 +2094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,6 +2112,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2103,25 +2136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2133,25 +2154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2163,7 +2166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,7 +2184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,17 +2530,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2558,6 +2564,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2568,24 +2589,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2630,10 +2633,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2642,16 +2645,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2660,120 +2663,120 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
@@ -2784,7 +2787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2899,10 +2902,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2920,28 +2929,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3451,440 +3457,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="93" t="s">
+      <c r="M2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="94" t="s">
+      <c r="N2" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="59"/>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69">
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70">
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97" t="e">
+      <c r="J3" s="97"/>
+      <c r="K3" s="98" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="98">
+      <c r="L3" s="99">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="99">
+      <c r="M3" s="100">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="100" t="e">
+      <c r="N3" s="101" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75">
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="76">
+      <c r="G4" s="77"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="97" t="e">
+      <c r="J4" s="102"/>
+      <c r="K4" s="98" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="98">
+      <c r="L4" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="99">
+      <c r="M4" s="100">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="100" t="e">
+      <c r="N4" s="101" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75">
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="76">
+      <c r="G5" s="77"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="97" t="e">
+      <c r="J5" s="102"/>
+      <c r="K5" s="98" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="98">
+      <c r="L5" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="99">
+      <c r="M5" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="100" t="e">
+      <c r="N5" s="101" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75">
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="76">
+      <c r="G6" s="77"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="101"/>
-      <c r="K6" s="97" t="e">
+      <c r="J6" s="102"/>
+      <c r="K6" s="98" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="98">
+      <c r="L6" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="99">
+      <c r="M6" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="100" t="e">
+      <c r="N6" s="101" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="76">
+      <c r="G7" s="77"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="97" t="e">
+      <c r="J7" s="102"/>
+      <c r="K7" s="98" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="98">
+      <c r="L7" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="99">
+      <c r="M7" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="100" t="e">
+      <c r="N7" s="101" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75">
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="76">
+      <c r="G8" s="77"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="101"/>
-      <c r="K8" s="97" t="e">
+      <c r="J8" s="102"/>
+      <c r="K8" s="98" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="98">
+      <c r="L8" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="99">
+      <c r="M8" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="100" t="e">
+      <c r="N8" s="101" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75">
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="76">
+      <c r="G9" s="77"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="101"/>
-      <c r="K9" s="97" t="e">
+      <c r="J9" s="102"/>
+      <c r="K9" s="98" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="98">
+      <c r="L9" s="99">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="99">
+      <c r="M9" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="100" t="e">
+      <c r="N9" s="101" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="77" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80">
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="81">
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="103" t="e">
+      <c r="J10" s="103"/>
+      <c r="K10" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="104">
+      <c r="L10" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="105">
+      <c r="M10" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="106" t="e">
+      <c r="N10" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="87">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="86">
+      <c r="J11" s="87">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="107" t="e">
+      <c r="K11" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="87">
+      <c r="L11" s="88">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="87">
+      <c r="M11" s="88">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="108" t="e">
+      <c r="N11" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3903,9 +3909,9 @@
   <dimension ref="A1:O602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D228" sqref="D228"/>
+      <selection pane="bottomLeft" activeCell="H229" sqref="H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7903,7 +7909,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="109" t="s">
+      <c r="N95" s="110" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -10710,13 +10716,13 @@
       <c r="K159" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L159" s="43" t="s">
+      <c r="L159" s="45" t="s">
         <v>404</v>
       </c>
       <c r="M159" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N159" s="44">
+      <c r="N159" s="46">
         <v>18692273777</v>
       </c>
       <c r="O159" s="12" t="s">
@@ -10800,13 +10806,13 @@
       <c r="K161" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L161" s="44" t="s">
+      <c r="L161" s="46" t="s">
         <v>408</v>
       </c>
       <c r="M161" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N161" s="44">
+      <c r="N161" s="46">
         <v>13906231845</v>
       </c>
       <c r="O161" s="12" t="s">
@@ -11030,13 +11036,13 @@
       <c r="K167" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L167" s="45" t="s">
+      <c r="L167" s="47" t="s">
         <v>421</v>
       </c>
       <c r="M167" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N167" s="45">
+      <c r="N167" s="47">
         <v>13916936635</v>
       </c>
       <c r="O167" s="7" t="s">
@@ -11544,17 +11550,19 @@
       <c r="O179" s="7"/>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="18"/>
-      <c r="B180" s="40">
+      <c r="A180" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="B180" s="41">
         <v>43053</v>
       </c>
-      <c r="C180" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D180" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E180" s="41" t="s">
+      <c r="C180" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E180" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F180" s="39" t="s">
@@ -11564,42 +11572,42 @@
         <v>76106276</v>
       </c>
       <c r="H180" s="39" t="s">
-        <v>448</v>
-      </c>
-      <c r="I180" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="I180" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J180" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K180" s="41">
+      <c r="K180" s="42">
         <v>17721436606</v>
       </c>
       <c r="L180" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="M180" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="M180" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N180" s="39">
         <v>15851899046</v>
       </c>
-      <c r="O180" s="41" t="s">
-        <v>450</v>
+      <c r="O180" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="18"/>
-      <c r="B181" s="40">
+      <c r="A181" s="43"/>
+      <c r="B181" s="41">
         <v>43053</v>
       </c>
-      <c r="C181" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D181" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E181" s="41" t="s">
+      <c r="C181" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D181" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E181" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F181" s="39" t="s">
@@ -11608,43 +11616,43 @@
       <c r="G181" s="39">
         <v>76103683</v>
       </c>
-      <c r="H181" s="42" t="s">
-        <v>451</v>
-      </c>
-      <c r="I181" s="41" t="s">
+      <c r="H181" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="I181" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J181" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K181" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L181" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="M181" s="41" t="s">
+      <c r="K181" s="42">
+        <v>17721436606</v>
+      </c>
+      <c r="L181" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="M181" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N181" s="39">
         <v>18917398507</v>
       </c>
-      <c r="O181" s="41" t="s">
-        <v>450</v>
+      <c r="O181" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="1:15">
-      <c r="A182" s="18"/>
-      <c r="B182" s="40">
+      <c r="A182" s="43"/>
+      <c r="B182" s="41">
         <v>43053</v>
       </c>
-      <c r="C182" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D182" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E182" s="41" t="s">
+      <c r="C182" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E182" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F182" s="39" t="s">
@@ -11654,42 +11662,42 @@
         <v>76106268</v>
       </c>
       <c r="H182" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="I182" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="I182" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J182" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K182" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L182" s="43" t="s">
-        <v>454</v>
-      </c>
-      <c r="M182" s="41" t="s">
+      <c r="K182" s="42">
+        <v>17721436606</v>
+      </c>
+      <c r="L182" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="M182" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N182" s="39">
         <v>15057999044</v>
       </c>
-      <c r="O182" s="41" t="s">
-        <v>450</v>
+      <c r="O182" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="18"/>
-      <c r="B183" s="40">
+      <c r="A183" s="43"/>
+      <c r="B183" s="41">
         <v>43053</v>
       </c>
-      <c r="C183" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D183" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E183" s="41" t="s">
+      <c r="C183" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E183" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F183" s="39" t="s">
@@ -11699,42 +11707,42 @@
         <v>76106175</v>
       </c>
       <c r="H183" s="39" t="s">
-        <v>455</v>
-      </c>
-      <c r="I183" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="I183" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J183" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K183" s="41">
+      <c r="K183" s="42">
         <v>17721436606</v>
       </c>
       <c r="L183" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="M183" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="M183" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N183" s="39">
         <v>13814547010</v>
       </c>
-      <c r="O183" s="41" t="s">
-        <v>450</v>
+      <c r="O183" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="18"/>
-      <c r="B184" s="40">
+      <c r="A184" s="43"/>
+      <c r="B184" s="41">
         <v>43053</v>
       </c>
-      <c r="C184" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D184" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E184" s="41" t="s">
+      <c r="C184" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E184" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F184" s="39" t="s">
@@ -11743,43 +11751,43 @@
       <c r="G184" s="39">
         <v>76078788</v>
       </c>
-      <c r="H184" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="I184" s="41" t="s">
+      <c r="H184" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="I184" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J184" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K184" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L184" s="43" t="s">
-        <v>458</v>
-      </c>
-      <c r="M184" s="41" t="s">
+      <c r="K184" s="42">
+        <v>17721436606</v>
+      </c>
+      <c r="L184" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="M184" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N184" s="39">
         <v>15618523690</v>
       </c>
-      <c r="O184" s="41" t="s">
-        <v>450</v>
+      <c r="O184" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="18"/>
-      <c r="B185" s="40">
+      <c r="A185" s="43"/>
+      <c r="B185" s="41">
         <v>43053</v>
       </c>
-      <c r="C185" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D185" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E185" s="41" t="s">
+      <c r="C185" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E185" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F185" s="39" t="s">
@@ -11789,42 +11797,42 @@
         <v>76105953</v>
       </c>
       <c r="H185" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="I185" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="I185" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J185" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K185" s="41">
+      <c r="K185" s="42">
         <v>17721436606</v>
       </c>
       <c r="L185" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="M185" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="M185" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N185" s="39">
         <v>15189740111</v>
       </c>
-      <c r="O185" s="41" t="s">
-        <v>450</v>
+      <c r="O185" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="18"/>
-      <c r="B186" s="40">
+      <c r="A186" s="43"/>
+      <c r="B186" s="41">
         <v>43053</v>
       </c>
-      <c r="C186" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D186" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E186" s="41" t="s">
+      <c r="C186" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E186" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F186" s="39" t="s">
@@ -11834,87 +11842,87 @@
         <v>76087615</v>
       </c>
       <c r="H186" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="I186" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="I186" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J186" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K186" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L186" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="M186" s="41" t="s">
+      <c r="K186" s="42">
+        <v>17721436606</v>
+      </c>
+      <c r="L186" s="45" t="s">
+        <v>463</v>
+      </c>
+      <c r="M186" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N186" s="39">
         <v>15298339996</v>
       </c>
-      <c r="O186" s="41" t="s">
-        <v>450</v>
+      <c r="O186" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="18"/>
-      <c r="B187" s="40">
+      <c r="A187" s="43"/>
+      <c r="B187" s="41">
         <v>43053</v>
       </c>
-      <c r="C187" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D187" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E187" s="41" t="s">
+      <c r="C187" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E187" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F187" s="39" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G187" s="39">
         <v>76105508</v>
       </c>
       <c r="H187" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="I187" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="I187" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J187" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K187" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L187" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="M187" s="41" t="s">
+      <c r="K187" s="42">
+        <v>17721436606</v>
+      </c>
+      <c r="L187" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="M187" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N187" s="39">
         <v>15726283872</v>
       </c>
-      <c r="O187" s="41" t="s">
-        <v>450</v>
+      <c r="O187" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="188" spans="1:15">
-      <c r="A188" s="18"/>
-      <c r="B188" s="40">
+      <c r="A188" s="43"/>
+      <c r="B188" s="41">
         <v>43053</v>
       </c>
-      <c r="C188" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D188" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E188" s="41" t="s">
+      <c r="C188" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E188" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F188" s="39" t="s">
@@ -11924,42 +11932,42 @@
         <v>76105323</v>
       </c>
       <c r="H188" s="39" t="s">
-        <v>466</v>
-      </c>
-      <c r="I188" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="I188" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J188" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K188" s="41">
+      <c r="K188" s="42">
         <v>17721436606</v>
       </c>
       <c r="L188" s="39" t="s">
-        <v>467</v>
-      </c>
-      <c r="M188" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="M188" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N188" s="39">
         <v>18701775826</v>
       </c>
-      <c r="O188" s="41" t="s">
-        <v>450</v>
+      <c r="O188" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="18"/>
-      <c r="B189" s="40">
+      <c r="A189" s="43"/>
+      <c r="B189" s="41">
         <v>43053</v>
       </c>
-      <c r="C189" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D189" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E189" s="41" t="s">
+      <c r="C189" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E189" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F189" s="39" t="s">
@@ -11969,42 +11977,42 @@
         <v>76105578</v>
       </c>
       <c r="H189" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="I189" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="I189" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J189" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K189" s="41">
+      <c r="K189" s="42">
         <v>17721436606</v>
       </c>
       <c r="L189" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="M189" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="M189" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N189" s="39">
         <v>13661533442</v>
       </c>
-      <c r="O189" s="41" t="s">
-        <v>450</v>
+      <c r="O189" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="190" spans="1:15">
-      <c r="A190" s="18"/>
-      <c r="B190" s="40">
+      <c r="A190" s="43"/>
+      <c r="B190" s="41">
         <v>43053</v>
       </c>
-      <c r="C190" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D190" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E190" s="41" t="s">
+      <c r="C190" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D190" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E190" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F190" s="39" t="s">
@@ -12014,42 +12022,42 @@
         <v>76106131</v>
       </c>
       <c r="H190" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="I190" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="I190" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J190" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K190" s="41">
+      <c r="K190" s="42">
         <v>17721436606</v>
       </c>
       <c r="L190" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="M190" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="M190" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N190" s="39">
         <v>13813557044</v>
       </c>
-      <c r="O190" s="41" t="s">
-        <v>450</v>
+      <c r="O190" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="18"/>
-      <c r="B191" s="40">
+      <c r="A191" s="43"/>
+      <c r="B191" s="41">
         <v>43053</v>
       </c>
-      <c r="C191" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D191" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E191" s="41" t="s">
+      <c r="C191" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D191" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E191" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F191" s="39" t="s">
@@ -12059,42 +12067,42 @@
         <v>76099661</v>
       </c>
       <c r="H191" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="I191" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="I191" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J191" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K191" s="41">
+      <c r="K191" s="42">
         <v>17721436606</v>
       </c>
       <c r="L191" s="39" t="s">
-        <v>473</v>
-      </c>
-      <c r="M191" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="M191" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N191" s="39">
         <v>13671677897</v>
       </c>
-      <c r="O191" s="41" t="s">
-        <v>450</v>
+      <c r="O191" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="192" spans="1:15">
-      <c r="A192" s="18"/>
-      <c r="B192" s="40">
+      <c r="A192" s="43"/>
+      <c r="B192" s="41">
         <v>43053</v>
       </c>
-      <c r="C192" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D192" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E192" s="41" t="s">
+      <c r="C192" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D192" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E192" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F192" s="39" t="s">
@@ -12103,43 +12111,43 @@
       <c r="G192" s="39">
         <v>76101937</v>
       </c>
-      <c r="H192" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="I192" s="41" t="s">
+      <c r="H192" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="I192" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J192" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K192" s="41">
-        <v>17721436606</v>
-      </c>
-      <c r="L192" s="43" t="s">
-        <v>475</v>
-      </c>
-      <c r="M192" s="41" t="s">
+      <c r="K192" s="42">
+        <v>17721436606</v>
+      </c>
+      <c r="L192" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="M192" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N192" s="39">
         <v>18115600561</v>
       </c>
-      <c r="O192" s="41" t="s">
-        <v>450</v>
+      <c r="O192" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="193" spans="1:15">
-      <c r="A193" s="18"/>
-      <c r="B193" s="40">
+      <c r="A193" s="43"/>
+      <c r="B193" s="41">
         <v>43053</v>
       </c>
-      <c r="C193" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D193" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E193" s="41" t="s">
+      <c r="C193" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D193" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E193" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F193" s="39" t="s">
@@ -12149,42 +12157,42 @@
         <v>76108189</v>
       </c>
       <c r="H193" s="39" t="s">
-        <v>476</v>
-      </c>
-      <c r="I193" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="I193" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J193" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K193" s="41">
+      <c r="K193" s="42">
         <v>17721436606</v>
       </c>
       <c r="L193" s="39" t="s">
-        <v>477</v>
-      </c>
-      <c r="M193" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="M193" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N193" s="39">
         <v>13986052837</v>
       </c>
-      <c r="O193" s="41" t="s">
-        <v>450</v>
+      <c r="O193" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="194" spans="1:15">
-      <c r="A194" s="18"/>
-      <c r="B194" s="40">
+      <c r="A194" s="43"/>
+      <c r="B194" s="41">
         <v>43053</v>
       </c>
-      <c r="C194" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D194" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E194" s="41" t="s">
+      <c r="C194" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D194" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E194" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F194" s="39" t="s">
@@ -12193,43 +12201,43 @@
       <c r="G194" s="39">
         <v>76108187</v>
       </c>
-      <c r="H194" s="42" t="s">
-        <v>478</v>
-      </c>
-      <c r="I194" s="41" t="s">
+      <c r="H194" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="I194" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J194" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K194" s="41">
+      <c r="K194" s="42">
         <v>17721436606</v>
       </c>
       <c r="L194" s="39" t="s">
-        <v>479</v>
-      </c>
-      <c r="M194" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="M194" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N194" s="39">
         <v>13761097276</v>
       </c>
-      <c r="O194" s="41" t="s">
-        <v>450</v>
+      <c r="O194" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="195" spans="1:15">
-      <c r="A195" s="18"/>
-      <c r="B195" s="40">
+      <c r="A195" s="43"/>
+      <c r="B195" s="41">
         <v>43053</v>
       </c>
-      <c r="C195" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D195" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E195" s="41" t="s">
+      <c r="C195" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D195" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E195" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F195" s="39" t="s">
@@ -12238,43 +12246,43 @@
       <c r="G195" s="39">
         <v>76108196</v>
       </c>
-      <c r="H195" s="42" t="s">
-        <v>480</v>
-      </c>
-      <c r="I195" s="41" t="s">
+      <c r="H195" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="I195" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J195" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K195" s="41">
+      <c r="K195" s="42">
         <v>17721436606</v>
       </c>
       <c r="L195" s="39" t="s">
-        <v>481</v>
-      </c>
-      <c r="M195" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="M195" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N195" s="39">
         <v>13501863833</v>
       </c>
-      <c r="O195" s="41" t="s">
-        <v>450</v>
+      <c r="O195" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="18"/>
-      <c r="B196" s="40">
+      <c r="A196" s="43"/>
+      <c r="B196" s="41">
         <v>43053</v>
       </c>
-      <c r="C196" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D196" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E196" s="41" t="s">
+      <c r="C196" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D196" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E196" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F196" s="39" t="s">
@@ -12283,89 +12291,89 @@
       <c r="G196" s="39">
         <v>76108636</v>
       </c>
-      <c r="H196" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="I196" s="41" t="s">
+      <c r="H196" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="I196" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J196" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K196" s="41">
+      <c r="K196" s="42">
         <v>17721436606</v>
       </c>
       <c r="L196" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="M196" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="M196" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N196" s="39">
         <v>18706118030</v>
       </c>
-      <c r="O196" s="41" t="s">
-        <v>450</v>
+      <c r="O196" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="18"/>
-      <c r="B197" s="40">
+      <c r="A197" s="43"/>
+      <c r="B197" s="41">
         <v>43053</v>
       </c>
-      <c r="C197" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D197" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E197" s="41" t="s">
+      <c r="C197" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D197" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E197" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F197" s="39" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G197" s="39">
         <v>76093718</v>
       </c>
-      <c r="H197" s="42" t="s">
+      <c r="H197" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="I197" s="41" t="s">
+      <c r="I197" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J197" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K197" s="41">
+      <c r="K197" s="42">
         <v>17721436606</v>
       </c>
       <c r="L197" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="M197" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="M197" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N197" s="39">
         <v>18457988858</v>
       </c>
-      <c r="O197" s="41" t="s">
-        <v>450</v>
+      <c r="O197" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="198" spans="1:15">
-      <c r="A198" s="18"/>
-      <c r="B198" s="40">
+      <c r="A198" s="43"/>
+      <c r="B198" s="41">
         <v>43053</v>
       </c>
-      <c r="C198" s="41" t="s">
+      <c r="C198" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>43</v>
@@ -12374,19 +12382,19 @@
         <v>76108207</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="I198" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="I198" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J198" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K198" s="41">
+      <c r="K198" s="42">
         <v>17721436606</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M198" s="7" t="s">
         <v>371</v>
@@ -12394,12 +12402,12 @@
       <c r="N198" s="26">
         <v>18016233560</v>
       </c>
-      <c r="O198" s="41" t="s">
-        <v>450</v>
+      <c r="O198" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="199" s="5" customFormat="1" spans="1:15">
-      <c r="A199" s="18"/>
+      <c r="A199" s="49"/>
       <c r="B199" s="32">
         <v>43054</v>
       </c>
@@ -12419,7 +12427,7 @@
         <v>76102029</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I199" s="12" t="s">
         <v>43</v>
@@ -12437,31 +12445,31 @@
         <v>51</v>
       </c>
       <c r="N199" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="O199" s="41" t="s">
-        <v>450</v>
+        <v>491</v>
+      </c>
+      <c r="O199" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="18"/>
       <c r="N200" s="26"/>
-      <c r="O200" s="41"/>
+      <c r="O200" s="42"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="47" t="s">
-        <v>491</v>
+      <c r="A201" s="50" t="s">
+        <v>492</v>
       </c>
       <c r="B201" s="32">
         <v>43059</v>
       </c>
-      <c r="C201" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D201" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E201" s="41" t="s">
+      <c r="C201" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D201" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E201" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F201" s="13" t="s">
@@ -12471,87 +12479,87 @@
         <v>76109355</v>
       </c>
       <c r="H201" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="I201" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="I201" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J201" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K201" s="41">
+      <c r="K201" s="42">
         <v>17721436606</v>
       </c>
       <c r="L201" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="M201" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="M201" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N201" s="13">
         <v>18101920825</v>
       </c>
-      <c r="O201" s="41" t="s">
-        <v>450</v>
+      <c r="O201" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="48"/>
+      <c r="A202" s="51"/>
       <c r="B202" s="32">
         <v>43059</v>
       </c>
-      <c r="C202" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D202" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E202" s="41" t="s">
+      <c r="C202" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D202" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E202" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G202" s="13">
         <v>76109282</v>
       </c>
       <c r="H202" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="I202" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="I202" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J202" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K202" s="41">
+      <c r="K202" s="42">
         <v>17721436606</v>
       </c>
       <c r="L202" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="M202" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="M202" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N202" s="13">
         <v>13797135055</v>
       </c>
-      <c r="O202" s="41" t="s">
-        <v>450</v>
+      <c r="O202" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="48"/>
+      <c r="A203" s="51"/>
       <c r="B203" s="32">
         <v>43059</v>
       </c>
-      <c r="C203" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D203" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E203" s="41" t="s">
+      <c r="C203" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D203" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E203" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F203" s="13" t="s">
@@ -12561,42 +12569,42 @@
         <v>76109125</v>
       </c>
       <c r="H203" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="I203" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="I203" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J203" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K203" s="41">
+      <c r="K203" s="42">
         <v>17721436606</v>
       </c>
       <c r="L203" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="M203" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="M203" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N203" s="13">
         <v>13817697556</v>
       </c>
-      <c r="O203" s="41" t="s">
-        <v>450</v>
+      <c r="O203" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="48"/>
+      <c r="A204" s="51"/>
       <c r="B204" s="32">
         <v>43059</v>
       </c>
-      <c r="C204" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D204" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E204" s="41" t="s">
+      <c r="C204" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D204" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E204" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F204" s="13" t="s">
@@ -12606,42 +12614,42 @@
         <v>76108852</v>
       </c>
       <c r="H204" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="I204" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="I204" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J204" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K204" s="41">
+      <c r="K204" s="42">
         <v>17721436606</v>
       </c>
       <c r="L204" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="M204" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="M204" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N204" s="13">
         <v>13813208418</v>
       </c>
-      <c r="O204" s="41" t="s">
-        <v>450</v>
+      <c r="O204" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="48"/>
+      <c r="A205" s="51"/>
       <c r="B205" s="32">
         <v>43059</v>
       </c>
-      <c r="C205" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D205" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E205" s="41" t="s">
+      <c r="C205" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D205" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E205" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F205" s="13" t="s">
@@ -12651,42 +12659,42 @@
         <v>76108722</v>
       </c>
       <c r="H205" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="I205" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="I205" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J205" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K205" s="41">
+      <c r="K205" s="42">
         <v>17721436606</v>
       </c>
       <c r="L205" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="M205" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="M205" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N205" s="13">
         <v>13957375306</v>
       </c>
-      <c r="O205" s="41" t="s">
-        <v>450</v>
+      <c r="O205" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="48"/>
+      <c r="A206" s="51"/>
       <c r="B206" s="32">
         <v>43059</v>
       </c>
-      <c r="C206" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D206" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E206" s="41" t="s">
+      <c r="C206" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D206" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E206" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F206" s="13" t="s">
@@ -12696,42 +12704,42 @@
         <v>76108830</v>
       </c>
       <c r="H206" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="I206" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="I206" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J206" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K206" s="41">
+      <c r="K206" s="42">
         <v>17721436606</v>
       </c>
       <c r="L206" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="M206" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="M206" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N206" s="13">
         <v>13564627898</v>
       </c>
-      <c r="O206" s="41" t="s">
-        <v>450</v>
+      <c r="O206" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="48"/>
+      <c r="A207" s="51"/>
       <c r="B207" s="32">
         <v>43059</v>
       </c>
-      <c r="C207" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D207" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E207" s="41" t="s">
+      <c r="C207" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D207" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E207" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F207" s="13" t="s">
@@ -12741,42 +12749,42 @@
         <v>76078016</v>
       </c>
       <c r="H207" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="I207" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="I207" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J207" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K207" s="41">
+      <c r="K207" s="42">
         <v>17721436606</v>
       </c>
       <c r="L207" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="M207" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="M207" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N207" s="13">
         <v>13818847791</v>
       </c>
-      <c r="O207" s="41" t="s">
-        <v>450</v>
+      <c r="O207" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="48"/>
+      <c r="A208" s="51"/>
       <c r="B208" s="32">
         <v>43059</v>
       </c>
-      <c r="C208" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D208" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E208" s="41" t="s">
+      <c r="C208" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D208" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E208" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F208" s="13" t="s">
@@ -12786,42 +12794,42 @@
         <v>76107261</v>
       </c>
       <c r="H208" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="I208" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="I208" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J208" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K208" s="41">
+      <c r="K208" s="42">
         <v>17721436606</v>
       </c>
       <c r="L208" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="M208" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="M208" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N208" s="13">
         <v>18969029778</v>
       </c>
-      <c r="O208" s="41" t="s">
-        <v>450</v>
+      <c r="O208" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="48"/>
+      <c r="A209" s="51"/>
       <c r="B209" s="32">
         <v>43059</v>
       </c>
-      <c r="C209" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D209" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E209" s="41" t="s">
+      <c r="C209" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D209" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E209" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F209" s="13" t="s">
@@ -12831,42 +12839,42 @@
         <v>76106757</v>
       </c>
       <c r="H209" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="I209" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="I209" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J209" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K209" s="41">
+      <c r="K209" s="42">
         <v>17721436606</v>
       </c>
       <c r="L209" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="M209" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="M209" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N209" s="13">
         <v>13401360033</v>
       </c>
-      <c r="O209" s="41" t="s">
-        <v>450</v>
+      <c r="O209" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="48"/>
+      <c r="A210" s="51"/>
       <c r="B210" s="32">
         <v>43059</v>
       </c>
-      <c r="C210" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D210" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E210" s="41" t="s">
+      <c r="C210" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D210" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E210" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F210" s="13" t="s">
@@ -12876,87 +12884,87 @@
         <v>76109690</v>
       </c>
       <c r="H210" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="I210" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="I210" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J210" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K210" s="41">
+      <c r="K210" s="42">
         <v>17721436606</v>
       </c>
       <c r="L210" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="M210" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="M210" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N210" s="13">
         <v>17321160037</v>
       </c>
-      <c r="O210" s="41" t="s">
-        <v>450</v>
+      <c r="O210" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="48"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="32">
         <v>43059</v>
       </c>
-      <c r="C211" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D211" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E211" s="41" t="s">
+      <c r="C211" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D211" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E211" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G211" s="13">
         <v>76103156</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="I211" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="I211" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J211" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K211" s="41">
+      <c r="K211" s="42">
         <v>17721436606</v>
       </c>
       <c r="L211" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="M211" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="M211" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N211" s="13">
         <v>18502221900</v>
       </c>
-      <c r="O211" s="41" t="s">
-        <v>450</v>
+      <c r="O211" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="48"/>
+      <c r="A212" s="51"/>
       <c r="B212" s="32">
         <v>43059</v>
       </c>
-      <c r="C212" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D212" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E212" s="41" t="s">
+      <c r="C212" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D212" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E212" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F212" s="13" t="s">
@@ -12966,42 +12974,42 @@
         <v>76091385</v>
       </c>
       <c r="H212" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="I212" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="I212" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J212" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K212" s="41">
+      <c r="K212" s="42">
         <v>17721436606</v>
       </c>
       <c r="L212" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="M212" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="M212" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N212" s="13">
         <v>15180424364</v>
       </c>
-      <c r="O212" s="41" t="s">
-        <v>450</v>
+      <c r="O212" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="48"/>
+      <c r="A213" s="51"/>
       <c r="B213" s="32">
         <v>43059</v>
       </c>
-      <c r="C213" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D213" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E213" s="41" t="s">
+      <c r="C213" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D213" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E213" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F213" s="13" t="s">
@@ -13011,42 +13019,42 @@
         <v>76108185</v>
       </c>
       <c r="H213" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="I213" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="I213" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J213" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K213" s="41">
+      <c r="K213" s="42">
         <v>17721436606</v>
       </c>
       <c r="L213" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="M213" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="M213" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N213" s="13">
         <v>15906823676</v>
       </c>
-      <c r="O213" s="41" t="s">
-        <v>450</v>
+      <c r="O213" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="48"/>
+      <c r="A214" s="51"/>
       <c r="B214" s="32">
         <v>43059</v>
       </c>
-      <c r="C214" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D214" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E214" s="41" t="s">
+      <c r="C214" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D214" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E214" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F214" s="13" t="s">
@@ -13056,42 +13064,42 @@
         <v>76109725</v>
       </c>
       <c r="H214" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="I214" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="I214" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J214" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K214" s="41">
+      <c r="K214" s="42">
         <v>17721436606</v>
       </c>
       <c r="L214" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="M214" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="M214" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N214" s="13">
         <v>18201889103</v>
       </c>
-      <c r="O214" s="41" t="s">
-        <v>450</v>
+      <c r="O214" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="49"/>
+      <c r="A215" s="52"/>
       <c r="B215" s="32">
         <v>43059</v>
       </c>
-      <c r="C215" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D215" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E215" s="41" t="s">
+      <c r="C215" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D215" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E215" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F215" s="13" t="s">
@@ -13101,45 +13109,45 @@
         <v>76109788</v>
       </c>
       <c r="H215" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="I215" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="I215" s="42" t="s">
         <v>43</v>
       </c>
       <c r="J215" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K215" s="41">
+      <c r="K215" s="42">
         <v>17721436606</v>
       </c>
       <c r="L215" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="M215" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="M215" s="42" t="s">
         <v>45</v>
       </c>
       <c r="N215" s="13">
         <v>13621598071</v>
       </c>
-      <c r="O215" s="41" t="s">
-        <v>450</v>
+      <c r="O215" s="42" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="18"/>
       <c r="B216" s="32"/>
-      <c r="C216" s="41"/>
-      <c r="D216" s="41"/>
-      <c r="E216" s="41"/>
-      <c r="I216" s="41"/>
+      <c r="C216" s="42"/>
+      <c r="D216" s="42"/>
+      <c r="E216" s="42"/>
+      <c r="I216" s="42"/>
       <c r="J216" s="39"/>
-      <c r="K216" s="41"/>
+      <c r="K216" s="42"/>
       <c r="N216" s="26"/>
-      <c r="O216" s="41"/>
+      <c r="O216" s="42"/>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="50" t="s">
-        <v>524</v>
+      <c r="A217" s="53" t="s">
+        <v>525</v>
       </c>
       <c r="B217" s="32">
         <v>43069</v>
@@ -13153,14 +13161,14 @@
       <c r="E217" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F217" s="51" t="s">
-        <v>525</v>
-      </c>
-      <c r="G217" s="51">
+      <c r="F217" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="G217" s="39">
         <v>76105618</v>
       </c>
-      <c r="H217" s="51" t="s">
-        <v>526</v>
+      <c r="H217" s="39" t="s">
+        <v>527</v>
       </c>
       <c r="I217" s="12" t="s">
         <v>43</v>
@@ -13171,13 +13179,13 @@
       <c r="K217" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L217" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="M217" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N217" s="51">
+      <c r="L217" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="M217" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N217" s="39">
         <v>15804263007</v>
       </c>
       <c r="O217" s="7" t="s">
@@ -13185,7 +13193,7 @@
       </c>
     </row>
     <row r="218" spans="1:15">
-      <c r="A218" s="52"/>
+      <c r="A218" s="54"/>
       <c r="B218" s="32">
         <v>43069</v>
       </c>
@@ -13198,14 +13206,14 @@
       <c r="E218" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F218" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G218" s="51">
+      <c r="F218" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G218" s="39">
         <v>76111099</v>
       </c>
-      <c r="H218" s="51" t="s">
-        <v>528</v>
+      <c r="H218" s="39" t="s">
+        <v>529</v>
       </c>
       <c r="I218" s="12" t="s">
         <v>43</v>
@@ -13216,13 +13224,13 @@
       <c r="K218" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L218" s="51" t="s">
-        <v>529</v>
-      </c>
-      <c r="M218" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N218" s="53">
+      <c r="L218" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="M218" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N218" s="44">
         <v>17802152313</v>
       </c>
       <c r="O218" s="7" t="s">
@@ -13230,7 +13238,7 @@
       </c>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="52"/>
+      <c r="A219" s="54"/>
       <c r="B219" s="32">
         <v>43069</v>
       </c>
@@ -13243,14 +13251,14 @@
       <c r="E219" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F219" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G219" s="51">
+      <c r="F219" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G219" s="39">
         <v>76111102</v>
       </c>
-      <c r="H219" s="51" t="s">
-        <v>530</v>
+      <c r="H219" s="39" t="s">
+        <v>531</v>
       </c>
       <c r="I219" s="12" t="s">
         <v>43</v>
@@ -13261,13 +13269,13 @@
       <c r="K219" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L219" s="51" t="s">
-        <v>531</v>
-      </c>
-      <c r="M219" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N219" s="51">
+      <c r="L219" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="M219" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N219" s="39">
         <v>15800655562</v>
       </c>
       <c r="O219" s="7" t="s">
@@ -13275,7 +13283,7 @@
       </c>
     </row>
     <row r="220" spans="1:15">
-      <c r="A220" s="52"/>
+      <c r="A220" s="54"/>
       <c r="B220" s="32">
         <v>43069</v>
       </c>
@@ -13288,14 +13296,14 @@
       <c r="E220" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F220" s="51" t="s">
+      <c r="F220" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G220" s="51">
+      <c r="G220" s="39">
         <v>76111103</v>
       </c>
-      <c r="H220" s="51" t="s">
-        <v>532</v>
+      <c r="H220" s="39" t="s">
+        <v>533</v>
       </c>
       <c r="I220" s="12" t="s">
         <v>43</v>
@@ -13306,21 +13314,21 @@
       <c r="K220" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L220" s="55" t="s">
-        <v>533</v>
-      </c>
-      <c r="M220" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N220" s="56" t="s">
+      <c r="L220" s="56" t="s">
         <v>534</v>
+      </c>
+      <c r="M220" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N220" s="57" t="s">
+        <v>535</v>
       </c>
       <c r="O220" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="52"/>
+      <c r="A221" s="54"/>
       <c r="B221" s="32">
         <v>43069</v>
       </c>
@@ -13333,14 +13341,14 @@
       <c r="E221" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F221" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G221" s="51">
+      <c r="F221" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G221" s="39">
         <v>76111881</v>
       </c>
-      <c r="H221" s="53" t="s">
-        <v>535</v>
+      <c r="H221" s="44" t="s">
+        <v>536</v>
       </c>
       <c r="I221" s="12" t="s">
         <v>43</v>
@@ -13351,13 +13359,13 @@
       <c r="K221" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L221" s="51" t="s">
-        <v>536</v>
-      </c>
-      <c r="M221" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N221" s="51">
+      <c r="L221" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="M221" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N221" s="39">
         <v>13120837062</v>
       </c>
       <c r="O221" s="7" t="s">
@@ -13365,7 +13373,7 @@
       </c>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="52"/>
+      <c r="A222" s="54"/>
       <c r="B222" s="32">
         <v>43069</v>
       </c>
@@ -13378,14 +13386,14 @@
       <c r="E222" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F222" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="G222" s="53">
+      <c r="F222" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="G222" s="44">
         <v>76111880</v>
       </c>
-      <c r="H222" s="53" t="s">
-        <v>538</v>
+      <c r="H222" s="44" t="s">
+        <v>539</v>
       </c>
       <c r="I222" s="12" t="s">
         <v>43</v>
@@ -13396,13 +13404,13 @@
       <c r="K222" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L222" s="51" t="s">
-        <v>539</v>
-      </c>
-      <c r="M222" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N222" s="51">
+      <c r="L222" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="M222" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N222" s="39">
         <v>18802620166</v>
       </c>
       <c r="O222" s="7" t="s">
@@ -13410,7 +13418,7 @@
       </c>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="52"/>
+      <c r="A223" s="54"/>
       <c r="B223" s="32">
         <v>43069</v>
       </c>
@@ -13423,14 +13431,14 @@
       <c r="E223" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F223" s="51" t="s">
+      <c r="F223" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G223" s="53">
+      <c r="G223" s="44">
         <v>76107522</v>
       </c>
-      <c r="H223" s="53" t="s">
-        <v>540</v>
+      <c r="H223" s="44" t="s">
+        <v>541</v>
       </c>
       <c r="I223" s="12" t="s">
         <v>43</v>
@@ -13441,13 +13449,13 @@
       <c r="K223" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L223" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="M223" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N223" s="51">
+      <c r="L223" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="M223" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N223" s="39">
         <v>13739261309</v>
       </c>
       <c r="O223" s="7" t="s">
@@ -13455,7 +13463,7 @@
       </c>
     </row>
     <row r="224" spans="1:15">
-      <c r="A224" s="52"/>
+      <c r="A224" s="54"/>
       <c r="B224" s="32">
         <v>43069</v>
       </c>
@@ -13468,14 +13476,14 @@
       <c r="E224" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F224" s="51" t="s">
-        <v>542</v>
-      </c>
-      <c r="G224" s="53">
+      <c r="F224" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="G224" s="44">
         <v>76106008</v>
       </c>
-      <c r="H224" s="53" t="s">
-        <v>543</v>
+      <c r="H224" s="44" t="s">
+        <v>544</v>
       </c>
       <c r="I224" s="12" t="s">
         <v>43</v>
@@ -13486,13 +13494,13 @@
       <c r="K224" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L224" s="51" t="s">
-        <v>544</v>
-      </c>
-      <c r="M224" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N224" s="51">
+      <c r="L224" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="M224" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N224" s="39">
         <v>13683717055</v>
       </c>
       <c r="O224" s="7" t="s">
@@ -13500,7 +13508,7 @@
       </c>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="52"/>
+      <c r="A225" s="54"/>
       <c r="B225" s="32">
         <v>43069</v>
       </c>
@@ -13513,14 +13521,14 @@
       <c r="E225" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F225" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G225" s="53">
+      <c r="F225" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G225" s="44">
         <v>76105998</v>
       </c>
-      <c r="H225" s="53" t="s">
-        <v>545</v>
+      <c r="H225" s="44" t="s">
+        <v>546</v>
       </c>
       <c r="I225" s="12" t="s">
         <v>43</v>
@@ -13531,13 +13539,13 @@
       <c r="K225" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L225" s="51" t="s">
-        <v>546</v>
-      </c>
-      <c r="M225" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N225" s="51">
+      <c r="L225" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="M225" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N225" s="39">
         <v>13817952940</v>
       </c>
       <c r="O225" s="7" t="s">
@@ -13545,7 +13553,7 @@
       </c>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="54"/>
+      <c r="A226" s="55"/>
       <c r="B226" s="32">
         <v>43069</v>
       </c>
@@ -13558,14 +13566,14 @@
       <c r="E226" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F226" s="51" t="s">
+      <c r="F226" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G226" s="53">
+      <c r="G226" s="44">
         <v>76105997</v>
       </c>
-      <c r="H226" s="53" t="s">
-        <v>547</v>
+      <c r="H226" s="44" t="s">
+        <v>548</v>
       </c>
       <c r="I226" s="12" t="s">
         <v>43</v>
@@ -13576,13 +13584,13 @@
       <c r="K226" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L226" s="51" t="s">
-        <v>548</v>
-      </c>
-      <c r="M226" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="N226" s="51">
+      <c r="L226" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="M226" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N226" s="39">
         <v>15215518800</v>
       </c>
       <c r="O226" s="7" t="s">
@@ -14924,7 +14932,8 @@
       <c r="A602" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A180:A199"/>
     <mergeCell ref="A201:A215"/>
     <mergeCell ref="A217:A226"/>
   </mergeCells>
@@ -14961,13 +14970,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14978,7 +14987,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14989,7 +14998,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -15000,7 +15009,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -15016,7 +15025,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -15027,7 +15036,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1691,6 +1691,27 @@
   </si>
   <si>
     <t>苏海燕</t>
+  </si>
+  <si>
+    <t>49周</t>
+  </si>
+  <si>
+    <t>遇见王者(松江荣乐店)</t>
+  </si>
+  <si>
+    <t>刘政</t>
+  </si>
+  <si>
+    <t>乌所味（菏泽区域）</t>
+  </si>
+  <si>
+    <t>菏泽</t>
+  </si>
+  <si>
+    <t>乌所味（菏泽旗舰店）</t>
+  </si>
+  <si>
+    <t>李慧</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1720,9 +1741,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -1809,15 +1830,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1832,7 +1859,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1846,16 +1881,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1878,21 +1950,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1900,45 +1957,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1953,15 +1979,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2028,7 +2049,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,13 +2091,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,25 +2133,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,19 +2181,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2118,79 +2205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,6 +2551,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2539,11 +2575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2563,6 +2605,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2578,36 +2640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2616,27 +2648,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2645,141 +2666,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -2787,7 +2808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2933,15 +2954,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2949,6 +2961,12 @@
     </xf>
     <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3457,440 +3475,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="92" t="s">
+      <c r="K2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="94" t="s">
+      <c r="M2" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="60"/>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70">
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71">
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98" t="e">
+      <c r="J3" s="96"/>
+      <c r="K3" s="97" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="99">
+      <c r="L3" s="98">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="100">
+      <c r="M3" s="99">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="101" t="e">
+      <c r="N3" s="100" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76">
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="77">
+      <c r="G4" s="76"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="98" t="e">
+      <c r="J4" s="101"/>
+      <c r="K4" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="99">
+      <c r="L4" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="100">
+      <c r="M4" s="99">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="101" t="e">
+      <c r="N4" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76">
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="77">
+      <c r="G5" s="76"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="102"/>
-      <c r="K5" s="98" t="e">
+      <c r="J5" s="101"/>
+      <c r="K5" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="99">
+      <c r="L5" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="100">
+      <c r="M5" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="101" t="e">
+      <c r="N5" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76">
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="77">
+      <c r="G6" s="76"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="102"/>
-      <c r="K6" s="98" t="e">
+      <c r="J6" s="101"/>
+      <c r="K6" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="99">
+      <c r="L6" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="100">
+      <c r="M6" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="101" t="e">
+      <c r="N6" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76">
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="77">
+      <c r="G7" s="76"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="98" t="e">
+      <c r="J7" s="101"/>
+      <c r="K7" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="99">
+      <c r="L7" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="100">
+      <c r="M7" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="101" t="e">
+      <c r="N7" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76">
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="77">
+      <c r="G8" s="76"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="98" t="e">
+      <c r="J8" s="101"/>
+      <c r="K8" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="99">
+      <c r="L8" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="100">
+      <c r="M8" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="101" t="e">
+      <c r="N8" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76">
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="77">
+      <c r="G9" s="76"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="102"/>
-      <c r="K9" s="98" t="e">
+      <c r="J9" s="101"/>
+      <c r="K9" s="97" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="99">
+      <c r="L9" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="100">
+      <c r="M9" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="101" t="e">
+      <c r="N9" s="100" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="78" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81">
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="82">
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104" t="e">
+      <c r="J10" s="102"/>
+      <c r="K10" s="103" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="104">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="106">
+      <c r="M10" s="105">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="107" t="e">
+      <c r="N10" s="106" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="86">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11" s="86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="86">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="108" t="e">
+      <c r="K11" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="88">
+      <c r="L11" s="87">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="87">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="109" t="e">
+      <c r="N11" s="108" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3909,9 +3927,9 @@
   <dimension ref="A1:O602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H229" sqref="H229"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228:A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7909,7 +7927,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="110" t="s">
+      <c r="N95" s="109" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -12457,7 +12475,7 @@
       <c r="O200" s="42"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="50" t="s">
+      <c r="A201" s="40" t="s">
         <v>492</v>
       </c>
       <c r="B201" s="32">
@@ -12504,7 +12522,7 @@
       </c>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="51"/>
+      <c r="A202" s="43"/>
       <c r="B202" s="32">
         <v>43059</v>
       </c>
@@ -12549,7 +12567,7 @@
       </c>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="51"/>
+      <c r="A203" s="43"/>
       <c r="B203" s="32">
         <v>43059</v>
       </c>
@@ -12594,7 +12612,7 @@
       </c>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="51"/>
+      <c r="A204" s="43"/>
       <c r="B204" s="32">
         <v>43059</v>
       </c>
@@ -12639,7 +12657,7 @@
       </c>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="51"/>
+      <c r="A205" s="43"/>
       <c r="B205" s="32">
         <v>43059</v>
       </c>
@@ -12684,7 +12702,7 @@
       </c>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="51"/>
+      <c r="A206" s="43"/>
       <c r="B206" s="32">
         <v>43059</v>
       </c>
@@ -12729,7 +12747,7 @@
       </c>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="51"/>
+      <c r="A207" s="43"/>
       <c r="B207" s="32">
         <v>43059</v>
       </c>
@@ -12774,7 +12792,7 @@
       </c>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="51"/>
+      <c r="A208" s="43"/>
       <c r="B208" s="32">
         <v>43059</v>
       </c>
@@ -12819,7 +12837,7 @@
       </c>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="51"/>
+      <c r="A209" s="43"/>
       <c r="B209" s="32">
         <v>43059</v>
       </c>
@@ -12864,7 +12882,7 @@
       </c>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="51"/>
+      <c r="A210" s="43"/>
       <c r="B210" s="32">
         <v>43059</v>
       </c>
@@ -12909,7 +12927,7 @@
       </c>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="51"/>
+      <c r="A211" s="43"/>
       <c r="B211" s="32">
         <v>43059</v>
       </c>
@@ -12954,7 +12972,7 @@
       </c>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="51"/>
+      <c r="A212" s="43"/>
       <c r="B212" s="32">
         <v>43059</v>
       </c>
@@ -12999,7 +13017,7 @@
       </c>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="51"/>
+      <c r="A213" s="43"/>
       <c r="B213" s="32">
         <v>43059</v>
       </c>
@@ -13044,7 +13062,7 @@
       </c>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="51"/>
+      <c r="A214" s="43"/>
       <c r="B214" s="32">
         <v>43059</v>
       </c>
@@ -13089,7 +13107,7 @@
       </c>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="52"/>
+      <c r="A215" s="49"/>
       <c r="B215" s="32">
         <v>43059</v>
       </c>
@@ -13146,7 +13164,7 @@
       <c r="O216" s="42"/>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="53" t="s">
+      <c r="A217" s="50" t="s">
         <v>525</v>
       </c>
       <c r="B217" s="32">
@@ -13193,7 +13211,7 @@
       </c>
     </row>
     <row r="218" spans="1:15">
-      <c r="A218" s="54"/>
+      <c r="A218" s="51"/>
       <c r="B218" s="32">
         <v>43069</v>
       </c>
@@ -13238,7 +13256,7 @@
       </c>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="54"/>
+      <c r="A219" s="51"/>
       <c r="B219" s="32">
         <v>43069</v>
       </c>
@@ -13283,7 +13301,7 @@
       </c>
     </row>
     <row r="220" spans="1:15">
-      <c r="A220" s="54"/>
+      <c r="A220" s="51"/>
       <c r="B220" s="32">
         <v>43069</v>
       </c>
@@ -13314,13 +13332,13 @@
       <c r="K220" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L220" s="56" t="s">
+      <c r="L220" s="55" t="s">
         <v>534</v>
       </c>
       <c r="M220" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="N220" s="57" t="s">
+      <c r="N220" s="56" t="s">
         <v>535</v>
       </c>
       <c r="O220" s="7" t="s">
@@ -13328,7 +13346,7 @@
       </c>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="54"/>
+      <c r="A221" s="51"/>
       <c r="B221" s="32">
         <v>43069</v>
       </c>
@@ -13373,7 +13391,7 @@
       </c>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="54"/>
+      <c r="A222" s="51"/>
       <c r="B222" s="32">
         <v>43069</v>
       </c>
@@ -13418,7 +13436,7 @@
       </c>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="54"/>
+      <c r="A223" s="51"/>
       <c r="B223" s="32">
         <v>43069</v>
       </c>
@@ -13463,7 +13481,7 @@
       </c>
     </row>
     <row r="224" spans="1:15">
-      <c r="A224" s="54"/>
+      <c r="A224" s="51"/>
       <c r="B224" s="32">
         <v>43069</v>
       </c>
@@ -13508,7 +13526,7 @@
       </c>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="54"/>
+      <c r="A225" s="51"/>
       <c r="B225" s="32">
         <v>43069</v>
       </c>
@@ -13553,7 +13571,7 @@
       </c>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="55"/>
+      <c r="A226" s="52"/>
       <c r="B226" s="32">
         <v>43069</v>
       </c>
@@ -13603,14 +13621,96 @@
       <c r="O227" s="7"/>
     </row>
     <row r="228" spans="1:15">
-      <c r="A228" s="18"/>
-      <c r="N228" s="26"/>
-      <c r="O228" s="7"/>
+      <c r="A228" s="53" t="s">
+        <v>550</v>
+      </c>
+      <c r="B228" s="32">
+        <v>43077</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G228" s="7">
+        <v>76115060</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="I228" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J228" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K228" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L228" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="M228" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N228" s="26">
+        <v>18621830888</v>
+      </c>
+      <c r="O228" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="229" spans="1:15">
-      <c r="A229" s="18"/>
-      <c r="N229" s="26"/>
-      <c r="O229" s="7"/>
+      <c r="A229" s="54"/>
+      <c r="B229" s="32">
+        <v>43077</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G229" s="7">
+        <v>76112588</v>
+      </c>
+      <c r="H229" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="I229" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J229" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K229" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L229" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="M229" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N229" s="26">
+        <v>17753077700</v>
+      </c>
+      <c r="O229" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="18"/>
@@ -14932,16 +15032,17 @@
       <c r="A602" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A180:A199"/>
     <mergeCell ref="A201:A215"/>
     <mergeCell ref="A217:A226"/>
+    <mergeCell ref="A228:A229"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B227:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B230:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C227:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14970,13 +15071,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -14987,7 +15088,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14998,7 +15099,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -15009,7 +15110,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -15025,7 +15126,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -15036,7 +15137,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1875,6 +1875,12 @@
   </si>
   <si>
     <t>高彭</t>
+  </si>
+  <si>
+    <t>50周</t>
+  </si>
+  <si>
+    <t>查厘士(徐汇日月光店11)</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1903,10 +1909,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -1993,11 +1999,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2013,26 +2059,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2044,23 +2093,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2075,10 +2109,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2089,47 +2131,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2145,13 +2158,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2212,13 +2218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2230,7 +2236,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2242,55 +2368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2302,79 +2380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2714,6 +2720,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2724,30 +2741,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2764,26 +2757,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2806,6 +2779,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2817,10 +2823,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2829,149 +2835,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3131,29 +3137,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3161,20 +3149,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3677,440 +3659,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="103" t="s">
+      <c r="J2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="104" t="s">
+      <c r="K2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="105" t="s">
+      <c r="L2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="107" t="s">
+      <c r="N2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
-      <c r="B3" s="79" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82">
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="110" t="e">
+      <c r="J3" s="101"/>
+      <c r="K3" s="102" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="111">
+      <c r="L3" s="103">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="112">
+      <c r="M3" s="104">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="113" t="e">
+      <c r="N3" s="105" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88">
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="89">
+      <c r="G4" s="81"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="114"/>
-      <c r="K4" s="110" t="e">
+      <c r="J4" s="106"/>
+      <c r="K4" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="112">
+      <c r="M4" s="104">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="113" t="e">
+      <c r="N4" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88">
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="89">
+      <c r="G5" s="81"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="110" t="e">
+      <c r="J5" s="106"/>
+      <c r="K5" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="111">
+      <c r="L5" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="112">
+      <c r="M5" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="113" t="e">
+      <c r="N5" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88">
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="89">
+      <c r="G6" s="81"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="110" t="e">
+      <c r="J6" s="106"/>
+      <c r="K6" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="111">
+      <c r="L6" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="112">
+      <c r="M6" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="113" t="e">
+      <c r="N6" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88">
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="89">
+      <c r="G7" s="81"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="114"/>
-      <c r="K7" s="110" t="e">
+      <c r="J7" s="106"/>
+      <c r="K7" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="111">
+      <c r="L7" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="112">
+      <c r="M7" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="113" t="e">
+      <c r="N7" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88">
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="89">
+      <c r="G8" s="81"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="110" t="e">
+      <c r="J8" s="106"/>
+      <c r="K8" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="111">
+      <c r="L8" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="112">
+      <c r="M8" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="113" t="e">
+      <c r="N8" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88">
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="89">
+      <c r="G9" s="81"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="110" t="e">
+      <c r="J9" s="106"/>
+      <c r="K9" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="111">
+      <c r="L9" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="112">
+      <c r="M9" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="113" t="e">
+      <c r="N9" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="90" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93">
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="94">
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116" t="e">
+      <c r="J10" s="107"/>
+      <c r="K10" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="117">
+      <c r="L10" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="118">
+      <c r="M10" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="119" t="e">
+      <c r="N10" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="98" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="91">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="99">
+      <c r="H11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="100">
+      <c r="I11" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="99">
+      <c r="J11" s="91">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="120" t="e">
+      <c r="K11" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="100">
+      <c r="L11" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="100">
+      <c r="M11" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="121" t="e">
+      <c r="N11" s="113" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4128,10 +4110,10 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
+      <selection pane="bottomLeft" activeCell="N264" sqref="N264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8129,7 +8111,7 @@
       <c r="M95" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="122" t="s">
+      <c r="N95" s="114" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="13" t="s">
@@ -13534,13 +13516,13 @@
       <c r="K220" s="13">
         <v>17721436606</v>
       </c>
-      <c r="L220" s="63" t="s">
+      <c r="L220" s="57" t="s">
         <v>534</v>
       </c>
       <c r="M220" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="N220" s="64" t="s">
+      <c r="N220" s="58" t="s">
         <v>535</v>
       </c>
       <c r="O220" s="8" t="s">
@@ -13823,1084 +13805,1084 @@
       <c r="O227" s="8"/>
     </row>
     <row r="228" s="6" customFormat="1" spans="1:15">
-      <c r="A228" s="55" t="s">
+      <c r="A228" s="51" t="s">
         <v>550</v>
       </c>
-      <c r="B228" s="56">
+      <c r="B228" s="17">
         <v>43077</v>
       </c>
-      <c r="C228" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D228" s="57" t="s">
+      <c r="C228" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D228" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E228" s="57" t="s">
+      <c r="E228" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F228" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="G228" s="57">
+      <c r="F228" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G228" s="13">
         <v>76115060</v>
       </c>
-      <c r="H228" s="57" t="s">
+      <c r="H228" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="I228" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="J228" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="K228" s="57">
-        <v>17721436606</v>
-      </c>
-      <c r="L228" s="57" t="s">
+      <c r="I228" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J228" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K228" s="13">
+        <v>17721436606</v>
+      </c>
+      <c r="L228" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="M228" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N228" s="66">
+      <c r="M228" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N228" s="31">
         <v>18621830888</v>
       </c>
-      <c r="O228" s="57" t="s">
+      <c r="O228" s="13" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="229" s="6" customFormat="1" spans="1:15">
-      <c r="A229" s="58"/>
-      <c r="B229" s="56">
+      <c r="A229" s="52"/>
+      <c r="B229" s="17">
         <v>43077</v>
       </c>
-      <c r="C229" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D229" s="57" t="s">
+      <c r="C229" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D229" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="E229" s="57" t="s">
+      <c r="E229" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="F229" s="57" t="s">
+      <c r="F229" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="G229" s="57">
+      <c r="G229" s="13">
         <v>76112588</v>
       </c>
-      <c r="H229" s="57" t="s">
+      <c r="H229" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="I229" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="J229" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="K229" s="57">
-        <v>17721436606</v>
-      </c>
-      <c r="L229" s="57" t="s">
+      <c r="I229" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J229" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K229" s="13">
+        <v>17721436606</v>
+      </c>
+      <c r="L229" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="M229" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N229" s="66">
+      <c r="M229" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N229" s="31">
         <v>17753077700</v>
       </c>
-      <c r="O229" s="57" t="s">
+      <c r="O229" s="13" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="230" s="6" customFormat="1" spans="1:15">
-      <c r="A230" s="58"/>
-      <c r="B230" s="56">
+      <c r="A230" s="52"/>
+      <c r="B230" s="17">
         <v>43077</v>
       </c>
-      <c r="C230" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D230" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E230" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F230" s="60" t="s">
+      <c r="C230" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D230" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E230" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F230" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G230" s="60">
+      <c r="G230" s="40">
         <v>76111093</v>
       </c>
-      <c r="H230" s="60" t="s">
+      <c r="H230" s="40" t="s">
         <v>557</v>
       </c>
-      <c r="I230" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J230" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K230" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L230" s="60" t="s">
+      <c r="I230" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J230" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K230" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L230" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="M230" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N230" s="60">
+      <c r="M230" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N230" s="40">
         <v>13732588886</v>
       </c>
-      <c r="O230" s="59" t="s">
+      <c r="O230" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="231" s="6" customFormat="1" spans="1:15">
-      <c r="A231" s="58"/>
-      <c r="B231" s="56">
+      <c r="A231" s="52"/>
+      <c r="B231" s="17">
         <v>43077</v>
       </c>
-      <c r="C231" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D231" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E231" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F231" s="60" t="s">
+      <c r="C231" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D231" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E231" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F231" s="40" t="s">
         <v>559</v>
       </c>
-      <c r="G231" s="60">
+      <c r="G231" s="40">
         <v>76109756</v>
       </c>
-      <c r="H231" s="61" t="s">
+      <c r="H231" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="I231" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J231" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K231" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L231" s="68" t="s">
+      <c r="I231" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J231" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K231" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L231" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="M231" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N231" s="61">
+      <c r="M231" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N231" s="45">
         <v>13807599790</v>
       </c>
-      <c r="O231" s="59" t="s">
+      <c r="O231" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="232" s="6" customFormat="1" spans="1:15">
-      <c r="A232" s="58"/>
-      <c r="B232" s="56">
+      <c r="A232" s="52"/>
+      <c r="B232" s="17">
         <v>43077</v>
       </c>
-      <c r="C232" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D232" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E232" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F232" s="60" t="s">
+      <c r="C232" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D232" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E232" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F232" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="G232" s="60">
+      <c r="G232" s="40">
         <v>76110188</v>
       </c>
-      <c r="H232" s="61" t="s">
+      <c r="H232" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="I232" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J232" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K232" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L232" s="60" t="s">
+      <c r="I232" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J232" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K232" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L232" s="40" t="s">
         <v>563</v>
       </c>
-      <c r="M232" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N232" s="60">
+      <c r="M232" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N232" s="40">
         <v>15351992995</v>
       </c>
-      <c r="O232" s="59" t="s">
+      <c r="O232" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="233" s="6" customFormat="1" spans="1:15">
-      <c r="A233" s="58"/>
-      <c r="B233" s="56">
+      <c r="A233" s="52"/>
+      <c r="B233" s="17">
         <v>43077</v>
       </c>
-      <c r="C233" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D233" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E233" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F233" s="60" t="s">
+      <c r="C233" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D233" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E233" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F233" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="G233" s="60">
+      <c r="G233" s="40">
         <v>76110321</v>
       </c>
-      <c r="H233" s="61" t="s">
+      <c r="H233" s="45" t="s">
         <v>565</v>
       </c>
-      <c r="I233" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J233" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K233" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L233" s="60" t="s">
+      <c r="I233" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J233" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K233" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L233" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="M233" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N233" s="60">
+      <c r="M233" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N233" s="40">
         <v>18356111981</v>
       </c>
-      <c r="O233" s="59" t="s">
+      <c r="O233" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="234" s="6" customFormat="1" spans="1:15">
-      <c r="A234" s="58"/>
-      <c r="B234" s="56">
+      <c r="A234" s="52"/>
+      <c r="B234" s="17">
         <v>43077</v>
       </c>
-      <c r="C234" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D234" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E234" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F234" s="60" t="s">
+      <c r="C234" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D234" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E234" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F234" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G234" s="60">
+      <c r="G234" s="40">
         <v>76110778</v>
       </c>
-      <c r="H234" s="61" t="s">
+      <c r="H234" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="I234" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J234" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K234" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L234" s="60" t="s">
+      <c r="I234" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J234" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K234" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L234" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="M234" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N234" s="60">
+      <c r="M234" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N234" s="40">
         <v>15068360668</v>
       </c>
-      <c r="O234" s="59" t="s">
+      <c r="O234" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="235" s="6" customFormat="1" spans="1:15">
-      <c r="A235" s="58"/>
-      <c r="B235" s="56">
+      <c r="A235" s="52"/>
+      <c r="B235" s="17">
         <v>43077</v>
       </c>
-      <c r="C235" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D235" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E235" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F235" s="60" t="s">
+      <c r="C235" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D235" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E235" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F235" s="40" t="s">
         <v>569</v>
       </c>
-      <c r="G235" s="60">
+      <c r="G235" s="40">
         <v>76111510</v>
       </c>
-      <c r="H235" s="61" t="s">
+      <c r="H235" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="I235" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J235" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K235" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L235" s="60" t="s">
+      <c r="I235" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J235" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K235" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L235" s="40" t="s">
         <v>571</v>
       </c>
-      <c r="M235" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N235" s="60">
+      <c r="M235" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N235" s="40">
         <v>18555105720</v>
       </c>
-      <c r="O235" s="59" t="s">
+      <c r="O235" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="236" s="6" customFormat="1" spans="1:15">
-      <c r="A236" s="58"/>
-      <c r="B236" s="56">
+      <c r="A236" s="52"/>
+      <c r="B236" s="17">
         <v>43077</v>
       </c>
-      <c r="C236" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D236" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E236" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F236" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="G236" s="60">
+      <c r="C236" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D236" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E236" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F236" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G236" s="40">
         <v>76111511</v>
       </c>
-      <c r="H236" s="61" t="s">
+      <c r="H236" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="I236" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J236" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K236" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L236" s="60" t="s">
+      <c r="I236" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J236" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K236" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L236" s="40" t="s">
         <v>573</v>
       </c>
-      <c r="M236" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N236" s="60">
+      <c r="M236" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N236" s="40">
         <v>13162280322</v>
       </c>
-      <c r="O236" s="59" t="s">
+      <c r="O236" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="237" s="6" customFormat="1" spans="1:15">
-      <c r="A237" s="58"/>
-      <c r="B237" s="56">
+      <c r="A237" s="52"/>
+      <c r="B237" s="17">
         <v>43077</v>
       </c>
-      <c r="C237" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D237" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E237" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F237" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="G237" s="60">
+      <c r="C237" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D237" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E237" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F237" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G237" s="40">
         <v>76111516</v>
       </c>
-      <c r="H237" s="61" t="s">
+      <c r="H237" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="I237" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J237" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K237" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L237" s="60" t="s">
+      <c r="I237" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J237" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K237" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L237" s="40" t="s">
         <v>575</v>
       </c>
-      <c r="M237" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N237" s="60">
+      <c r="M237" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N237" s="40">
         <v>13651942178</v>
       </c>
-      <c r="O237" s="59" t="s">
+      <c r="O237" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="238" s="6" customFormat="1" spans="1:15">
-      <c r="A238" s="58"/>
-      <c r="B238" s="56">
+      <c r="A238" s="52"/>
+      <c r="B238" s="17">
         <v>43077</v>
       </c>
-      <c r="C238" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D238" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E238" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F238" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="G238" s="60">
+      <c r="C238" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D238" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E238" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F238" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G238" s="40">
         <v>76111580</v>
       </c>
-      <c r="H238" s="61" t="s">
+      <c r="H238" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="I238" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J238" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K238" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L238" s="69" t="s">
+      <c r="I238" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J238" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K238" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L238" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="M238" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N238" s="69">
+      <c r="M238" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N238" s="60">
         <v>18817298582</v>
       </c>
-      <c r="O238" s="59" t="s">
+      <c r="O238" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="239" s="6" customFormat="1" spans="1:15">
-      <c r="A239" s="58"/>
-      <c r="B239" s="56">
+      <c r="A239" s="52"/>
+      <c r="B239" s="17">
         <v>43077</v>
       </c>
-      <c r="C239" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D239" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E239" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F239" s="60" t="s">
+      <c r="C239" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D239" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E239" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F239" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="G239" s="60">
+      <c r="G239" s="40">
         <v>76111933</v>
       </c>
-      <c r="H239" s="61" t="s">
+      <c r="H239" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="I239" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J239" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K239" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L239" s="68" t="s">
+      <c r="I239" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J239" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K239" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L239" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="M239" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N239" s="60">
+      <c r="M239" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N239" s="40">
         <v>13914295927</v>
       </c>
-      <c r="O239" s="59" t="s">
+      <c r="O239" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="240" s="6" customFormat="1" spans="1:15">
-      <c r="A240" s="58"/>
-      <c r="B240" s="56">
+      <c r="A240" s="52"/>
+      <c r="B240" s="17">
         <v>43077</v>
       </c>
-      <c r="C240" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D240" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E240" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F240" s="60" t="s">
+      <c r="C240" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D240" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E240" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F240" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G240" s="60">
+      <c r="G240" s="40">
         <v>76112636</v>
       </c>
-      <c r="H240" s="60" t="s">
+      <c r="H240" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="I240" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J240" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K240" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L240" s="60" t="s">
+      <c r="I240" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J240" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K240" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L240" s="40" t="s">
         <v>580</v>
       </c>
-      <c r="M240" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N240" s="60">
+      <c r="M240" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N240" s="40">
         <v>13913615398</v>
       </c>
-      <c r="O240" s="59" t="s">
+      <c r="O240" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="241" s="6" customFormat="1" spans="1:15">
-      <c r="A241" s="58"/>
-      <c r="B241" s="56">
+      <c r="A241" s="52"/>
+      <c r="B241" s="17">
         <v>43077</v>
       </c>
-      <c r="C241" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D241" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E241" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F241" s="60" t="s">
+      <c r="C241" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D241" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E241" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F241" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="G241" s="60">
+      <c r="G241" s="40">
         <v>76112678</v>
       </c>
-      <c r="H241" s="60" t="s">
+      <c r="H241" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="I241" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J241" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K241" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L241" s="68" t="s">
+      <c r="I241" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J241" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K241" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L241" s="59" t="s">
         <v>583</v>
       </c>
-      <c r="M241" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N241" s="61">
+      <c r="M241" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N241" s="45">
         <v>13736699998</v>
       </c>
-      <c r="O241" s="59" t="s">
+      <c r="O241" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="242" s="6" customFormat="1" spans="1:15">
-      <c r="A242" s="58"/>
-      <c r="B242" s="56">
+      <c r="A242" s="52"/>
+      <c r="B242" s="17">
         <v>43077</v>
       </c>
-      <c r="C242" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D242" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E242" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F242" s="60" t="s">
+      <c r="C242" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D242" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E242" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F242" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G242" s="60">
+      <c r="G242" s="40">
         <v>76111968</v>
       </c>
-      <c r="H242" s="60" t="s">
+      <c r="H242" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="I242" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J242" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K242" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L242" s="68" t="s">
+      <c r="I242" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J242" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K242" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L242" s="59" t="s">
         <v>584</v>
       </c>
-      <c r="M242" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N242" s="68">
+      <c r="M242" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N242" s="59">
         <v>15950483577</v>
       </c>
-      <c r="O242" s="59" t="s">
+      <c r="O242" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="243" s="6" customFormat="1" spans="1:15">
-      <c r="A243" s="58"/>
-      <c r="B243" s="56">
+      <c r="A243" s="52"/>
+      <c r="B243" s="17">
         <v>43077</v>
       </c>
-      <c r="C243" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D243" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E243" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F243" s="60" t="s">
+      <c r="C243" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D243" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E243" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F243" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="G243" s="60">
+      <c r="G243" s="40">
         <v>76112769</v>
       </c>
-      <c r="H243" s="60" t="s">
+      <c r="H243" s="40" t="s">
         <v>585</v>
       </c>
-      <c r="I243" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J243" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K243" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L243" s="60" t="s">
+      <c r="I243" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J243" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K243" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L243" s="40" t="s">
         <v>586</v>
       </c>
-      <c r="M243" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N243" s="60">
+      <c r="M243" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N243" s="40">
         <v>13861046978</v>
       </c>
-      <c r="O243" s="59" t="s">
+      <c r="O243" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="244" s="6" customFormat="1" spans="1:15">
-      <c r="A244" s="58"/>
-      <c r="B244" s="56">
+      <c r="A244" s="52"/>
+      <c r="B244" s="17">
         <v>43077</v>
       </c>
-      <c r="C244" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D244" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E244" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F244" s="60" t="s">
+      <c r="C244" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D244" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E244" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F244" s="40" t="s">
         <v>587</v>
       </c>
-      <c r="G244" s="60">
+      <c r="G244" s="40">
         <v>76113089</v>
       </c>
-      <c r="H244" s="61" t="s">
+      <c r="H244" s="45" t="s">
         <v>588</v>
       </c>
-      <c r="I244" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J244" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K244" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L244" s="60" t="s">
+      <c r="I244" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J244" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K244" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L244" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="M244" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N244" s="60">
+      <c r="M244" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N244" s="40">
         <v>15988573306</v>
       </c>
-      <c r="O244" s="59" t="s">
+      <c r="O244" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="245" s="6" customFormat="1" spans="1:15">
-      <c r="A245" s="58"/>
-      <c r="B245" s="56">
+      <c r="A245" s="52"/>
+      <c r="B245" s="17">
         <v>43077</v>
       </c>
-      <c r="C245" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D245" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E245" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F245" s="60" t="s">
+      <c r="C245" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D245" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E245" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F245" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="G245" s="60">
+      <c r="G245" s="40">
         <v>76113091</v>
       </c>
-      <c r="H245" s="61" t="s">
+      <c r="H245" s="45" t="s">
         <v>590</v>
       </c>
-      <c r="I245" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J245" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K245" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L245" s="60" t="s">
+      <c r="I245" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J245" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K245" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L245" s="40" t="s">
         <v>591</v>
       </c>
-      <c r="M245" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N245" s="60">
+      <c r="M245" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N245" s="40">
         <v>13205539699</v>
       </c>
-      <c r="O245" s="59" t="s">
+      <c r="O245" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="246" s="6" customFormat="1" spans="1:15">
-      <c r="A246" s="58"/>
-      <c r="B246" s="56">
+      <c r="A246" s="52"/>
+      <c r="B246" s="17">
         <v>43077</v>
       </c>
-      <c r="C246" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D246" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E246" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F246" s="60" t="s">
+      <c r="C246" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D246" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E246" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F246" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G246" s="60">
+      <c r="G246" s="40">
         <v>76113280</v>
       </c>
-      <c r="H246" s="61" t="s">
+      <c r="H246" s="45" t="s">
         <v>592</v>
       </c>
-      <c r="I246" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J246" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K246" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L246" s="60" t="s">
+      <c r="I246" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J246" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K246" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L246" s="40" t="s">
         <v>593</v>
       </c>
-      <c r="M246" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N246" s="60">
+      <c r="M246" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N246" s="40">
         <v>13003386260</v>
       </c>
-      <c r="O246" s="59" t="s">
+      <c r="O246" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="247" s="6" customFormat="1" spans="1:15">
-      <c r="A247" s="58"/>
-      <c r="B247" s="56">
+      <c r="A247" s="52"/>
+      <c r="B247" s="17">
         <v>43077</v>
       </c>
-      <c r="C247" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D247" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E247" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F247" s="60" t="s">
+      <c r="C247" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D247" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E247" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F247" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G247" s="60">
+      <c r="G247" s="40">
         <v>76113305</v>
       </c>
-      <c r="H247" s="61" t="s">
+      <c r="H247" s="45" t="s">
         <v>594</v>
       </c>
-      <c r="I247" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J247" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K247" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L247" s="68" t="s">
+      <c r="I247" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J247" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K247" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L247" s="59" t="s">
         <v>595</v>
       </c>
-      <c r="M247" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N247" s="68">
+      <c r="M247" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N247" s="59">
         <v>18114928177</v>
       </c>
-      <c r="O247" s="59" t="s">
+      <c r="O247" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="248" s="6" customFormat="1" spans="1:15">
-      <c r="A248" s="58"/>
-      <c r="B248" s="56">
+      <c r="A248" s="52"/>
+      <c r="B248" s="17">
         <v>43077</v>
       </c>
-      <c r="C248" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D248" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E248" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F248" s="60" t="s">
+      <c r="C248" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D248" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E248" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F248" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="G248" s="60">
+      <c r="G248" s="40">
         <v>76113311</v>
       </c>
-      <c r="H248" s="61" t="s">
+      <c r="H248" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="I248" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J248" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K248" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L248" s="60" t="s">
+      <c r="I248" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J248" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K248" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L248" s="40" t="s">
         <v>597</v>
       </c>
-      <c r="M248" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N248" s="60">
+      <c r="M248" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N248" s="40">
         <v>15727273620</v>
       </c>
-      <c r="O248" s="59" t="s">
+      <c r="O248" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="249" s="6" customFormat="1" spans="1:15">
-      <c r="A249" s="58"/>
-      <c r="B249" s="56">
+      <c r="A249" s="52"/>
+      <c r="B249" s="17">
         <v>43077</v>
       </c>
-      <c r="C249" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D249" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E249" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F249" s="60" t="s">
+      <c r="C249" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D249" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E249" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F249" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="G249" s="60">
+      <c r="G249" s="40">
         <v>76113900</v>
       </c>
-      <c r="H249" s="61" t="s">
+      <c r="H249" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="I249" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J249" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K249" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L249" s="60" t="s">
+      <c r="I249" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J249" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K249" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L249" s="40" t="s">
         <v>599</v>
       </c>
-      <c r="M249" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N249" s="60">
+      <c r="M249" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N249" s="40">
         <v>18020558055</v>
       </c>
-      <c r="O249" s="59" t="s">
+      <c r="O249" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="250" s="6" customFormat="1" spans="1:15">
-      <c r="A250" s="58"/>
-      <c r="B250" s="56">
+      <c r="A250" s="52"/>
+      <c r="B250" s="17">
         <v>43077</v>
       </c>
-      <c r="C250" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D250" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E250" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F250" s="60" t="s">
+      <c r="C250" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D250" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E250" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F250" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="G250" s="60">
+      <c r="G250" s="40">
         <v>76113977</v>
       </c>
-      <c r="H250" s="61" t="s">
+      <c r="H250" s="45" t="s">
         <v>600</v>
       </c>
-      <c r="I250" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J250" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K250" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L250" s="60" t="s">
+      <c r="I250" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J250" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K250" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L250" s="40" t="s">
         <v>601</v>
       </c>
-      <c r="M250" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N250" s="60">
+      <c r="M250" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N250" s="40">
         <v>18505129981</v>
       </c>
-      <c r="O250" s="59" t="s">
+      <c r="O250" s="43" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="251" s="6" customFormat="1" spans="1:15">
-      <c r="A251" s="62"/>
-      <c r="B251" s="56">
+      <c r="A251" s="53"/>
+      <c r="B251" s="17">
         <v>43077</v>
       </c>
-      <c r="C251" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D251" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E251" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F251" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="G251" s="60">
+      <c r="C251" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D251" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E251" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F251" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G251" s="40">
         <v>76115020</v>
       </c>
-      <c r="H251" s="61" t="s">
+      <c r="H251" s="45" t="s">
         <v>602</v>
       </c>
-      <c r="I251" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="J251" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="K251" s="59">
-        <v>17721436606</v>
-      </c>
-      <c r="L251" s="60" t="s">
+      <c r="I251" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J251" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K251" s="43">
+        <v>17721436606</v>
+      </c>
+      <c r="L251" s="40" t="s">
         <v>603</v>
       </c>
-      <c r="M251" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="N251" s="60">
+      <c r="M251" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N251" s="40">
         <v>17316386122</v>
       </c>
-      <c r="O251" s="59" t="s">
+      <c r="O251" s="43" t="s">
         <v>451</v>
       </c>
     </row>
@@ -14909,43 +14891,85 @@
       <c r="N252" s="27"/>
       <c r="O252" s="8"/>
     </row>
-    <row r="253" spans="1:15">
-      <c r="A253" s="19"/>
-      <c r="N253" s="27"/>
-      <c r="O253" s="8"/>
+    <row r="253" s="5" customFormat="1" spans="1:15">
+      <c r="A253" s="55" t="s">
+        <v>604</v>
+      </c>
+      <c r="B253" s="17">
+        <v>43082</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D253" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G253" s="8">
+        <v>76113852</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="I253" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J253" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K253" s="13">
+        <v>17721436606</v>
+      </c>
+      <c r="L253" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M253" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N253" s="27">
+        <v>18016233560</v>
+      </c>
+      <c r="O253" s="8" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="254" spans="1:15">
-      <c r="A254" s="19"/>
+      <c r="A254" s="56"/>
       <c r="N254" s="27"/>
       <c r="O254" s="8"/>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="19"/>
+      <c r="A255" s="56"/>
       <c r="N255" s="27"/>
       <c r="O255" s="8"/>
     </row>
     <row r="256" spans="1:15">
-      <c r="A256" s="19"/>
+      <c r="A256" s="56"/>
       <c r="N256" s="27"/>
       <c r="O256" s="8"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="19"/>
+      <c r="A257" s="56"/>
       <c r="N257" s="27"/>
       <c r="O257" s="8"/>
     </row>
     <row r="258" spans="1:15">
-      <c r="A258" s="19"/>
+      <c r="A258" s="56"/>
       <c r="N258" s="27"/>
       <c r="O258" s="8"/>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="19"/>
+      <c r="A259" s="56"/>
       <c r="N259" s="27"/>
       <c r="O259" s="8"/>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="19"/>
+      <c r="A260" s="61"/>
       <c r="N260" s="27"/>
       <c r="O260" s="8"/>
     </row>
@@ -16114,17 +16138,18 @@
       <c r="A602" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A180:A199"/>
     <mergeCell ref="A201:A215"/>
     <mergeCell ref="A217:A226"/>
     <mergeCell ref="A228:A251"/>
+    <mergeCell ref="A253:A260"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B252:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B254:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C252:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C254:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16153,13 +16178,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16170,7 +16195,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16181,7 +16206,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16192,7 +16217,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16208,7 +16233,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16219,7 +16244,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1902,6 +1902,15 @@
   </si>
   <si>
     <t>捞王锅物料理(苏州中心店)上线</t>
+  </si>
+  <si>
+    <t>查厘士(日月光店)上线</t>
+  </si>
+  <si>
+    <t>粉那么浓(徐汇日月光店）开业驻店</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(五角场万达店）上线</t>
   </si>
 </sst>
 </file>
@@ -1909,10 +1918,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -2000,51 +2009,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2059,29 +2023,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2093,8 +2054,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2109,6 +2085,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2116,9 +2108,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2131,21 +2151,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2153,11 +2158,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2218,7 +2227,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2230,25 +2365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2260,31 +2377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2296,91 +2389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,17 +2729,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2741,6 +2739,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2757,6 +2779,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2779,39 +2821,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2823,10 +2832,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2835,82 +2844,118 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2919,65 +2964,29 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3140,9 +3149,6 @@
     <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3154,9 +3160,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3659,440 +3662,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="99" t="s">
+      <c r="N2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="64"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74">
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102" t="e">
+      <c r="J3" s="99"/>
+      <c r="K3" s="100" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="103">
+      <c r="L3" s="101">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="104">
+      <c r="M3" s="102">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="105" t="e">
+      <c r="N3" s="103" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80">
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="81">
+      <c r="G4" s="79"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="102" t="e">
+      <c r="J4" s="104"/>
+      <c r="K4" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="103">
+      <c r="L4" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="104">
+      <c r="M4" s="102">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="105" t="e">
+      <c r="N4" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80">
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="81">
+      <c r="G5" s="79"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="102" t="e">
+      <c r="J5" s="104"/>
+      <c r="K5" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="103">
+      <c r="L5" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="104">
+      <c r="M5" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="105" t="e">
+      <c r="N5" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80">
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="81">
+      <c r="G6" s="79"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="102" t="e">
+      <c r="J6" s="104"/>
+      <c r="K6" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="104">
+      <c r="M6" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="105" t="e">
+      <c r="N6" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="81">
+      <c r="G7" s="79"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="102" t="e">
+      <c r="J7" s="104"/>
+      <c r="K7" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="104">
+      <c r="M7" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="105" t="e">
+      <c r="N7" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80">
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="81">
+      <c r="G8" s="79"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="106"/>
-      <c r="K8" s="102" t="e">
+      <c r="J8" s="104"/>
+      <c r="K8" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="104">
+      <c r="M8" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="105" t="e">
+      <c r="N8" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80">
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="81">
+      <c r="G9" s="79"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="102" t="e">
+      <c r="J9" s="104"/>
+      <c r="K9" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="103">
+      <c r="L9" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="104">
+      <c r="M9" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="105" t="e">
+      <c r="N9" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="82" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85">
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86">
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108" t="e">
+      <c r="J10" s="105"/>
+      <c r="K10" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="109">
+      <c r="L10" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="110">
+      <c r="M10" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="111" t="e">
+      <c r="N10" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="89">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="89">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="112" t="e">
+      <c r="K11" s="110" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="90">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="92">
+      <c r="M11" s="90">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="113" t="e">
+      <c r="N11" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4110,7 +4113,7 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="N264" sqref="N264"/>
@@ -8111,7 +8114,7 @@
       <c r="M95" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="114" t="s">
+      <c r="N95" s="112" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="13" t="s">
@@ -13516,13 +13519,13 @@
       <c r="K220" s="13">
         <v>17721436606</v>
       </c>
-      <c r="L220" s="57" t="s">
+      <c r="L220" s="56" t="s">
         <v>534</v>
       </c>
       <c r="M220" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="N220" s="58" t="s">
+      <c r="N220" s="57" t="s">
         <v>535</v>
       </c>
       <c r="O220" s="8" t="s">
@@ -13973,7 +13976,7 @@
       <c r="K231" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L231" s="59" t="s">
+      <c r="L231" s="58" t="s">
         <v>561</v>
       </c>
       <c r="M231" s="13" t="s">
@@ -14288,13 +14291,13 @@
       <c r="K238" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L238" s="60" t="s">
+      <c r="L238" s="59" t="s">
         <v>577</v>
       </c>
       <c r="M238" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N238" s="60">
+      <c r="N238" s="59">
         <v>18817298582</v>
       </c>
       <c r="O238" s="43" t="s">
@@ -14333,7 +14336,7 @@
       <c r="K239" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L239" s="59" t="s">
+      <c r="L239" s="58" t="s">
         <v>332</v>
       </c>
       <c r="M239" s="13" t="s">
@@ -14423,7 +14426,7 @@
       <c r="K241" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L241" s="59" t="s">
+      <c r="L241" s="58" t="s">
         <v>583</v>
       </c>
       <c r="M241" s="13" t="s">
@@ -14468,13 +14471,13 @@
       <c r="K242" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L242" s="59" t="s">
+      <c r="L242" s="58" t="s">
         <v>584</v>
       </c>
       <c r="M242" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N242" s="59">
+      <c r="N242" s="58">
         <v>15950483577</v>
       </c>
       <c r="O242" s="43" t="s">
@@ -14693,13 +14696,13 @@
       <c r="K247" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L247" s="59" t="s">
+      <c r="L247" s="58" t="s">
         <v>595</v>
       </c>
       <c r="M247" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N247" s="59">
+      <c r="N247" s="58">
         <v>18114928177</v>
       </c>
       <c r="O247" s="43" t="s">
@@ -14939,37 +14942,37 @@
       </c>
     </row>
     <row r="254" spans="1:15">
-      <c r="A254" s="56"/>
+      <c r="A254" s="44"/>
       <c r="N254" s="27"/>
       <c r="O254" s="8"/>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="56"/>
+      <c r="A255" s="44"/>
       <c r="N255" s="27"/>
       <c r="O255" s="8"/>
     </row>
     <row r="256" spans="1:15">
-      <c r="A256" s="56"/>
+      <c r="A256" s="44"/>
       <c r="N256" s="27"/>
       <c r="O256" s="8"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="56"/>
+      <c r="A257" s="44"/>
       <c r="N257" s="27"/>
       <c r="O257" s="8"/>
     </row>
     <row r="258" spans="1:15">
-      <c r="A258" s="56"/>
+      <c r="A258" s="44"/>
       <c r="N258" s="27"/>
       <c r="O258" s="8"/>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="56"/>
+      <c r="A259" s="44"/>
       <c r="N259" s="27"/>
       <c r="O259" s="8"/>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="61"/>
+      <c r="A260" s="50"/>
       <c r="N260" s="27"/>
       <c r="O260" s="8"/>
     </row>
@@ -16165,8 +16168,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -16253,19 +16256,37 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43079</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43085</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43092</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="加班明细表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$A$1:$O$602</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$A$1:$O$589</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1715,7 +1715,7 @@
     <t>苏海燕</t>
   </si>
   <si>
-    <t>49周</t>
+    <t>50周</t>
   </si>
   <si>
     <t>遇见王者(松江荣乐店)</t>
@@ -1875,9 +1875,6 @@
   </si>
   <si>
     <t>高彭</t>
-  </si>
-  <si>
-    <t>50周</t>
   </si>
   <si>
     <t>查厘士(徐汇日月光店11)</t>
@@ -1918,11 +1915,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2009,7 +2006,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2038,9 +2049,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2054,23 +2091,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2092,30 +2147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -2124,42 +2155,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2227,7 +2224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2245,13 +2260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2263,31 +2278,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2305,7 +2320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2323,43 +2338,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,19 +2374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,6 +2726,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2749,6 +2770,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2782,60 +2823,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2844,7 +2841,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2853,7 +2850,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2862,123 +2859,123 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -2986,7 +2983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3146,8 +3143,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3662,440 +3665,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="K2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="96" t="s">
+      <c r="M2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="62"/>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72">
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100" t="e">
+      <c r="J3" s="101"/>
+      <c r="K3" s="102" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="101">
+      <c r="L3" s="103">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="102">
+      <c r="M3" s="104">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="103" t="e">
+      <c r="N3" s="105" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78">
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="79">
+      <c r="G4" s="81"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="104"/>
-      <c r="K4" s="100" t="e">
+      <c r="J4" s="106"/>
+      <c r="K4" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="101">
+      <c r="L4" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="102">
+      <c r="M4" s="104">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="103" t="e">
+      <c r="N4" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78">
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="79">
+      <c r="G5" s="81"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="104"/>
-      <c r="K5" s="100" t="e">
+      <c r="J5" s="106"/>
+      <c r="K5" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="101">
+      <c r="L5" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="102">
+      <c r="M5" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="103" t="e">
+      <c r="N5" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78">
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="79">
+      <c r="G6" s="81"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="104"/>
-      <c r="K6" s="100" t="e">
+      <c r="J6" s="106"/>
+      <c r="K6" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="101">
+      <c r="L6" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="102">
+      <c r="M6" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="103" t="e">
+      <c r="N6" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78">
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="79">
+      <c r="G7" s="81"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="100" t="e">
+      <c r="J7" s="106"/>
+      <c r="K7" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="101">
+      <c r="L7" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="102">
+      <c r="M7" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="103" t="e">
+      <c r="N7" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78">
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="79">
+      <c r="G8" s="81"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="100" t="e">
+      <c r="J8" s="106"/>
+      <c r="K8" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="103" t="e">
+      <c r="N8" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78">
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="79">
+      <c r="G9" s="81"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="100" t="e">
+      <c r="J9" s="106"/>
+      <c r="K9" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="101">
+      <c r="L9" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="102">
+      <c r="M9" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="103" t="e">
+      <c r="N9" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="80" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83">
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="84">
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="106" t="e">
+      <c r="J10" s="107"/>
+      <c r="K10" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="107">
+      <c r="L10" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="108">
+      <c r="M10" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="109" t="e">
+      <c r="N10" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="91">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="91">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="110" t="e">
+      <c r="K11" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="90">
+      <c r="L11" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="90">
+      <c r="M11" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="111" t="e">
+      <c r="N11" s="113" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4111,12 +4114,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O602"/>
+  <dimension ref="A1:O589"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N264" sqref="N264"/>
+      <selection pane="bottomLeft" activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8114,7 +8117,7 @@
       <c r="M95" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="112" t="s">
+      <c r="N95" s="114" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="13" t="s">
@@ -13519,13 +13522,13 @@
       <c r="K220" s="13">
         <v>17721436606</v>
       </c>
-      <c r="L220" s="56" t="s">
+      <c r="L220" s="58" t="s">
         <v>534</v>
       </c>
       <c r="M220" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="N220" s="57" t="s">
+      <c r="N220" s="59" t="s">
         <v>535</v>
       </c>
       <c r="O220" s="8" t="s">
@@ -13808,7 +13811,7 @@
       <c r="O227" s="8"/>
     </row>
     <row r="228" s="6" customFormat="1" spans="1:15">
-      <c r="A228" s="51" t="s">
+      <c r="A228" s="55" t="s">
         <v>550</v>
       </c>
       <c r="B228" s="17">
@@ -13855,7 +13858,7 @@
       </c>
     </row>
     <row r="229" s="6" customFormat="1" spans="1:15">
-      <c r="A229" s="52"/>
+      <c r="A229" s="56"/>
       <c r="B229" s="17">
         <v>43077</v>
       </c>
@@ -13900,7 +13903,7 @@
       </c>
     </row>
     <row r="230" s="6" customFormat="1" spans="1:15">
-      <c r="A230" s="52"/>
+      <c r="A230" s="56"/>
       <c r="B230" s="17">
         <v>43077</v>
       </c>
@@ -13945,7 +13948,7 @@
       </c>
     </row>
     <row r="231" s="6" customFormat="1" spans="1:15">
-      <c r="A231" s="52"/>
+      <c r="A231" s="56"/>
       <c r="B231" s="17">
         <v>43077</v>
       </c>
@@ -13976,7 +13979,7 @@
       <c r="K231" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L231" s="58" t="s">
+      <c r="L231" s="60" t="s">
         <v>561</v>
       </c>
       <c r="M231" s="13" t="s">
@@ -13990,7 +13993,7 @@
       </c>
     </row>
     <row r="232" s="6" customFormat="1" spans="1:15">
-      <c r="A232" s="52"/>
+      <c r="A232" s="56"/>
       <c r="B232" s="17">
         <v>43077</v>
       </c>
@@ -14035,7 +14038,7 @@
       </c>
     </row>
     <row r="233" s="6" customFormat="1" spans="1:15">
-      <c r="A233" s="52"/>
+      <c r="A233" s="56"/>
       <c r="B233" s="17">
         <v>43077</v>
       </c>
@@ -14080,7 +14083,7 @@
       </c>
     </row>
     <row r="234" s="6" customFormat="1" spans="1:15">
-      <c r="A234" s="52"/>
+      <c r="A234" s="56"/>
       <c r="B234" s="17">
         <v>43077</v>
       </c>
@@ -14125,7 +14128,7 @@
       </c>
     </row>
     <row r="235" s="6" customFormat="1" spans="1:15">
-      <c r="A235" s="52"/>
+      <c r="A235" s="56"/>
       <c r="B235" s="17">
         <v>43077</v>
       </c>
@@ -14170,7 +14173,7 @@
       </c>
     </row>
     <row r="236" s="6" customFormat="1" spans="1:15">
-      <c r="A236" s="52"/>
+      <c r="A236" s="56"/>
       <c r="B236" s="17">
         <v>43077</v>
       </c>
@@ -14215,7 +14218,7 @@
       </c>
     </row>
     <row r="237" s="6" customFormat="1" spans="1:15">
-      <c r="A237" s="52"/>
+      <c r="A237" s="56"/>
       <c r="B237" s="17">
         <v>43077</v>
       </c>
@@ -14260,7 +14263,7 @@
       </c>
     </row>
     <row r="238" s="6" customFormat="1" spans="1:15">
-      <c r="A238" s="52"/>
+      <c r="A238" s="56"/>
       <c r="B238" s="17">
         <v>43077</v>
       </c>
@@ -14291,13 +14294,13 @@
       <c r="K238" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L238" s="59" t="s">
+      <c r="L238" s="61" t="s">
         <v>577</v>
       </c>
       <c r="M238" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N238" s="59">
+      <c r="N238" s="61">
         <v>18817298582</v>
       </c>
       <c r="O238" s="43" t="s">
@@ -14305,7 +14308,7 @@
       </c>
     </row>
     <row r="239" s="6" customFormat="1" spans="1:15">
-      <c r="A239" s="52"/>
+      <c r="A239" s="56"/>
       <c r="B239" s="17">
         <v>43077</v>
       </c>
@@ -14336,7 +14339,7 @@
       <c r="K239" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L239" s="58" t="s">
+      <c r="L239" s="60" t="s">
         <v>332</v>
       </c>
       <c r="M239" s="13" t="s">
@@ -14350,7 +14353,7 @@
       </c>
     </row>
     <row r="240" s="6" customFormat="1" spans="1:15">
-      <c r="A240" s="52"/>
+      <c r="A240" s="56"/>
       <c r="B240" s="17">
         <v>43077</v>
       </c>
@@ -14395,7 +14398,7 @@
       </c>
     </row>
     <row r="241" s="6" customFormat="1" spans="1:15">
-      <c r="A241" s="52"/>
+      <c r="A241" s="56"/>
       <c r="B241" s="17">
         <v>43077</v>
       </c>
@@ -14426,7 +14429,7 @@
       <c r="K241" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L241" s="58" t="s">
+      <c r="L241" s="60" t="s">
         <v>583</v>
       </c>
       <c r="M241" s="13" t="s">
@@ -14440,7 +14443,7 @@
       </c>
     </row>
     <row r="242" s="6" customFormat="1" spans="1:15">
-      <c r="A242" s="52"/>
+      <c r="A242" s="56"/>
       <c r="B242" s="17">
         <v>43077</v>
       </c>
@@ -14471,13 +14474,13 @@
       <c r="K242" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L242" s="58" t="s">
+      <c r="L242" s="60" t="s">
         <v>584</v>
       </c>
       <c r="M242" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N242" s="58">
+      <c r="N242" s="60">
         <v>15950483577</v>
       </c>
       <c r="O242" s="43" t="s">
@@ -14485,7 +14488,7 @@
       </c>
     </row>
     <row r="243" s="6" customFormat="1" spans="1:15">
-      <c r="A243" s="52"/>
+      <c r="A243" s="56"/>
       <c r="B243" s="17">
         <v>43077</v>
       </c>
@@ -14530,7 +14533,7 @@
       </c>
     </row>
     <row r="244" s="6" customFormat="1" spans="1:15">
-      <c r="A244" s="52"/>
+      <c r="A244" s="56"/>
       <c r="B244" s="17">
         <v>43077</v>
       </c>
@@ -14575,7 +14578,7 @@
       </c>
     </row>
     <row r="245" s="6" customFormat="1" spans="1:15">
-      <c r="A245" s="52"/>
+      <c r="A245" s="56"/>
       <c r="B245" s="17">
         <v>43077</v>
       </c>
@@ -14620,7 +14623,7 @@
       </c>
     </row>
     <row r="246" s="6" customFormat="1" spans="1:15">
-      <c r="A246" s="52"/>
+      <c r="A246" s="56"/>
       <c r="B246" s="17">
         <v>43077</v>
       </c>
@@ -14665,7 +14668,7 @@
       </c>
     </row>
     <row r="247" s="6" customFormat="1" spans="1:15">
-      <c r="A247" s="52"/>
+      <c r="A247" s="56"/>
       <c r="B247" s="17">
         <v>43077</v>
       </c>
@@ -14696,13 +14699,13 @@
       <c r="K247" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L247" s="58" t="s">
+      <c r="L247" s="60" t="s">
         <v>595</v>
       </c>
       <c r="M247" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N247" s="58">
+      <c r="N247" s="60">
         <v>18114928177</v>
       </c>
       <c r="O247" s="43" t="s">
@@ -14710,7 +14713,7 @@
       </c>
     </row>
     <row r="248" s="6" customFormat="1" spans="1:15">
-      <c r="A248" s="52"/>
+      <c r="A248" s="56"/>
       <c r="B248" s="17">
         <v>43077</v>
       </c>
@@ -14755,7 +14758,7 @@
       </c>
     </row>
     <row r="249" s="6" customFormat="1" spans="1:15">
-      <c r="A249" s="52"/>
+      <c r="A249" s="56"/>
       <c r="B249" s="17">
         <v>43077</v>
       </c>
@@ -14800,7 +14803,7 @@
       </c>
     </row>
     <row r="250" s="6" customFormat="1" spans="1:15">
-      <c r="A250" s="52"/>
+      <c r="A250" s="56"/>
       <c r="B250" s="17">
         <v>43077</v>
       </c>
@@ -14845,7 +14848,7 @@
       </c>
     </row>
     <row r="251" s="6" customFormat="1" spans="1:15">
-      <c r="A251" s="53"/>
+      <c r="A251" s="56"/>
       <c r="B251" s="17">
         <v>43077</v>
       </c>
@@ -14889,90 +14892,88 @@
         <v>451</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
-      <c r="A252" s="19"/>
-      <c r="N252" s="27"/>
-      <c r="O252" s="8"/>
-    </row>
-    <row r="253" s="5" customFormat="1" spans="1:15">
-      <c r="A253" s="55" t="s">
+    <row r="252" s="5" customFormat="1" ht="14" customHeight="1" spans="1:15">
+      <c r="A252" s="57"/>
+      <c r="B252" s="17">
+        <v>43082</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D252" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F252" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G252" s="8">
+        <v>76113852</v>
+      </c>
+      <c r="H252" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="B253" s="17">
-        <v>43082</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D253" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E253" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F253" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G253" s="8">
-        <v>76113852</v>
-      </c>
-      <c r="H253" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="I253" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J253" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K253" s="13">
-        <v>17721436606</v>
-      </c>
-      <c r="L253" s="8" t="s">
+      <c r="I252" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J252" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K252" s="13">
+        <v>17721436606</v>
+      </c>
+      <c r="L252" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="M253" s="8" t="s">
+      <c r="M252" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="N253" s="27">
+      <c r="N252" s="27">
         <v>18016233560</v>
       </c>
-      <c r="O253" s="8" t="s">
+      <c r="O252" s="8" t="s">
         <v>451</v>
       </c>
     </row>
+    <row r="253" spans="1:15">
+      <c r="A253" s="19"/>
+      <c r="N253" s="27"/>
+      <c r="O253" s="8"/>
+    </row>
     <row r="254" spans="1:15">
-      <c r="A254" s="44"/>
+      <c r="A254" s="19"/>
       <c r="N254" s="27"/>
       <c r="O254" s="8"/>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="44"/>
+      <c r="A255" s="19"/>
       <c r="N255" s="27"/>
       <c r="O255" s="8"/>
     </row>
     <row r="256" spans="1:15">
-      <c r="A256" s="44"/>
+      <c r="A256" s="19"/>
       <c r="N256" s="27"/>
       <c r="O256" s="8"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="44"/>
+      <c r="A257" s="19"/>
       <c r="N257" s="27"/>
       <c r="O257" s="8"/>
     </row>
     <row r="258" spans="1:15">
-      <c r="A258" s="44"/>
+      <c r="A258" s="19"/>
       <c r="N258" s="27"/>
       <c r="O258" s="8"/>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="44"/>
+      <c r="A259" s="19"/>
       <c r="N259" s="27"/>
       <c r="O259" s="8"/>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="50"/>
+      <c r="A260" s="19"/>
       <c r="N260" s="27"/>
       <c r="O260" s="8"/>
     </row>
@@ -15256,70 +15257,44 @@
       <c r="N316" s="27"/>
       <c r="O316" s="8"/>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:1">
       <c r="A317" s="19"/>
-      <c r="N317" s="27"/>
-      <c r="O317" s="8"/>
-    </row>
-    <row r="318" spans="1:15">
+    </row>
+    <row r="318" spans="1:1">
       <c r="A318" s="19"/>
-      <c r="N318" s="27"/>
-      <c r="O318" s="8"/>
-    </row>
-    <row r="319" spans="1:15">
+    </row>
+    <row r="319" spans="1:1">
       <c r="A319" s="19"/>
-      <c r="N319" s="27"/>
-      <c r="O319" s="8"/>
-    </row>
-    <row r="320" spans="1:15">
+    </row>
+    <row r="320" spans="1:1">
       <c r="A320" s="19"/>
-      <c r="N320" s="27"/>
-      <c r="O320" s="8"/>
-    </row>
-    <row r="321" spans="1:15">
+    </row>
+    <row r="321" spans="1:1">
       <c r="A321" s="19"/>
-      <c r="N321" s="27"/>
-      <c r="O321" s="8"/>
-    </row>
-    <row r="322" spans="1:15">
+    </row>
+    <row r="322" spans="1:1">
       <c r="A322" s="19"/>
-      <c r="N322" s="27"/>
-      <c r="O322" s="8"/>
-    </row>
-    <row r="323" spans="1:15">
+    </row>
+    <row r="323" spans="1:1">
       <c r="A323" s="19"/>
-      <c r="N323" s="27"/>
-      <c r="O323" s="8"/>
-    </row>
-    <row r="324" spans="1:15">
+    </row>
+    <row r="324" spans="1:1">
       <c r="A324" s="19"/>
-      <c r="N324" s="27"/>
-      <c r="O324" s="8"/>
-    </row>
-    <row r="325" spans="1:15">
+    </row>
+    <row r="325" spans="1:1">
       <c r="A325" s="19"/>
-      <c r="N325" s="27"/>
-      <c r="O325" s="8"/>
-    </row>
-    <row r="326" spans="1:15">
+    </row>
+    <row r="326" spans="1:1">
       <c r="A326" s="19"/>
-      <c r="N326" s="27"/>
-      <c r="O326" s="8"/>
-    </row>
-    <row r="327" spans="1:15">
+    </row>
+    <row r="327" spans="1:1">
       <c r="A327" s="19"/>
-      <c r="N327" s="27"/>
-      <c r="O327" s="8"/>
-    </row>
-    <row r="328" spans="1:15">
+    </row>
+    <row r="328" spans="1:1">
       <c r="A328" s="19"/>
-      <c r="N328" s="27"/>
-      <c r="O328" s="8"/>
-    </row>
-    <row r="329" spans="1:15">
+    </row>
+    <row r="329" spans="1:1">
       <c r="A329" s="19"/>
-      <c r="N329" s="27"/>
-      <c r="O329" s="8"/>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="19"/>
@@ -16101,58 +16076,18 @@
     <row r="589" spans="1:1">
       <c r="A589" s="19"/>
     </row>
-    <row r="590" spans="1:1">
-      <c r="A590" s="19"/>
-    </row>
-    <row r="591" spans="1:1">
-      <c r="A591" s="19"/>
-    </row>
-    <row r="592" spans="1:1">
-      <c r="A592" s="19"/>
-    </row>
-    <row r="593" spans="1:1">
-      <c r="A593" s="19"/>
-    </row>
-    <row r="594" spans="1:1">
-      <c r="A594" s="19"/>
-    </row>
-    <row r="595" spans="1:1">
-      <c r="A595" s="19"/>
-    </row>
-    <row r="596" spans="1:1">
-      <c r="A596" s="19"/>
-    </row>
-    <row r="597" spans="1:1">
-      <c r="A597" s="19"/>
-    </row>
-    <row r="598" spans="1:1">
-      <c r="A598" s="19"/>
-    </row>
-    <row r="599" spans="1:1">
-      <c r="A599" s="19"/>
-    </row>
-    <row r="600" spans="1:1">
-      <c r="A600" s="19"/>
-    </row>
-    <row r="601" spans="1:1">
-      <c r="A601" s="19"/>
-    </row>
-    <row r="602" spans="1:1">
-      <c r="A602" s="19"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A180:A199"/>
     <mergeCell ref="A201:A215"/>
     <mergeCell ref="A217:A226"/>
-    <mergeCell ref="A228:A251"/>
-    <mergeCell ref="A253:A260"/>
+    <mergeCell ref="A228:A252"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B254:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B253:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C254:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C253:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16168,7 +16103,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -16181,13 +16116,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16198,7 +16133,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16209,7 +16144,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16220,7 +16155,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16236,7 +16171,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16247,7 +16182,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16263,7 +16198,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16274,7 +16209,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16285,7 +16220,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1880,6 +1880,21 @@
     <t>查厘士(徐汇日月光店11)</t>
   </si>
   <si>
+    <t>51周</t>
+  </si>
+  <si>
+    <t>易涞司（上海）食品有限公司</t>
+  </si>
+  <si>
+    <t>粉那么浓</t>
+  </si>
+  <si>
+    <t>粉那么浓（徐汇日月光店）</t>
+  </si>
+  <si>
+    <t>庄小姐</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -1901,10 +1916,10 @@
     <t>捞王锅物料理(苏州中心店)上线</t>
   </si>
   <si>
-    <t>查厘士(日月光店)上线</t>
-  </si>
-  <si>
-    <t>粉那么浓(徐汇日月光店）开业驻店</t>
+    <t>查厘士(徐汇日月光店)上线</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(宝山龙湖店）开业驻店</t>
   </si>
   <si>
     <t>捞王锅物料理(五角场万达店）上线</t>
@@ -1915,11 +1930,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2005,22 +2020,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2049,35 +2057,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2091,41 +2073,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2147,8 +2111,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2161,9 +2170,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2224,13 +2239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2242,19 +2251,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2266,43 +2263,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2320,7 +2293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2332,7 +2305,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2350,13 +2341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2374,19 +2365,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2726,30 +2741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2770,26 +2761,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2823,16 +2794,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2841,144 +2856,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3144,13 +3159,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3163,6 +3175,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4117,9 +4132,9 @@
   <dimension ref="A1:O589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C257" sqref="C257"/>
+      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13522,13 +13537,13 @@
       <c r="K220" s="13">
         <v>17721436606</v>
       </c>
-      <c r="L220" s="58" t="s">
+      <c r="L220" s="57" t="s">
         <v>534</v>
       </c>
       <c r="M220" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="N220" s="59" t="s">
+      <c r="N220" s="58" t="s">
         <v>535</v>
       </c>
       <c r="O220" s="8" t="s">
@@ -13811,7 +13826,7 @@
       <c r="O227" s="8"/>
     </row>
     <row r="228" s="6" customFormat="1" spans="1:15">
-      <c r="A228" s="55" t="s">
+      <c r="A228" s="51" t="s">
         <v>550</v>
       </c>
       <c r="B228" s="17">
@@ -13858,7 +13873,7 @@
       </c>
     </row>
     <row r="229" s="6" customFormat="1" spans="1:15">
-      <c r="A229" s="56"/>
+      <c r="A229" s="52"/>
       <c r="B229" s="17">
         <v>43077</v>
       </c>
@@ -13903,7 +13918,7 @@
       </c>
     </row>
     <row r="230" s="6" customFormat="1" spans="1:15">
-      <c r="A230" s="56"/>
+      <c r="A230" s="52"/>
       <c r="B230" s="17">
         <v>43077</v>
       </c>
@@ -13948,7 +13963,7 @@
       </c>
     </row>
     <row r="231" s="6" customFormat="1" spans="1:15">
-      <c r="A231" s="56"/>
+      <c r="A231" s="52"/>
       <c r="B231" s="17">
         <v>43077</v>
       </c>
@@ -13979,7 +13994,7 @@
       <c r="K231" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L231" s="60" t="s">
+      <c r="L231" s="59" t="s">
         <v>561</v>
       </c>
       <c r="M231" s="13" t="s">
@@ -13993,7 +14008,7 @@
       </c>
     </row>
     <row r="232" s="6" customFormat="1" spans="1:15">
-      <c r="A232" s="56"/>
+      <c r="A232" s="52"/>
       <c r="B232" s="17">
         <v>43077</v>
       </c>
@@ -14038,7 +14053,7 @@
       </c>
     </row>
     <row r="233" s="6" customFormat="1" spans="1:15">
-      <c r="A233" s="56"/>
+      <c r="A233" s="52"/>
       <c r="B233" s="17">
         <v>43077</v>
       </c>
@@ -14083,7 +14098,7 @@
       </c>
     </row>
     <row r="234" s="6" customFormat="1" spans="1:15">
-      <c r="A234" s="56"/>
+      <c r="A234" s="52"/>
       <c r="B234" s="17">
         <v>43077</v>
       </c>
@@ -14128,7 +14143,7 @@
       </c>
     </row>
     <row r="235" s="6" customFormat="1" spans="1:15">
-      <c r="A235" s="56"/>
+      <c r="A235" s="52"/>
       <c r="B235" s="17">
         <v>43077</v>
       </c>
@@ -14173,7 +14188,7 @@
       </c>
     </row>
     <row r="236" s="6" customFormat="1" spans="1:15">
-      <c r="A236" s="56"/>
+      <c r="A236" s="52"/>
       <c r="B236" s="17">
         <v>43077</v>
       </c>
@@ -14218,7 +14233,7 @@
       </c>
     </row>
     <row r="237" s="6" customFormat="1" spans="1:15">
-      <c r="A237" s="56"/>
+      <c r="A237" s="52"/>
       <c r="B237" s="17">
         <v>43077</v>
       </c>
@@ -14263,7 +14278,7 @@
       </c>
     </row>
     <row r="238" s="6" customFormat="1" spans="1:15">
-      <c r="A238" s="56"/>
+      <c r="A238" s="52"/>
       <c r="B238" s="17">
         <v>43077</v>
       </c>
@@ -14294,13 +14309,13 @@
       <c r="K238" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L238" s="61" t="s">
+      <c r="L238" s="60" t="s">
         <v>577</v>
       </c>
       <c r="M238" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N238" s="61">
+      <c r="N238" s="60">
         <v>18817298582</v>
       </c>
       <c r="O238" s="43" t="s">
@@ -14308,7 +14323,7 @@
       </c>
     </row>
     <row r="239" s="6" customFormat="1" spans="1:15">
-      <c r="A239" s="56"/>
+      <c r="A239" s="52"/>
       <c r="B239" s="17">
         <v>43077</v>
       </c>
@@ -14339,7 +14354,7 @@
       <c r="K239" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L239" s="60" t="s">
+      <c r="L239" s="59" t="s">
         <v>332</v>
       </c>
       <c r="M239" s="13" t="s">
@@ -14353,7 +14368,7 @@
       </c>
     </row>
     <row r="240" s="6" customFormat="1" spans="1:15">
-      <c r="A240" s="56"/>
+      <c r="A240" s="52"/>
       <c r="B240" s="17">
         <v>43077</v>
       </c>
@@ -14398,7 +14413,7 @@
       </c>
     </row>
     <row r="241" s="6" customFormat="1" spans="1:15">
-      <c r="A241" s="56"/>
+      <c r="A241" s="52"/>
       <c r="B241" s="17">
         <v>43077</v>
       </c>
@@ -14429,7 +14444,7 @@
       <c r="K241" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L241" s="60" t="s">
+      <c r="L241" s="59" t="s">
         <v>583</v>
       </c>
       <c r="M241" s="13" t="s">
@@ -14443,7 +14458,7 @@
       </c>
     </row>
     <row r="242" s="6" customFormat="1" spans="1:15">
-      <c r="A242" s="56"/>
+      <c r="A242" s="52"/>
       <c r="B242" s="17">
         <v>43077</v>
       </c>
@@ -14474,13 +14489,13 @@
       <c r="K242" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L242" s="60" t="s">
+      <c r="L242" s="59" t="s">
         <v>584</v>
       </c>
       <c r="M242" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N242" s="60">
+      <c r="N242" s="59">
         <v>15950483577</v>
       </c>
       <c r="O242" s="43" t="s">
@@ -14488,7 +14503,7 @@
       </c>
     </row>
     <row r="243" s="6" customFormat="1" spans="1:15">
-      <c r="A243" s="56"/>
+      <c r="A243" s="52"/>
       <c r="B243" s="17">
         <v>43077</v>
       </c>
@@ -14533,7 +14548,7 @@
       </c>
     </row>
     <row r="244" s="6" customFormat="1" spans="1:15">
-      <c r="A244" s="56"/>
+      <c r="A244" s="52"/>
       <c r="B244" s="17">
         <v>43077</v>
       </c>
@@ -14578,7 +14593,7 @@
       </c>
     </row>
     <row r="245" s="6" customFormat="1" spans="1:15">
-      <c r="A245" s="56"/>
+      <c r="A245" s="52"/>
       <c r="B245" s="17">
         <v>43077</v>
       </c>
@@ -14623,7 +14638,7 @@
       </c>
     </row>
     <row r="246" s="6" customFormat="1" spans="1:15">
-      <c r="A246" s="56"/>
+      <c r="A246" s="52"/>
       <c r="B246" s="17">
         <v>43077</v>
       </c>
@@ -14668,7 +14683,7 @@
       </c>
     </row>
     <row r="247" s="6" customFormat="1" spans="1:15">
-      <c r="A247" s="56"/>
+      <c r="A247" s="52"/>
       <c r="B247" s="17">
         <v>43077</v>
       </c>
@@ -14699,13 +14714,13 @@
       <c r="K247" s="43">
         <v>17721436606</v>
       </c>
-      <c r="L247" s="60" t="s">
+      <c r="L247" s="59" t="s">
         <v>595</v>
       </c>
       <c r="M247" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N247" s="60">
+      <c r="N247" s="59">
         <v>18114928177</v>
       </c>
       <c r="O247" s="43" t="s">
@@ -14713,7 +14728,7 @@
       </c>
     </row>
     <row r="248" s="6" customFormat="1" spans="1:15">
-      <c r="A248" s="56"/>
+      <c r="A248" s="52"/>
       <c r="B248" s="17">
         <v>43077</v>
       </c>
@@ -14758,7 +14773,7 @@
       </c>
     </row>
     <row r="249" s="6" customFormat="1" spans="1:15">
-      <c r="A249" s="56"/>
+      <c r="A249" s="52"/>
       <c r="B249" s="17">
         <v>43077</v>
       </c>
@@ -14803,7 +14818,7 @@
       </c>
     </row>
     <row r="250" s="6" customFormat="1" spans="1:15">
-      <c r="A250" s="56"/>
+      <c r="A250" s="52"/>
       <c r="B250" s="17">
         <v>43077</v>
       </c>
@@ -14848,7 +14863,7 @@
       </c>
     </row>
     <row r="251" s="6" customFormat="1" spans="1:15">
-      <c r="A251" s="56"/>
+      <c r="A251" s="52"/>
       <c r="B251" s="17">
         <v>43077</v>
       </c>
@@ -14893,7 +14908,7 @@
       </c>
     </row>
     <row r="252" s="5" customFormat="1" ht="14" customHeight="1" spans="1:15">
-      <c r="A252" s="57"/>
+      <c r="A252" s="53"/>
       <c r="B252" s="17">
         <v>43082</v>
       </c>
@@ -14943,22 +14958,64 @@
       <c r="O253" s="8"/>
     </row>
     <row r="254" spans="1:15">
-      <c r="A254" s="19"/>
-      <c r="N254" s="27"/>
-      <c r="O254" s="8"/>
+      <c r="A254" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="B254" s="17">
+        <v>43087</v>
+      </c>
+      <c r="C254" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="F254" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G254" s="8">
+        <v>76110599</v>
+      </c>
+      <c r="H254" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="I254" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J254" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K254" s="13">
+        <v>17721436606</v>
+      </c>
+      <c r="L254" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="M254" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N254" s="27">
+        <v>13661599457</v>
+      </c>
+      <c r="O254" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="19"/>
+      <c r="A255" s="56"/>
       <c r="N255" s="27"/>
       <c r="O255" s="8"/>
     </row>
     <row r="256" spans="1:15">
-      <c r="A256" s="19"/>
+      <c r="A256" s="56"/>
       <c r="N256" s="27"/>
       <c r="O256" s="8"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="19"/>
+      <c r="A257" s="61"/>
       <c r="N257" s="27"/>
       <c r="O257" s="8"/>
     </row>
@@ -16077,17 +16134,18 @@
       <c r="A589" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A180:A199"/>
     <mergeCell ref="A201:A215"/>
     <mergeCell ref="A217:A226"/>
     <mergeCell ref="A228:A252"/>
+    <mergeCell ref="A254:A257"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B253:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B255:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C253:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C255:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16104,7 +16162,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -16116,13 +16174,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16133,7 +16191,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16144,7 +16202,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16155,7 +16213,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16171,7 +16229,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16182,7 +16240,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16198,7 +16256,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16209,7 +16267,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16220,7 +16278,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:3">
